--- a/docs/StructureDefinition-VA.MHV.PHR.imaging.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.imaging.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.3-beta</t>
+    <t>0.1.4-beta</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-02T16:50:30-06:00</t>
+    <t>2023-02-03T09:54:41-06:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.imaging.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.imaging.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-03T09:54:41-06:00</t>
+    <t>2023-02-21T15:24:44-06:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.imaging.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.imaging.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.4-beta</t>
+    <t>0.1.5-beta</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-21T15:24:44-06:00</t>
+    <t>2023-02-23T08:24:10-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1013,7 +1013,7 @@
     <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
   </si>
   <si>
-    <t xml:space="preserve">pattern:uri}
+    <t xml:space="preserve">pattern:system}
 </t>
   </si>
   <si>
@@ -8573,7 +8573,7 @@
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="G49" t="s" s="2">
         <v>93</v>
@@ -9587,7 +9587,7 @@
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="G57" t="s" s="2">
         <v>93</v>

--- a/docs/StructureDefinition-VA.MHV.PHR.imaging.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.imaging.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-23T08:24:10-06:00</t>
+    <t>2023-02-23T08:47:22-06:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.imaging.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.imaging.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-23T08:47:22-06:00</t>
+    <t>2023-03-05T12:38:40-06:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.imaging.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.imaging.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.5-beta</t>
+    <t>0.1.6-beta</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-05T12:38:40-06:00</t>
+    <t>2023-03-23T11:34:13-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -568,7 +568,7 @@
     <t>TOid</t>
   </si>
   <si>
-    <t>ImagingExamTO.id</t>
+    <t>{StationNbr} and {ImagingExamTO.id}</t>
   </si>
   <si>
     <t>DocumentReference.identifier:TOid.id</t>
@@ -691,7 +691,7 @@
     <t>DocumentReference.identifier.system</t>
   </si>
   <si>
-    <t>system for given Vista site and ImagingExamTO.id</t>
+    <t>urn:oid:2.16.840.1.113883.4.349.4.{stationNbr}</t>
   </si>
   <si>
     <t>Establishes the namespace for the value - that is, a URL that describes a set values that are unique.</t>
@@ -719,6 +719,9 @@
   </si>
   <si>
     <t>DocumentReference.identifier.value</t>
+  </si>
+  <si>
+    <t>`ImagingExamTO` | `.` | {ImagingExamTO.id}</t>
   </si>
   <si>
     <t>The portion of the identifier typically relevant to the user and which is unique within the context of the system.</t>
@@ -827,12 +830,12 @@
     <t>DocumentReference.identifier:accessionNumber.system</t>
   </si>
   <si>
-    <t>system for given Vista site and AccessionNumber</t>
-  </si>
-  <si>
     <t>DocumentReference.identifier:accessionNumber.value</t>
   </si>
   <si>
+    <t>`Accession` | `.` | {ImagingExamTO.accessionNum}</t>
+  </si>
+  <si>
     <t>DocumentReference.identifier:accessionNumber.period</t>
   </si>
   <si>
@@ -866,13 +869,10 @@
     <t>DocumentReference.identifier:casenum.system</t>
   </si>
   <si>
-    <t>system for given Vista site and casenum</t>
-  </si>
-  <si>
     <t>DocumentReference.identifier:casenum.value</t>
   </si>
   <si>
-    <t>ImagingExam.casenum</t>
+    <t>`CaseNum` | `.` | {ImagingExam.casenum}</t>
   </si>
   <si>
     <t>DocumentReference.identifier:casenum.period</t>
@@ -4811,13 +4811,13 @@
         <v>176</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>173</v>
+        <v>223</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
@@ -4831,7 +4831,7 @@
         <v>81</v>
       </c>
       <c r="T19" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="U19" t="s" s="2">
         <v>81</v>
@@ -4867,7 +4867,7 @@
         <v>81</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>82</v>
@@ -4888,7 +4888,7 @@
         <v>81</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>81</v>
@@ -4897,7 +4897,7 @@
         <v>81</v>
       </c>
       <c r="AP19" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AQ19" t="s" s="2">
         <v>81</v>
@@ -4908,10 +4908,10 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4934,13 +4934,13 @@
         <v>94</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -4991,7 +4991,7 @@
         <v>81</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>82</v>
@@ -5012,7 +5012,7 @@
         <v>81</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AN20" t="s" s="2">
         <v>81</v>
@@ -5021,7 +5021,7 @@
         <v>81</v>
       </c>
       <c r="AP20" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AQ20" t="s" s="2">
         <v>81</v>
@@ -5032,10 +5032,10 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -5058,16 +5058,16 @@
         <v>94</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
@@ -5117,7 +5117,7 @@
         <v>81</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>82</v>
@@ -5138,7 +5138,7 @@
         <v>81</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>81</v>
@@ -5147,7 +5147,7 @@
         <v>81</v>
       </c>
       <c r="AP21" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AQ21" t="s" s="2">
         <v>81</v>
@@ -5158,13 +5158,13 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B22" t="s" s="2">
         <v>163</v>
       </c>
       <c r="C22" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D22" t="s" s="2">
         <v>81</v>
@@ -5279,12 +5279,12 @@
         <v>170</v>
       </c>
       <c r="AR22" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B23" t="s" s="2">
         <v>175</v>
@@ -5408,7 +5408,7 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B24" t="s" s="2">
         <v>182</v>
@@ -5534,7 +5534,7 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B25" t="s" s="2">
         <v>188</v>
@@ -5582,7 +5582,7 @@
         <v>81</v>
       </c>
       <c r="S25" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="T25" t="s" s="2">
         <v>81</v>
@@ -5662,7 +5662,7 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B26" t="s" s="2">
         <v>200</v>
@@ -5710,7 +5710,7 @@
         <v>81</v>
       </c>
       <c r="S26" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="T26" t="s" s="2">
         <v>81</v>
@@ -5790,7 +5790,7 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B27" t="s" s="2">
         <v>212</v>
@@ -5819,7 +5819,7 @@
         <v>107</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>256</v>
+        <v>213</v>
       </c>
       <c r="M27" t="s" s="2">
         <v>214</v>
@@ -5947,13 +5947,13 @@
         <v>176</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>248</v>
+        <v>258</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
@@ -5967,7 +5967,7 @@
         <v>81</v>
       </c>
       <c r="T28" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="U28" t="s" s="2">
         <v>81</v>
@@ -6003,7 +6003,7 @@
         <v>81</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>82</v>
@@ -6024,7 +6024,7 @@
         <v>81</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>81</v>
@@ -6033,7 +6033,7 @@
         <v>81</v>
       </c>
       <c r="AP28" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AQ28" t="s" s="2">
         <v>81</v>
@@ -6044,10 +6044,10 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -6070,13 +6070,13 @@
         <v>94</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -6127,7 +6127,7 @@
         <v>81</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>82</v>
@@ -6148,7 +6148,7 @@
         <v>81</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>81</v>
@@ -6157,7 +6157,7 @@
         <v>81</v>
       </c>
       <c r="AP29" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AQ29" t="s" s="2">
         <v>81</v>
@@ -6168,10 +6168,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -6194,16 +6194,16 @@
         <v>94</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
@@ -6253,7 +6253,7 @@
         <v>81</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>82</v>
@@ -6274,7 +6274,7 @@
         <v>81</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>81</v>
@@ -6283,7 +6283,7 @@
         <v>81</v>
       </c>
       <c r="AP30" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AQ30" t="s" s="2">
         <v>81</v>
@@ -6294,13 +6294,13 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B31" t="s" s="2">
         <v>163</v>
       </c>
       <c r="C31" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D31" t="s" s="2">
         <v>81</v>
@@ -6415,12 +6415,12 @@
         <v>170</v>
       </c>
       <c r="AR31" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B32" t="s" s="2">
         <v>175</v>
@@ -6544,7 +6544,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B33" t="s" s="2">
         <v>182</v>
@@ -6670,7 +6670,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B34" t="s" s="2">
         <v>188</v>
@@ -6718,7 +6718,7 @@
         <v>81</v>
       </c>
       <c r="S34" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="T34" t="s" s="2">
         <v>81</v>
@@ -6798,7 +6798,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B35" t="s" s="2">
         <v>200</v>
@@ -6926,7 +6926,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B36" t="s" s="2">
         <v>212</v>
@@ -6955,7 +6955,7 @@
         <v>107</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>269</v>
+        <v>213</v>
       </c>
       <c r="M36" t="s" s="2">
         <v>214</v>
@@ -7086,10 +7086,10 @@
         <v>271</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
@@ -7103,7 +7103,7 @@
         <v>81</v>
       </c>
       <c r="T37" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="U37" t="s" s="2">
         <v>81</v>
@@ -7139,7 +7139,7 @@
         <v>81</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>82</v>
@@ -7160,7 +7160,7 @@
         <v>81</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>81</v>
@@ -7169,7 +7169,7 @@
         <v>81</v>
       </c>
       <c r="AP37" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AQ37" t="s" s="2">
         <v>81</v>
@@ -7183,7 +7183,7 @@
         <v>272</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -7206,13 +7206,13 @@
         <v>94</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -7263,7 +7263,7 @@
         <v>81</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>82</v>
@@ -7284,7 +7284,7 @@
         <v>81</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>81</v>
@@ -7293,7 +7293,7 @@
         <v>81</v>
       </c>
       <c r="AP38" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AQ38" t="s" s="2">
         <v>81</v>
@@ -7307,7 +7307,7 @@
         <v>273</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -7330,16 +7330,16 @@
         <v>94</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
@@ -7389,7 +7389,7 @@
         <v>81</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>82</v>
@@ -7410,7 +7410,7 @@
         <v>81</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>81</v>
@@ -7419,7 +7419,7 @@
         <v>81</v>
       </c>
       <c r="AP39" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AQ39" t="s" s="2">
         <v>81</v>
@@ -11118,7 +11118,7 @@
         <v>81</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="L69" t="s" s="2">
         <v>456</v>
@@ -15024,7 +15024,7 @@
         <v>94</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L100" t="s" s="2">
         <v>638</v>

--- a/docs/StructureDefinition-VA.MHV.PHR.imaging.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.imaging.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.6-beta</t>
+    <t>0.1.7-beta</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-23T11:34:13-05:00</t>
+    <t>2023-03-29T16:54:48-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.imaging.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.imaging.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4207" uniqueCount="676">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4207" uniqueCount="677">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-29T16:54:48-05:00</t>
+    <t>2023-03-30T12:22:18-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -707,6 +707,10 @@
   </si>
   <si>
     <t>Identifier.system</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+TOid-startswithoid:ID system must start with urn:oid:2.16.840.1.113883.4.349.4. The next would be the {stationNbr} {value.startsWith('urn:oid:2.16.840.1.113883.4.349.4.')}</t>
   </si>
   <si>
     <t>II.root or Role.id.root</t>
@@ -4753,7 +4757,7 @@
         <v>81</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>105</v>
+        <v>219</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>81</v>
@@ -4762,7 +4766,7 @@
         <v>81</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AN18" t="s" s="2">
         <v>81</v>
@@ -4771,7 +4775,7 @@
         <v>81</v>
       </c>
       <c r="AP18" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AQ18" t="s" s="2">
         <v>81</v>
@@ -4782,10 +4786,10 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -4811,13 +4815,13 @@
         <v>176</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
@@ -4831,7 +4835,7 @@
         <v>81</v>
       </c>
       <c r="T19" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="U19" t="s" s="2">
         <v>81</v>
@@ -4867,7 +4871,7 @@
         <v>81</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>82</v>
@@ -4888,7 +4892,7 @@
         <v>81</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>81</v>
@@ -4897,7 +4901,7 @@
         <v>81</v>
       </c>
       <c r="AP19" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AQ19" t="s" s="2">
         <v>81</v>
@@ -4908,10 +4912,10 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4934,13 +4938,13 @@
         <v>94</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -4991,7 +4995,7 @@
         <v>81</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>82</v>
@@ -5012,7 +5016,7 @@
         <v>81</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AN20" t="s" s="2">
         <v>81</v>
@@ -5021,7 +5025,7 @@
         <v>81</v>
       </c>
       <c r="AP20" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AQ20" t="s" s="2">
         <v>81</v>
@@ -5032,10 +5036,10 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -5058,16 +5062,16 @@
         <v>94</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
@@ -5117,7 +5121,7 @@
         <v>81</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>82</v>
@@ -5138,7 +5142,7 @@
         <v>81</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>81</v>
@@ -5147,7 +5151,7 @@
         <v>81</v>
       </c>
       <c r="AP21" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AQ21" t="s" s="2">
         <v>81</v>
@@ -5158,13 +5162,13 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B22" t="s" s="2">
         <v>163</v>
       </c>
       <c r="C22" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D22" t="s" s="2">
         <v>81</v>
@@ -5279,12 +5283,12 @@
         <v>170</v>
       </c>
       <c r="AR22" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B23" t="s" s="2">
         <v>175</v>
@@ -5408,7 +5412,7 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B24" t="s" s="2">
         <v>182</v>
@@ -5534,7 +5538,7 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B25" t="s" s="2">
         <v>188</v>
@@ -5582,7 +5586,7 @@
         <v>81</v>
       </c>
       <c r="S25" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="T25" t="s" s="2">
         <v>81</v>
@@ -5662,7 +5666,7 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B26" t="s" s="2">
         <v>200</v>
@@ -5710,7 +5714,7 @@
         <v>81</v>
       </c>
       <c r="S26" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="T26" t="s" s="2">
         <v>81</v>
@@ -5790,7 +5794,7 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B27" t="s" s="2">
         <v>212</v>
@@ -5889,7 +5893,7 @@
         <v>81</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>105</v>
+        <v>219</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>81</v>
@@ -5898,7 +5902,7 @@
         <v>81</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>81</v>
@@ -5907,7 +5911,7 @@
         <v>81</v>
       </c>
       <c r="AP27" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AQ27" t="s" s="2">
         <v>81</v>
@@ -5918,10 +5922,10 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5947,13 +5951,13 @@
         <v>176</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
@@ -5967,7 +5971,7 @@
         <v>81</v>
       </c>
       <c r="T28" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="U28" t="s" s="2">
         <v>81</v>
@@ -6003,7 +6007,7 @@
         <v>81</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>82</v>
@@ -6024,7 +6028,7 @@
         <v>81</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>81</v>
@@ -6033,7 +6037,7 @@
         <v>81</v>
       </c>
       <c r="AP28" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AQ28" t="s" s="2">
         <v>81</v>
@@ -6044,10 +6048,10 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -6070,13 +6074,13 @@
         <v>94</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -6127,7 +6131,7 @@
         <v>81</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>82</v>
@@ -6148,7 +6152,7 @@
         <v>81</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>81</v>
@@ -6157,7 +6161,7 @@
         <v>81</v>
       </c>
       <c r="AP29" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AQ29" t="s" s="2">
         <v>81</v>
@@ -6168,10 +6172,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -6194,16 +6198,16 @@
         <v>94</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
@@ -6253,7 +6257,7 @@
         <v>81</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>82</v>
@@ -6274,7 +6278,7 @@
         <v>81</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>81</v>
@@ -6283,7 +6287,7 @@
         <v>81</v>
       </c>
       <c r="AP30" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AQ30" t="s" s="2">
         <v>81</v>
@@ -6294,13 +6298,13 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B31" t="s" s="2">
         <v>163</v>
       </c>
       <c r="C31" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D31" t="s" s="2">
         <v>81</v>
@@ -6415,12 +6419,12 @@
         <v>170</v>
       </c>
       <c r="AR31" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B32" t="s" s="2">
         <v>175</v>
@@ -6544,7 +6548,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B33" t="s" s="2">
         <v>182</v>
@@ -6670,7 +6674,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B34" t="s" s="2">
         <v>188</v>
@@ -6718,7 +6722,7 @@
         <v>81</v>
       </c>
       <c r="S34" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="T34" t="s" s="2">
         <v>81</v>
@@ -6798,7 +6802,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B35" t="s" s="2">
         <v>200</v>
@@ -6926,7 +6930,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B36" t="s" s="2">
         <v>212</v>
@@ -7025,7 +7029,7 @@
         <v>81</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>105</v>
+        <v>219</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>81</v>
@@ -7034,7 +7038,7 @@
         <v>81</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>81</v>
@@ -7043,7 +7047,7 @@
         <v>81</v>
       </c>
       <c r="AP36" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AQ36" t="s" s="2">
         <v>81</v>
@@ -7054,10 +7058,10 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -7083,13 +7087,13 @@
         <v>176</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
@@ -7103,7 +7107,7 @@
         <v>81</v>
       </c>
       <c r="T37" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="U37" t="s" s="2">
         <v>81</v>
@@ -7139,7 +7143,7 @@
         <v>81</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>82</v>
@@ -7160,7 +7164,7 @@
         <v>81</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>81</v>
@@ -7169,7 +7173,7 @@
         <v>81</v>
       </c>
       <c r="AP37" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AQ37" t="s" s="2">
         <v>81</v>
@@ -7180,10 +7184,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -7206,13 +7210,13 @@
         <v>94</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -7263,7 +7267,7 @@
         <v>81</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>82</v>
@@ -7284,7 +7288,7 @@
         <v>81</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>81</v>
@@ -7293,7 +7297,7 @@
         <v>81</v>
       </c>
       <c r="AP38" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AQ38" t="s" s="2">
         <v>81</v>
@@ -7304,10 +7308,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -7330,16 +7334,16 @@
         <v>94</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
@@ -7389,7 +7393,7 @@
         <v>81</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>82</v>
@@ -7410,7 +7414,7 @@
         <v>81</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>81</v>
@@ -7419,7 +7423,7 @@
         <v>81</v>
       </c>
       <c r="AP39" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AQ39" t="s" s="2">
         <v>81</v>
@@ -7430,10 +7434,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -7459,13 +7463,13 @@
         <v>113</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
@@ -7495,7 +7499,7 @@
       </c>
       <c r="Y40" s="2"/>
       <c r="Z40" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AA40" t="s" s="2">
         <v>81</v>
@@ -7513,7 +7517,7 @@
         <v>81</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>93</v>
@@ -7528,36 +7532,36 @@
         <v>105</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO40" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AP40" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AQ40" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AR40" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -7583,13 +7587,13 @@
         <v>113</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
@@ -7618,10 +7622,10 @@
         <v>194</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AA41" t="s" s="2">
         <v>81</v>
@@ -7639,7 +7643,7 @@
         <v>81</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>82</v>
@@ -7657,33 +7661,33 @@
         <v>81</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO41" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AP41" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AQ41" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AR41" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -7709,13 +7713,13 @@
         <v>201</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
@@ -7744,10 +7748,10 @@
         <v>194</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="AA42" t="s" s="2">
         <v>81</v>
@@ -7765,7 +7769,7 @@
         <v>81</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>82</v>
@@ -7780,25 +7784,25 @@
         <v>105</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AO42" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AP42" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AQ42" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AR42" t="s" s="2">
         <v>81</v>
@@ -7806,10 +7810,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -7930,10 +7934,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -8056,10 +8060,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -8070,7 +8074,7 @@
         <v>93</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>81</v>
@@ -8082,19 +8086,19 @@
         <v>94</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="O45" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>81</v>
@@ -8131,7 +8135,7 @@
         <v>81</v>
       </c>
       <c r="AB45" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AC45" s="2"/>
       <c r="AD45" t="s" s="2">
@@ -8141,7 +8145,7 @@
         <v>167</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>82</v>
@@ -8162,7 +8166,7 @@
         <v>81</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>81</v>
@@ -8171,7 +8175,7 @@
         <v>81</v>
       </c>
       <c r="AP45" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AQ45" t="s" s="2">
         <v>81</v>
@@ -8182,13 +8186,13 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C46" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D46" t="s" s="2">
         <v>81</v>
@@ -8210,19 +8214,19 @@
         <v>94</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="O46" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="P46" t="s" s="2">
         <v>81</v>
@@ -8232,7 +8236,7 @@
         <v>81</v>
       </c>
       <c r="S46" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="T46" t="s" s="2">
         <v>81</v>
@@ -8271,7 +8275,7 @@
         <v>81</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>82</v>
@@ -8292,7 +8296,7 @@
         <v>81</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>81</v>
@@ -8301,21 +8305,21 @@
         <v>81</v>
       </c>
       <c r="AP46" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AQ46" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AR46" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -8436,10 +8440,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -8562,10 +8566,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -8591,16 +8595,16 @@
         <v>107</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="O49" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="P49" t="s" s="2">
         <v>81</v>
@@ -8610,7 +8614,7 @@
         <v>81</v>
       </c>
       <c r="S49" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="T49" t="s" s="2">
         <v>81</v>
@@ -8649,7 +8653,7 @@
         <v>81</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>82</v>
@@ -8670,7 +8674,7 @@
         <v>81</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>81</v>
@@ -8679,7 +8683,7 @@
         <v>81</v>
       </c>
       <c r="AP49" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AQ49" t="s" s="2">
         <v>81</v>
@@ -8690,10 +8694,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -8719,13 +8723,13 @@
         <v>176</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
@@ -8775,7 +8779,7 @@
         <v>81</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>82</v>
@@ -8796,7 +8800,7 @@
         <v>81</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>81</v>
@@ -8805,7 +8809,7 @@
         <v>81</v>
       </c>
       <c r="AP50" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="AQ50" t="s" s="2">
         <v>81</v>
@@ -8816,10 +8820,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8845,14 +8849,14 @@
         <v>113</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>81</v>
@@ -8901,7 +8905,7 @@
         <v>81</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>82</v>
@@ -8922,7 +8926,7 @@
         <v>81</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>81</v>
@@ -8931,7 +8935,7 @@
         <v>81</v>
       </c>
       <c r="AP51" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AQ51" t="s" s="2">
         <v>81</v>
@@ -8942,10 +8946,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8971,14 +8975,14 @@
         <v>176</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>81</v>
@@ -9027,7 +9031,7 @@
         <v>81</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>82</v>
@@ -9048,7 +9052,7 @@
         <v>81</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>81</v>
@@ -9057,7 +9061,7 @@
         <v>81</v>
       </c>
       <c r="AP52" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AQ52" t="s" s="2">
         <v>81</v>
@@ -9068,10 +9072,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -9094,19 +9098,19 @@
         <v>94</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="O53" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>81</v>
@@ -9155,7 +9159,7 @@
         <v>81</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>82</v>
@@ -9176,7 +9180,7 @@
         <v>81</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>81</v>
@@ -9185,7 +9189,7 @@
         <v>81</v>
       </c>
       <c r="AP53" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AQ53" t="s" s="2">
         <v>81</v>
@@ -9196,13 +9200,13 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C54" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="D54" t="s" s="2">
         <v>81</v>
@@ -9224,19 +9228,19 @@
         <v>94</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="O54" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="P54" t="s" s="2">
         <v>81</v>
@@ -9285,7 +9289,7 @@
         <v>81</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>82</v>
@@ -9306,7 +9310,7 @@
         <v>81</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>81</v>
@@ -9315,21 +9319,21 @@
         <v>81</v>
       </c>
       <c r="AP54" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AQ54" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AR54" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -9450,10 +9454,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -9576,10 +9580,10 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -9605,16 +9609,16 @@
         <v>107</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="O57" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="P57" t="s" s="2">
         <v>81</v>
@@ -9624,7 +9628,7 @@
         <v>81</v>
       </c>
       <c r="S57" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="T57" t="s" s="2">
         <v>81</v>
@@ -9663,7 +9667,7 @@
         <v>81</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>82</v>
@@ -9684,7 +9688,7 @@
         <v>81</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>81</v>
@@ -9693,7 +9697,7 @@
         <v>81</v>
       </c>
       <c r="AP57" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AQ57" t="s" s="2">
         <v>81</v>
@@ -9704,10 +9708,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -9733,13 +9737,13 @@
         <v>176</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
@@ -9789,7 +9793,7 @@
         <v>81</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>82</v>
@@ -9810,7 +9814,7 @@
         <v>81</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>81</v>
@@ -9819,7 +9823,7 @@
         <v>81</v>
       </c>
       <c r="AP58" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="AQ58" t="s" s="2">
         <v>81</v>
@@ -9830,10 +9834,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -9859,14 +9863,14 @@
         <v>113</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="P59" t="s" s="2">
         <v>81</v>
@@ -9915,7 +9919,7 @@
         <v>81</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>82</v>
@@ -9936,7 +9940,7 @@
         <v>81</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>81</v>
@@ -9945,7 +9949,7 @@
         <v>81</v>
       </c>
       <c r="AP59" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AQ59" t="s" s="2">
         <v>81</v>
@@ -9956,10 +9960,10 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9985,14 +9989,14 @@
         <v>176</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>81</v>
@@ -10041,7 +10045,7 @@
         <v>81</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>82</v>
@@ -10062,7 +10066,7 @@
         <v>81</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>81</v>
@@ -10071,7 +10075,7 @@
         <v>81</v>
       </c>
       <c r="AP60" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AQ60" t="s" s="2">
         <v>81</v>
@@ -10082,10 +10086,10 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -10108,19 +10112,19 @@
         <v>94</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="O61" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="P61" t="s" s="2">
         <v>81</v>
@@ -10169,7 +10173,7 @@
         <v>81</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>82</v>
@@ -10190,7 +10194,7 @@
         <v>81</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>81</v>
@@ -10199,7 +10203,7 @@
         <v>81</v>
       </c>
       <c r="AP61" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AQ61" t="s" s="2">
         <v>81</v>
@@ -10210,10 +10214,10 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -10239,16 +10243,16 @@
         <v>176</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="O62" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="P62" t="s" s="2">
         <v>81</v>
@@ -10297,7 +10301,7 @@
         <v>81</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>82</v>
@@ -10318,7 +10322,7 @@
         <v>81</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="AN62" t="s" s="2">
         <v>81</v>
@@ -10327,7 +10331,7 @@
         <v>81</v>
       </c>
       <c r="AP62" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AQ62" t="s" s="2">
         <v>81</v>
@@ -10338,14 +10342,14 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
@@ -10367,13 +10371,13 @@
         <v>201</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
@@ -10399,19 +10403,19 @@
         <v>81</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="Y63" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="Z63" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="AA63" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AB63" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="AC63" s="2"/>
       <c r="AD63" t="s" s="2">
@@ -10421,7 +10425,7 @@
         <v>167</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>82</v>
@@ -10439,39 +10443,39 @@
         <v>81</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="AO63" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AP63" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AQ63" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="AR63" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="C64" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="D64" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
@@ -10493,13 +10497,13 @@
         <v>201</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
@@ -10528,10 +10532,10 @@
         <v>194</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="Z64" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="AA64" t="s" s="2">
         <v>81</v>
@@ -10549,7 +10553,7 @@
         <v>81</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>82</v>
@@ -10567,22 +10571,22 @@
         <v>81</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="AO64" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AP64" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AQ64" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="AR64" t="s" s="2">
         <v>81</v>
@@ -10590,10 +10594,10 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -10616,13 +10620,13 @@
         <v>94</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" s="2"/>
@@ -10673,7 +10677,7 @@
         <v>81</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>82</v>
@@ -10688,40 +10692,40 @@
         <v>105</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="AO65" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="AP65" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="AQ65" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="AR65" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="E66" s="2"/>
       <c r="F66" t="s" s="2">
@@ -10740,16 +10744,16 @@
         <v>94</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="O66" s="2"/>
       <c r="P66" t="s" s="2">
@@ -10799,7 +10803,7 @@
         <v>81</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>82</v>
@@ -10814,19 +10818,19 @@
         <v>105</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="AN66" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO66" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="AP66" t="s" s="2">
         <v>81</v>
@@ -10835,15 +10839,15 @@
         <v>81</v>
       </c>
       <c r="AR66" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -10866,16 +10870,16 @@
         <v>94</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
@@ -10925,7 +10929,7 @@
         <v>81</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>82</v>
@@ -10940,36 +10944,36 @@
         <v>105</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="AO67" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AP67" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AQ67" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="AR67" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -10992,16 +10996,16 @@
         <v>81</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="O68" s="2"/>
       <c r="P68" t="s" s="2">
@@ -11051,7 +11055,7 @@
         <v>81</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>82</v>
@@ -11066,25 +11070,25 @@
         <v>105</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="AO68" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="AP68" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="AQ68" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="AR68" t="s" s="2">
         <v>81</v>
@@ -11092,10 +11096,10 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -11118,16 +11122,16 @@
         <v>81</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="O69" s="2"/>
       <c r="P69" t="s" s="2">
@@ -11177,7 +11181,7 @@
         <v>81</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>82</v>
@@ -11192,13 +11196,13 @@
         <v>105</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AN69" t="s" s="2">
         <v>81</v>
@@ -11213,15 +11217,15 @@
         <v>81</v>
       </c>
       <c r="AR69" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -11244,16 +11248,16 @@
         <v>94</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="O70" s="2"/>
       <c r="P70" t="s" s="2">
@@ -11303,7 +11307,7 @@
         <v>81</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>82</v>
@@ -11321,10 +11325,10 @@
         <v>81</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="AN70" t="s" s="2">
         <v>81</v>
@@ -11336,7 +11340,7 @@
         <v>81</v>
       </c>
       <c r="AQ70" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="AR70" t="s" s="2">
         <v>81</v>
@@ -11344,10 +11348,10 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -11468,10 +11472,10 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -11594,14 +11598,14 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="E73" s="2"/>
       <c r="F73" t="s" s="2">
@@ -11623,10 +11627,10 @@
         <v>139</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="N73" t="s" s="2">
         <v>142</v>
@@ -11681,7 +11685,7 @@
         <v>81</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>82</v>
@@ -11722,10 +11726,10 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -11751,13 +11755,13 @@
         <v>113</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="O74" s="2"/>
       <c r="P74" t="s" s="2">
@@ -11786,10 +11790,10 @@
         <v>194</v>
       </c>
       <c r="Y74" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="Z74" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="AA74" t="s" s="2">
         <v>81</v>
@@ -11807,7 +11811,7 @@
         <v>81</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>93</v>
@@ -11825,10 +11829,10 @@
         <v>81</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="AN74" t="s" s="2">
         <v>81</v>
@@ -11840,7 +11844,7 @@
         <v>81</v>
       </c>
       <c r="AQ74" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="AR74" t="s" s="2">
         <v>81</v>
@@ -11848,10 +11852,10 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -11874,13 +11878,13 @@
         <v>94</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="N75" s="2"/>
       <c r="O75" s="2"/>
@@ -11931,7 +11935,7 @@
         <v>81</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>93</v>
@@ -11949,10 +11953,10 @@
         <v>81</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="AN75" t="s" s="2">
         <v>81</v>
@@ -11964,7 +11968,7 @@
         <v>81</v>
       </c>
       <c r="AQ75" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="AR75" t="s" s="2">
         <v>81</v>
@@ -11972,10 +11976,10 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -12001,16 +12005,16 @@
         <v>176</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="N76" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="O76" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="P76" t="s" s="2">
         <v>81</v>
@@ -12059,7 +12063,7 @@
         <v>81</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>82</v>
@@ -12080,7 +12084,7 @@
         <v>81</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="AN76" t="s" s="2">
         <v>81</v>
@@ -12089,21 +12093,21 @@
         <v>81</v>
       </c>
       <c r="AP76" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="AQ76" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="AR76" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -12129,16 +12133,16 @@
         <v>201</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="N77" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="O77" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="P77" t="s" s="2">
         <v>81</v>
@@ -12166,10 +12170,10 @@
         <v>206</v>
       </c>
       <c r="Y77" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="Z77" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="AA77" t="s" s="2">
         <v>81</v>
@@ -12187,7 +12191,7 @@
         <v>81</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>82</v>
@@ -12205,22 +12209,22 @@
         <v>81</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="AN77" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="AO77" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AP77" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="AQ77" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="AR77" t="s" s="2">
         <v>81</v>
@@ -12228,10 +12232,10 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -12254,13 +12258,13 @@
         <v>94</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="N78" s="2"/>
       <c r="O78" s="2"/>
@@ -12311,7 +12315,7 @@
         <v>81</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>93</v>
@@ -12329,10 +12333,10 @@
         <v>81</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="AN78" t="s" s="2">
         <v>81</v>
@@ -12352,10 +12356,10 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -12476,10 +12480,10 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -12602,14 +12606,14 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="E81" s="2"/>
       <c r="F81" t="s" s="2">
@@ -12631,10 +12635,10 @@
         <v>139</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="N81" t="s" s="2">
         <v>142</v>
@@ -12689,7 +12693,7 @@
         <v>81</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>82</v>
@@ -12730,10 +12734,10 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -12756,13 +12760,13 @@
         <v>94</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="N82" s="2"/>
       <c r="O82" s="2"/>
@@ -12813,7 +12817,7 @@
         <v>81</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>93</v>
@@ -12825,28 +12829,28 @@
         <v>81</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="AK82" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="AN82" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="AO82" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AP82" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="AQ82" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="AR82" t="s" s="2">
         <v>81</v>
@@ -12854,10 +12858,10 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -12978,10 +12982,10 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -13104,10 +13108,10 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -13133,14 +13137,14 @@
         <v>113</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="N85" s="2"/>
       <c r="O85" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="P85" t="s" s="2">
         <v>81</v>
@@ -13153,7 +13157,7 @@
         <v>81</v>
       </c>
       <c r="T85" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="U85" t="s" s="2">
         <v>81</v>
@@ -13168,10 +13172,10 @@
         <v>194</v>
       </c>
       <c r="Y85" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="Z85" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="AA85" t="s" s="2">
         <v>81</v>
@@ -13189,7 +13193,7 @@
         <v>81</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>82</v>
@@ -13210,7 +13214,7 @@
         <v>81</v>
       </c>
       <c r="AM85" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="AN85" t="s" s="2">
         <v>81</v>
@@ -13219,21 +13223,21 @@
         <v>81</v>
       </c>
       <c r="AP85" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="AQ85" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AR85" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -13259,14 +13263,14 @@
         <v>113</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="N86" s="2"/>
       <c r="O86" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="P86" t="s" s="2">
         <v>81</v>
@@ -13279,7 +13283,7 @@
         <v>81</v>
       </c>
       <c r="T86" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="U86" t="s" s="2">
         <v>81</v>
@@ -13315,7 +13319,7 @@
         <v>81</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>82</v>
@@ -13336,7 +13340,7 @@
         <v>81</v>
       </c>
       <c r="AM86" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="AN86" t="s" s="2">
         <v>81</v>
@@ -13356,10 +13360,10 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -13382,19 +13386,19 @@
         <v>81</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="N87" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="O87" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="P87" t="s" s="2">
         <v>81</v>
@@ -13443,7 +13447,7 @@
         <v>81</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>82</v>
@@ -13452,7 +13456,7 @@
         <v>93</v>
       </c>
       <c r="AI87" t="s" s="2">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="AJ87" t="s" s="2">
         <v>105</v>
@@ -13464,7 +13468,7 @@
         <v>81</v>
       </c>
       <c r="AM87" t="s" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="AN87" t="s" s="2">
         <v>81</v>
@@ -13473,21 +13477,21 @@
         <v>81</v>
       </c>
       <c r="AP87" t="s" s="2">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="AQ87" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AR87" t="s" s="2">
-        <v>561</v>
+        <v>562</v>
       </c>
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -13510,19 +13514,19 @@
         <v>94</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="N88" t="s" s="2">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="O88" t="s" s="2">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="P88" t="s" s="2">
         <v>81</v>
@@ -13535,7 +13539,7 @@
         <v>81</v>
       </c>
       <c r="T88" t="s" s="2">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="U88" t="s" s="2">
         <v>81</v>
@@ -13571,7 +13575,7 @@
         <v>81</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>82</v>
@@ -13580,7 +13584,7 @@
         <v>93</v>
       </c>
       <c r="AI88" t="s" s="2">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="AJ88" t="s" s="2">
         <v>105</v>
@@ -13592,7 +13596,7 @@
         <v>81</v>
       </c>
       <c r="AM88" t="s" s="2">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="AN88" t="s" s="2">
         <v>81</v>
@@ -13601,7 +13605,7 @@
         <v>81</v>
       </c>
       <c r="AP88" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="AQ88" t="s" s="2">
         <v>81</v>
@@ -13612,10 +13616,10 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -13638,19 +13642,19 @@
         <v>94</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="N89" t="s" s="2">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="O89" t="s" s="2">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="P89" t="s" s="2">
         <v>81</v>
@@ -13699,7 +13703,7 @@
         <v>81</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>82</v>
@@ -13720,7 +13724,7 @@
         <v>81</v>
       </c>
       <c r="AM89" t="s" s="2">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="AN89" t="s" s="2">
         <v>81</v>
@@ -13735,15 +13739,15 @@
         <v>81</v>
       </c>
       <c r="AR89" t="s" s="2">
-        <v>580</v>
+        <v>581</v>
       </c>
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -13766,19 +13770,19 @@
         <v>94</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="N90" t="s" s="2">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="O90" t="s" s="2">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="P90" t="s" s="2">
         <v>81</v>
@@ -13827,7 +13831,7 @@
         <v>81</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>82</v>
@@ -13848,7 +13852,7 @@
         <v>81</v>
       </c>
       <c r="AM90" t="s" s="2">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="AN90" t="s" s="2">
         <v>81</v>
@@ -13863,15 +13867,15 @@
         <v>81</v>
       </c>
       <c r="AR90" t="s" s="2">
-        <v>580</v>
+        <v>581</v>
       </c>
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -13897,14 +13901,14 @@
         <v>176</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="N91" s="2"/>
       <c r="O91" t="s" s="2">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="P91" t="s" s="2">
         <v>81</v>
@@ -13917,7 +13921,7 @@
         <v>81</v>
       </c>
       <c r="T91" t="s" s="2">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="U91" t="s" s="2">
         <v>81</v>
@@ -13953,7 +13957,7 @@
         <v>81</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>82</v>
@@ -13974,7 +13978,7 @@
         <v>81</v>
       </c>
       <c r="AM91" t="s" s="2">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="AN91" t="s" s="2">
         <v>81</v>
@@ -13989,15 +13993,15 @@
         <v>81</v>
       </c>
       <c r="AR91" t="s" s="2">
-        <v>595</v>
+        <v>596</v>
       </c>
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -14020,17 +14024,17 @@
         <v>94</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="N92" s="2"/>
       <c r="O92" t="s" s="2">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="P92" t="s" s="2">
         <v>81</v>
@@ -14079,7 +14083,7 @@
         <v>81</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>82</v>
@@ -14100,7 +14104,7 @@
         <v>81</v>
       </c>
       <c r="AM92" t="s" s="2">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="AN92" t="s" s="2">
         <v>81</v>
@@ -14115,15 +14119,15 @@
         <v>81</v>
       </c>
       <c r="AR92" t="s" s="2">
-        <v>602</v>
+        <v>603</v>
       </c>
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -14146,16 +14150,16 @@
         <v>94</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="N93" t="s" s="2">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="O93" s="2"/>
       <c r="P93" t="s" s="2">
@@ -14185,7 +14189,7 @@
       </c>
       <c r="Y93" s="2"/>
       <c r="Z93" t="s" s="2">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="AA93" t="s" s="2">
         <v>81</v>
@@ -14203,7 +14207,7 @@
         <v>81</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>82</v>
@@ -14221,13 +14225,13 @@
         <v>81</v>
       </c>
       <c r="AL93" t="s" s="2">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="AM93" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="AN93" t="s" s="2">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="AO93" t="s" s="2">
         <v>81</v>
@@ -14236,7 +14240,7 @@
         <v>81</v>
       </c>
       <c r="AQ93" t="s" s="2">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="AR93" t="s" s="2">
         <v>81</v>
@@ -14244,10 +14248,10 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -14270,16 +14274,16 @@
         <v>94</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="N94" t="s" s="2">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="O94" s="2"/>
       <c r="P94" t="s" s="2">
@@ -14329,7 +14333,7 @@
         <v>81</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>82</v>
@@ -14350,7 +14354,7 @@
         <v>81</v>
       </c>
       <c r="AM94" t="s" s="2">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="AN94" t="s" s="2">
         <v>81</v>
@@ -14370,10 +14374,10 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
@@ -14494,10 +14498,10 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
@@ -14620,14 +14624,14 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="E97" s="2"/>
       <c r="F97" t="s" s="2">
@@ -14649,10 +14653,10 @@
         <v>139</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="N97" t="s" s="2">
         <v>142</v>
@@ -14707,7 +14711,7 @@
         <v>81</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>82</v>
@@ -14748,10 +14752,10 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
@@ -14774,13 +14778,13 @@
         <v>81</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="N98" s="2"/>
       <c r="O98" s="2"/>
@@ -14831,7 +14835,7 @@
         <v>81</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>82</v>
@@ -14846,19 +14850,19 @@
         <v>105</v>
       </c>
       <c r="AK98" t="s" s="2">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="AL98" t="s" s="2">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="AM98" t="s" s="2">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="AN98" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO98" t="s" s="2">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="AP98" t="s" s="2">
         <v>81</v>
@@ -14867,15 +14871,15 @@
         <v>81</v>
       </c>
       <c r="AR98" t="s" s="2">
-        <v>627</v>
+        <v>628</v>
       </c>
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
@@ -14901,13 +14905,13 @@
         <v>201</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="N99" t="s" s="2">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="O99" s="2"/>
       <c r="P99" t="s" s="2">
@@ -14933,13 +14937,13 @@
         <v>81</v>
       </c>
       <c r="X99" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="Y99" t="s" s="2">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="Z99" t="s" s="2">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="AA99" t="s" s="2">
         <v>81</v>
@@ -14957,7 +14961,7 @@
         <v>81</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>82</v>
@@ -14975,10 +14979,10 @@
         <v>81</v>
       </c>
       <c r="AL99" t="s" s="2">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="AM99" t="s" s="2">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="AN99" t="s" s="2">
         <v>81</v>
@@ -14990,7 +14994,7 @@
         <v>81</v>
       </c>
       <c r="AQ99" t="s" s="2">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="AR99" t="s" s="2">
         <v>81</v>
@@ -14998,10 +15002,10 @@
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
@@ -15024,13 +15028,13 @@
         <v>94</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="N100" s="2"/>
       <c r="O100" s="2"/>
@@ -15081,7 +15085,7 @@
         <v>81</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="AG100" t="s" s="2">
         <v>82</v>
@@ -15099,13 +15103,13 @@
         <v>81</v>
       </c>
       <c r="AL100" t="s" s="2">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="AM100" t="s" s="2">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="AN100" t="s" s="2">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="AO100" t="s" s="2">
         <v>81</v>
@@ -15114,7 +15118,7 @@
         <v>81</v>
       </c>
       <c r="AQ100" t="s" s="2">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="AR100" t="s" s="2">
         <v>81</v>
@@ -15122,10 +15126,10 @@
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
@@ -15151,10 +15155,10 @@
         <v>201</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="N101" s="2"/>
       <c r="O101" s="2"/>
@@ -15181,13 +15185,13 @@
         <v>81</v>
       </c>
       <c r="X101" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="Y101" t="s" s="2">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="Z101" t="s" s="2">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="AA101" t="s" s="2">
         <v>81</v>
@@ -15205,7 +15209,7 @@
         <v>81</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="AG101" t="s" s="2">
         <v>82</v>
@@ -15223,13 +15227,13 @@
         <v>81</v>
       </c>
       <c r="AL101" t="s" s="2">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="AM101" t="s" s="2">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="AN101" t="s" s="2">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="AO101" t="s" s="2">
         <v>81</v>
@@ -15238,7 +15242,7 @@
         <v>81</v>
       </c>
       <c r="AQ101" t="s" s="2">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="AR101" t="s" s="2">
         <v>81</v>
@@ -15246,10 +15250,10 @@
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
@@ -15275,16 +15279,16 @@
         <v>201</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="N102" t="s" s="2">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="O102" t="s" s="2">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="P102" t="s" s="2">
         <v>81</v>
@@ -15309,13 +15313,13 @@
         <v>81</v>
       </c>
       <c r="X102" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="Y102" t="s" s="2">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="Z102" t="s" s="2">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="AA102" t="s" s="2">
         <v>81</v>
@@ -15333,7 +15337,7 @@
         <v>81</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="AG102" t="s" s="2">
         <v>82</v>
@@ -15351,14 +15355,14 @@
         <v>81</v>
       </c>
       <c r="AL102" t="s" s="2">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="AM102" t="s" s="2">
+        <v>651</v>
+      </c>
+      <c r="AN102" t="s" s="2">
         <v>650</v>
       </c>
-      <c r="AN102" t="s" s="2">
-        <v>649</v>
-      </c>
       <c r="AO102" t="s" s="2">
         <v>81</v>
       </c>
@@ -15366,7 +15370,7 @@
         <v>81</v>
       </c>
       <c r="AQ102" t="s" s="2">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="AR102" t="s" s="2">
         <v>81</v>
@@ -15374,10 +15378,10 @@
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
@@ -15400,13 +15404,13 @@
         <v>81</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="N103" s="2"/>
       <c r="O103" s="2"/>
@@ -15457,7 +15461,7 @@
         <v>81</v>
       </c>
       <c r="AF103" t="s" s="2">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="AG103" t="s" s="2">
         <v>82</v>
@@ -15475,13 +15479,13 @@
         <v>81</v>
       </c>
       <c r="AL103" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="AM103" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="AN103" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="AO103" t="s" s="2">
         <v>81</v>
@@ -15490,7 +15494,7 @@
         <v>81</v>
       </c>
       <c r="AQ103" t="s" s="2">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="AR103" t="s" s="2">
         <v>81</v>
@@ -15498,10 +15502,10 @@
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
@@ -15524,16 +15528,16 @@
         <v>81</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="N104" t="s" s="2">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="O104" s="2"/>
       <c r="P104" t="s" s="2">
@@ -15583,7 +15587,7 @@
         <v>81</v>
       </c>
       <c r="AF104" t="s" s="2">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="AG104" t="s" s="2">
         <v>82</v>
@@ -15601,13 +15605,13 @@
         <v>81</v>
       </c>
       <c r="AL104" t="s" s="2">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="AM104" t="s" s="2">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="AN104" t="s" s="2">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="AO104" t="s" s="2">
         <v>81</v>
@@ -15616,10 +15620,10 @@
         <v>81</v>
       </c>
       <c r="AQ104" t="s" s="2">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="AR104" t="s" s="2">
-        <v>675</v>
+        <v>676</v>
       </c>
     </row>
   </sheetData>

--- a/docs/StructureDefinition-VA.MHV.PHR.imaging.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.imaging.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-30T12:22:18-05:00</t>
+    <t>2023-03-31T07:50:38-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -87,8 +87,9 @@
     <t>A profile on the DocumentReference resource for MHV PHR exposing Radiology note (ImagingExamTO) using FHIR API.
 - The mock example maps best to VIA_v4.0.7_uat.wsdl. 
 - based on US-Core for Clinical Notes
-- type LOINC#18748-4 "Diagnostic imaging study"
+- type LOINC#18748-4 `Diagnostic imaging study`
 - see [mapping](StructureDefinition-VA.MHV.PHR.imaging-mappings.html#mappings-for-vdif-to-mhv-phr-imagingexamto) for details
+- An example of a [transaction Bundle](Bundle-images.html) with many image reports as DocumentReference. This was [transformed using the included XSLT](StructureDefinition-VA.MHV.PHR.imaging.html#notes) from the [mock sample SOAP message](https://github.com/JohnMoehrke/MHV-PHR/blob/main/mocks/radiology.xml) MHV receives.
 TODO Questions:
 - some schema elements found in VIA_v4.0.7_uat.wsdl are not mapped here because I can't tell what is in them. Most of them likely have a place to go in the FHIR model, but I need to know more about them.
   - hasImages

--- a/docs/StructureDefinition-VA.MHV.PHR.imaging.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.imaging.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-31T07:50:38-05:00</t>
+    <t>2023-04-11T08:45:33-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.imaging.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.imaging.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.7-beta</t>
+    <t>0.1.8-beta</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-11T08:45:33-05:00</t>
+    <t>2023-04-12T10:49:54-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.imaging.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.imaging.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.8-beta</t>
+    <t>0.1.9-beta</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-12T10:49:54-05:00</t>
+    <t>2023-04-14T09:56:36-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.imaging.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.imaging.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.9-beta</t>
+    <t>0.1.10-beta</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-14T09:56:36-05:00</t>
+    <t>2023-04-17T18:54:15-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.imaging.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.imaging.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-17T18:54:15-05:00</t>
+    <t>2023-04-17T19:11:15-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.imaging.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.imaging.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.10-beta</t>
+    <t>0.1.11-beta</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-17T19:11:15-05:00</t>
+    <t>2023-04-24T08:03:17-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.imaging.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.imaging.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.11-beta</t>
+    <t>0.1.12-beta</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-24T08:03:17-05:00</t>
+    <t>2023-05-01T08:16:19-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.imaging.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.imaging.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.12-beta</t>
+    <t>0.1.13-beta</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-01T08:16:19-05:00</t>
+    <t>2023-05-02T08:13:48-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.imaging.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.imaging.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4207" uniqueCount="677">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4207" uniqueCount="676">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.13-beta</t>
+    <t>0.1.14-beta</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-02T08:13:48-05:00</t>
+    <t>2023-05-04T14:24:58-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -90,6 +90,7 @@
 - type LOINC#18748-4 `Diagnostic imaging study`
 - see [mapping](StructureDefinition-VA.MHV.PHR.imaging-mappings.html#mappings-for-vdif-to-mhv-phr-imagingexamto) for details
 - An example of a [transaction Bundle](Bundle-images.html) with many image reports as DocumentReference. This was [transformed using the included XSLT](StructureDefinition-VA.MHV.PHR.imaging.html#notes) from the [mock sample SOAP message](https://github.com/JohnMoehrke/MHV-PHR/blob/main/mocks/radiology.xml) MHV receives.
+- Order and Encounter are not converted into FHIR resources, but rather we save the original id into the Reference.identifier encoding.
 TODO Questions:
 - some schema elements found in VIA_v4.0.7_uat.wsdl are not mapped here because I can't tell what is in them. Most of them likely have a place to go in the FHIR model, but I need to know more about them.
   - hasImages
@@ -1717,7 +1718,7 @@
     <t>ED.2+ED.3/RP.2+RP.3. Note conversion may be needed if old style values are being used</t>
   </si>
   <si>
-    <t>`text`</t>
+    <t>`text/plain`</t>
   </si>
   <si>
     <t>DocumentReference.content.attachment.language</t>
@@ -1773,7 +1774,7 @@
     <t>ED.5</t>
   </si>
   <si>
-    <t>ImagingStudyTO.radiologyReportTo.text</t>
+    <t>Base64Encode(ImagingStudyTO.radiologyReportTo.text)</t>
   </si>
   <si>
     <t>DocumentReference.content.attachment.url</t>
@@ -1832,9 +1833,6 @@
     <t>N/A (needs data type R3 proposal)</t>
   </si>
   <si>
-    <t>calculate</t>
-  </si>
-  <si>
     <t>DocumentReference.content.attachment.hash</t>
   </si>
   <si>
@@ -1975,7 +1973,7 @@
     <t>FiveWs.context</t>
   </si>
   <si>
-    <t>ImagingExamTO.encounterId</t>
+    <t>identifier.value = ImagingExamTO.encounterId</t>
   </si>
   <si>
     <t>DocumentReference.context.event</t>
@@ -2125,7 +2123,7 @@
     <t>DocumentEntry.referenceIdList</t>
   </si>
   <si>
-    <t>ImagingExamTO.order[OrderTO]</t>
+    <t>identifier.display = ImagingExamTO.order.type.name1</t>
   </si>
 </sst>
 </file>
@@ -13740,15 +13738,15 @@
         <v>81</v>
       </c>
       <c r="AR89" t="s" s="2">
-        <v>581</v>
+        <v>81</v>
       </c>
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -13774,16 +13772,16 @@
         <v>553</v>
       </c>
       <c r="L90" t="s" s="2">
+        <v>582</v>
+      </c>
+      <c r="M90" t="s" s="2">
         <v>583</v>
       </c>
-      <c r="M90" t="s" s="2">
+      <c r="N90" t="s" s="2">
         <v>584</v>
       </c>
-      <c r="N90" t="s" s="2">
+      <c r="O90" t="s" s="2">
         <v>585</v>
-      </c>
-      <c r="O90" t="s" s="2">
-        <v>586</v>
       </c>
       <c r="P90" t="s" s="2">
         <v>81</v>
@@ -13832,7 +13830,7 @@
         <v>81</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>82</v>
@@ -13853,7 +13851,7 @@
         <v>81</v>
       </c>
       <c r="AM90" t="s" s="2">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="AN90" t="s" s="2">
         <v>81</v>
@@ -13868,15 +13866,15 @@
         <v>81</v>
       </c>
       <c r="AR90" t="s" s="2">
-        <v>581</v>
+        <v>81</v>
       </c>
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -13902,14 +13900,14 @@
         <v>176</v>
       </c>
       <c r="L91" t="s" s="2">
+        <v>589</v>
+      </c>
+      <c r="M91" t="s" s="2">
         <v>590</v>
-      </c>
-      <c r="M91" t="s" s="2">
-        <v>591</v>
       </c>
       <c r="N91" s="2"/>
       <c r="O91" t="s" s="2">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="P91" t="s" s="2">
         <v>81</v>
@@ -13922,43 +13920,43 @@
         <v>81</v>
       </c>
       <c r="T91" t="s" s="2">
+        <v>592</v>
+      </c>
+      <c r="U91" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V91" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W91" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X91" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y91" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z91" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA91" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB91" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC91" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD91" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE91" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF91" t="s" s="2">
         <v>593</v>
-      </c>
-      <c r="U91" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V91" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W91" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X91" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y91" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Z91" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA91" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB91" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC91" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD91" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE91" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF91" t="s" s="2">
-        <v>594</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>82</v>
@@ -13979,30 +13977,30 @@
         <v>81</v>
       </c>
       <c r="AM91" t="s" s="2">
+        <v>594</v>
+      </c>
+      <c r="AN91" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO91" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AP91" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AQ91" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AR91" t="s" s="2">
         <v>595</v>
-      </c>
-      <c r="AN91" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO91" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AP91" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AQ91" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AR91" t="s" s="2">
-        <v>596</v>
       </c>
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -14025,17 +14023,17 @@
         <v>94</v>
       </c>
       <c r="K92" t="s" s="2">
+        <v>597</v>
+      </c>
+      <c r="L92" t="s" s="2">
         <v>598</v>
       </c>
-      <c r="L92" t="s" s="2">
+      <c r="M92" t="s" s="2">
         <v>599</v>
-      </c>
-      <c r="M92" t="s" s="2">
-        <v>600</v>
       </c>
       <c r="N92" s="2"/>
       <c r="O92" t="s" s="2">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="P92" t="s" s="2">
         <v>81</v>
@@ -14084,7 +14082,7 @@
         <v>81</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>82</v>
@@ -14120,15 +14118,15 @@
         <v>81</v>
       </c>
       <c r="AR92" t="s" s="2">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -14154,13 +14152,13 @@
         <v>313</v>
       </c>
       <c r="L93" t="s" s="2">
+        <v>604</v>
+      </c>
+      <c r="M93" t="s" s="2">
         <v>605</v>
       </c>
-      <c r="M93" t="s" s="2">
+      <c r="N93" t="s" s="2">
         <v>606</v>
-      </c>
-      <c r="N93" t="s" s="2">
-        <v>607</v>
       </c>
       <c r="O93" s="2"/>
       <c r="P93" t="s" s="2">
@@ -14190,7 +14188,7 @@
       </c>
       <c r="Y93" s="2"/>
       <c r="Z93" t="s" s="2">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="AA93" t="s" s="2">
         <v>81</v>
@@ -14208,7 +14206,7 @@
         <v>81</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>82</v>
@@ -14226,22 +14224,22 @@
         <v>81</v>
       </c>
       <c r="AL93" t="s" s="2">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="AM93" t="s" s="2">
         <v>519</v>
       </c>
       <c r="AN93" t="s" s="2">
+        <v>609</v>
+      </c>
+      <c r="AO93" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AP93" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AQ93" t="s" s="2">
         <v>610</v>
-      </c>
-      <c r="AO93" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AP93" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AQ93" t="s" s="2">
-        <v>611</v>
       </c>
       <c r="AR93" t="s" s="2">
         <v>81</v>
@@ -14249,10 +14247,10 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -14278,13 +14276,13 @@
         <v>464</v>
       </c>
       <c r="L94" t="s" s="2">
+        <v>612</v>
+      </c>
+      <c r="M94" t="s" s="2">
         <v>613</v>
       </c>
-      <c r="M94" t="s" s="2">
+      <c r="N94" t="s" s="2">
         <v>614</v>
-      </c>
-      <c r="N94" t="s" s="2">
-        <v>615</v>
       </c>
       <c r="O94" s="2"/>
       <c r="P94" t="s" s="2">
@@ -14334,7 +14332,7 @@
         <v>81</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>82</v>
@@ -14355,7 +14353,7 @@
         <v>81</v>
       </c>
       <c r="AM94" t="s" s="2">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="AN94" t="s" s="2">
         <v>81</v>
@@ -14375,10 +14373,10 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
@@ -14499,10 +14497,10 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
@@ -14625,10 +14623,10 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
@@ -14753,10 +14751,10 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
@@ -14779,13 +14777,13 @@
         <v>81</v>
       </c>
       <c r="K98" t="s" s="2">
+        <v>620</v>
+      </c>
+      <c r="L98" t="s" s="2">
         <v>621</v>
       </c>
-      <c r="L98" t="s" s="2">
+      <c r="M98" t="s" s="2">
         <v>622</v>
-      </c>
-      <c r="M98" t="s" s="2">
-        <v>623</v>
       </c>
       <c r="N98" s="2"/>
       <c r="O98" s="2"/>
@@ -14836,7 +14834,7 @@
         <v>81</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>82</v>
@@ -14851,36 +14849,36 @@
         <v>105</v>
       </c>
       <c r="AK98" t="s" s="2">
+        <v>623</v>
+      </c>
+      <c r="AL98" t="s" s="2">
         <v>624</v>
       </c>
-      <c r="AL98" t="s" s="2">
+      <c r="AM98" t="s" s="2">
         <v>625</v>
       </c>
-      <c r="AM98" t="s" s="2">
+      <c r="AN98" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO98" t="s" s="2">
         <v>626</v>
       </c>
-      <c r="AN98" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO98" t="s" s="2">
+      <c r="AP98" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AQ98" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AR98" t="s" s="2">
         <v>627</v>
-      </c>
-      <c r="AP98" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AQ98" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AR98" t="s" s="2">
-        <v>628</v>
       </c>
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
@@ -14906,13 +14904,13 @@
         <v>201</v>
       </c>
       <c r="L99" t="s" s="2">
+        <v>629</v>
+      </c>
+      <c r="M99" t="s" s="2">
         <v>630</v>
       </c>
-      <c r="M99" t="s" s="2">
+      <c r="N99" t="s" s="2">
         <v>631</v>
-      </c>
-      <c r="N99" t="s" s="2">
-        <v>632</v>
       </c>
       <c r="O99" s="2"/>
       <c r="P99" t="s" s="2">
@@ -14941,11 +14939,11 @@
         <v>397</v>
       </c>
       <c r="Y99" t="s" s="2">
+        <v>632</v>
+      </c>
+      <c r="Z99" t="s" s="2">
         <v>633</v>
       </c>
-      <c r="Z99" t="s" s="2">
-        <v>634</v>
-      </c>
       <c r="AA99" t="s" s="2">
         <v>81</v>
       </c>
@@ -14962,7 +14960,7 @@
         <v>81</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>82</v>
@@ -14980,22 +14978,22 @@
         <v>81</v>
       </c>
       <c r="AL99" t="s" s="2">
+        <v>634</v>
+      </c>
+      <c r="AM99" t="s" s="2">
         <v>635</v>
       </c>
-      <c r="AM99" t="s" s="2">
+      <c r="AN99" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO99" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AP99" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AQ99" t="s" s="2">
         <v>636</v>
-      </c>
-      <c r="AN99" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO99" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AP99" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AQ99" t="s" s="2">
-        <v>637</v>
       </c>
       <c r="AR99" t="s" s="2">
         <v>81</v>
@@ -15003,10 +15001,10 @@
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
@@ -15032,10 +15030,10 @@
         <v>233</v>
       </c>
       <c r="L100" t="s" s="2">
+        <v>638</v>
+      </c>
+      <c r="M100" t="s" s="2">
         <v>639</v>
-      </c>
-      <c r="M100" t="s" s="2">
-        <v>640</v>
       </c>
       <c r="N100" s="2"/>
       <c r="O100" s="2"/>
@@ -15086,7 +15084,7 @@
         <v>81</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="AG100" t="s" s="2">
         <v>82</v>
@@ -15104,22 +15102,22 @@
         <v>81</v>
       </c>
       <c r="AL100" t="s" s="2">
+        <v>640</v>
+      </c>
+      <c r="AM100" t="s" s="2">
         <v>641</v>
       </c>
-      <c r="AM100" t="s" s="2">
+      <c r="AN100" t="s" s="2">
         <v>642</v>
       </c>
-      <c r="AN100" t="s" s="2">
+      <c r="AO100" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AP100" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AQ100" t="s" s="2">
         <v>643</v>
-      </c>
-      <c r="AO100" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AP100" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AQ100" t="s" s="2">
-        <v>644</v>
       </c>
       <c r="AR100" t="s" s="2">
         <v>81</v>
@@ -15127,10 +15125,10 @@
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
@@ -15156,10 +15154,10 @@
         <v>201</v>
       </c>
       <c r="L101" t="s" s="2">
+        <v>645</v>
+      </c>
+      <c r="M101" t="s" s="2">
         <v>646</v>
-      </c>
-      <c r="M101" t="s" s="2">
-        <v>647</v>
       </c>
       <c r="N101" s="2"/>
       <c r="O101" s="2"/>
@@ -15189,11 +15187,11 @@
         <v>397</v>
       </c>
       <c r="Y101" t="s" s="2">
+        <v>647</v>
+      </c>
+      <c r="Z101" t="s" s="2">
         <v>648</v>
       </c>
-      <c r="Z101" t="s" s="2">
-        <v>649</v>
-      </c>
       <c r="AA101" t="s" s="2">
         <v>81</v>
       </c>
@@ -15210,7 +15208,7 @@
         <v>81</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="AG101" t="s" s="2">
         <v>82</v>
@@ -15228,22 +15226,22 @@
         <v>81</v>
       </c>
       <c r="AL101" t="s" s="2">
+        <v>649</v>
+      </c>
+      <c r="AM101" t="s" s="2">
         <v>650</v>
       </c>
-      <c r="AM101" t="s" s="2">
+      <c r="AN101" t="s" s="2">
         <v>651</v>
       </c>
-      <c r="AN101" t="s" s="2">
+      <c r="AO101" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AP101" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AQ101" t="s" s="2">
         <v>652</v>
-      </c>
-      <c r="AO101" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AP101" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AQ101" t="s" s="2">
-        <v>653</v>
       </c>
       <c r="AR101" t="s" s="2">
         <v>81</v>
@@ -15251,10 +15249,10 @@
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
@@ -15280,16 +15278,16 @@
         <v>201</v>
       </c>
       <c r="L102" t="s" s="2">
+        <v>654</v>
+      </c>
+      <c r="M102" t="s" s="2">
         <v>655</v>
       </c>
-      <c r="M102" t="s" s="2">
+      <c r="N102" t="s" s="2">
         <v>656</v>
       </c>
-      <c r="N102" t="s" s="2">
+      <c r="O102" t="s" s="2">
         <v>657</v>
-      </c>
-      <c r="O102" t="s" s="2">
-        <v>658</v>
       </c>
       <c r="P102" t="s" s="2">
         <v>81</v>
@@ -15317,11 +15315,11 @@
         <v>397</v>
       </c>
       <c r="Y102" t="s" s="2">
+        <v>658</v>
+      </c>
+      <c r="Z102" t="s" s="2">
         <v>659</v>
       </c>
-      <c r="Z102" t="s" s="2">
-        <v>660</v>
-      </c>
       <c r="AA102" t="s" s="2">
         <v>81</v>
       </c>
@@ -15338,7 +15336,7 @@
         <v>81</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="AG102" t="s" s="2">
         <v>82</v>
@@ -15356,13 +15354,13 @@
         <v>81</v>
       </c>
       <c r="AL102" t="s" s="2">
+        <v>649</v>
+      </c>
+      <c r="AM102" t="s" s="2">
         <v>650</v>
       </c>
-      <c r="AM102" t="s" s="2">
-        <v>651</v>
-      </c>
       <c r="AN102" t="s" s="2">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="AO102" t="s" s="2">
         <v>81</v>
@@ -15371,7 +15369,7 @@
         <v>81</v>
       </c>
       <c r="AQ102" t="s" s="2">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="AR102" t="s" s="2">
         <v>81</v>
@@ -15379,10 +15377,10 @@
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
@@ -15405,13 +15403,13 @@
         <v>81</v>
       </c>
       <c r="K103" t="s" s="2">
+        <v>662</v>
+      </c>
+      <c r="L103" t="s" s="2">
         <v>663</v>
       </c>
-      <c r="L103" t="s" s="2">
+      <c r="M103" t="s" s="2">
         <v>664</v>
-      </c>
-      <c r="M103" t="s" s="2">
-        <v>665</v>
       </c>
       <c r="N103" s="2"/>
       <c r="O103" s="2"/>
@@ -15462,7 +15460,7 @@
         <v>81</v>
       </c>
       <c r="AF103" t="s" s="2">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="AG103" t="s" s="2">
         <v>82</v>
@@ -15495,7 +15493,7 @@
         <v>81</v>
       </c>
       <c r="AQ103" t="s" s="2">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="AR103" t="s" s="2">
         <v>81</v>
@@ -15503,10 +15501,10 @@
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
@@ -15529,16 +15527,16 @@
         <v>81</v>
       </c>
       <c r="K104" t="s" s="2">
+        <v>667</v>
+      </c>
+      <c r="L104" t="s" s="2">
         <v>668</v>
       </c>
-      <c r="L104" t="s" s="2">
+      <c r="M104" t="s" s="2">
         <v>669</v>
       </c>
-      <c r="M104" t="s" s="2">
+      <c r="N104" t="s" s="2">
         <v>670</v>
-      </c>
-      <c r="N104" t="s" s="2">
-        <v>671</v>
       </c>
       <c r="O104" s="2"/>
       <c r="P104" t="s" s="2">
@@ -15588,7 +15586,7 @@
         <v>81</v>
       </c>
       <c r="AF104" t="s" s="2">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="AG104" t="s" s="2">
         <v>82</v>
@@ -15606,25 +15604,25 @@
         <v>81</v>
       </c>
       <c r="AL104" t="s" s="2">
+        <v>671</v>
+      </c>
+      <c r="AM104" t="s" s="2">
         <v>672</v>
       </c>
-      <c r="AM104" t="s" s="2">
+      <c r="AN104" t="s" s="2">
         <v>673</v>
       </c>
-      <c r="AN104" t="s" s="2">
+      <c r="AO104" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AP104" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AQ104" t="s" s="2">
         <v>674</v>
       </c>
-      <c r="AO104" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AP104" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AQ104" t="s" s="2">
+      <c r="AR104" t="s" s="2">
         <v>675</v>
-      </c>
-      <c r="AR104" t="s" s="2">
-        <v>676</v>
       </c>
     </row>
   </sheetData>

--- a/docs/StructureDefinition-VA.MHV.PHR.imaging.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.imaging.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.14-beta</t>
+    <t>0.1.15-beta</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-04T14:24:58-05:00</t>
+    <t>2023-06-07T11:47:17-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.imaging.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.imaging.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-13T11:38:47-05:00</t>
+    <t>2023-06-13T14:37:26-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.imaging.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.imaging.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-13T14:37:26-05:00</t>
+    <t>2023-06-13T16:30:05-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.imaging.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.imaging.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4163" uniqueCount="632">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4162" uniqueCount="632">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-13T16:30:05-05:00</t>
+    <t>2023-06-16T14:48:21-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -84,24 +84,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>A profile on the DocumentReference resource for MHV PHR exposing Radiology note (ImagingExamTO) using FHIR API.
-- The mock example maps best to VIA_v4.0.7_uat.wsdl. 
-- based on US-Core for Clinical Notes
-- type LOINC#18748-4 `Diagnostic imaging study`
-- see [mapping](StructureDefinition-VA.MHV.PHR.imaging-mappings.html#mappings-for-vdif-to-mhv-phr-imagingexamto) for details
-- An example of a [transaction Bundle](Bundle-images.html) with many image reports as DocumentReference. This was [transformed using the included XSLT](StructureDefinition-VA.MHV.PHR.imaging.html#notes) from the [mock sample SOAP message](https://github.com/JohnMoehrke/MHV-PHR/blob/main/mocks/radiology.xml) MHV receives.
-- Order and Encounter are not converted into FHIR resources, but rather we save the original id into the Reference.identifier encoding.
-TODO Questions:
-- some schema elements found in VIA_v4.0.7_uat.wsdl are not mapped here because I can't tell what is in them. Most of them likely have a place to go in the FHIR model, but I need to know more about them.
-  - hasImages
-  - imagingType - always was GENERAL RADIOLOGY
-  - facility - no clear place in DocumentReference. Need to understand this better, is it data best put inside a contained Encounter?
-  - these never appeared in examples
-    - modifiers
-    - clinicalHX
-    - impression
-    - imagingExamTO
-    - reportId</t>
+    <t>A profile on the DocumentReference resource for MHV PHR exposing Radiology note (ImagingExamTO) using FHIR API.</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -131,7 +114,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/core/StructureDefinition/us-core-documentreference</t>
+    <t>https://johnmoehrke.github.io/MHV-PHR/StructureDefinition/VA.MHV.PHR.documentReference</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -768,6 +751,9 @@
 This element is labeled as a modifier because the status contains the codes that mark the document or reference as not currently valid.</t>
   </si>
   <si>
+    <t>current</t>
+  </si>
+  <si>
     <t>http://hl7.org/fhir/ValueSet/document-reference-status</t>
   </si>
   <si>
@@ -831,10 +817,7 @@
     <t>Key metadata element describing the document that describes he exact type of document. Helps humans to assess whether the document is of interest when viewing a list of documents.</t>
   </si>
   <si>
-    <t>All LOINC  values whose SCALE is DOC in the LOINC database and the HL7 v3 Code System NullFlavor concept 'unknown'</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/core/ValueSet/us-core-documentreference-type</t>
+    <t>https://johnmoehrke.github.io/MHV-PHR/ValueSet/DocumentReferenceTypeVS</t>
   </si>
   <si>
     <t>Event.code</t>
@@ -2351,7 +2334,7 @@
     <col min="23" max="23" width="1.0390625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="10.19140625" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="125.34375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="68.19921875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="72.86328125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="1.0390625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="15.32421875" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="40.0390625" customWidth="true" bestFit="true"/>
@@ -3522,7 +3505,7 @@
         <v>38</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="H10" t="s" s="2">
         <v>37</v>
@@ -7212,7 +7195,7 @@
         <v>37</v>
       </c>
       <c r="S39" t="s" s="2">
-        <v>37</v>
+        <v>235</v>
       </c>
       <c r="T39" t="s" s="2">
         <v>37</v>
@@ -7231,7 +7214,7 @@
       </c>
       <c r="Y39" s="2"/>
       <c r="Z39" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>37</v>
@@ -7264,36 +7247,36 @@
         <v>61</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AO39" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AP39" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AQ39" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AR39" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -7304,7 +7287,7 @@
         <v>38</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>37</v>
@@ -7319,13 +7302,13 @@
         <v>69</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
@@ -7354,10 +7337,10 @@
         <v>150</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AA40" t="s" s="2">
         <v>37</v>
@@ -7375,7 +7358,7 @@
         <v>37</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>38</v>
@@ -7393,33 +7376,33 @@
         <v>37</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AO40" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AP40" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AQ40" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AR40" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -7445,13 +7428,13 @@
         <v>157</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
@@ -7479,9 +7462,7 @@
       <c r="X41" t="s" s="2">
         <v>150</v>
       </c>
-      <c r="Y41" t="s" s="2">
-        <v>256</v>
-      </c>
+      <c r="Y41" s="2"/>
       <c r="Z41" t="s" s="2">
         <v>257</v>
       </c>
@@ -7501,7 +7482,7 @@
         <v>37</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>38</v>
@@ -10719,7 +10700,7 @@
         <v>49</v>
       </c>
       <c r="H67" t="s" s="2">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="I67" t="s" s="2">
         <v>37</v>
@@ -10845,7 +10826,7 @@
         <v>49</v>
       </c>
       <c r="H68" t="s" s="2">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="I68" t="s" s="2">
         <v>37</v>
@@ -10968,7 +10949,7 @@
         <v>38</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H69" t="s" s="2">
         <v>37</v>
@@ -11725,7 +11706,7 @@
         <v>49</v>
       </c>
       <c r="H75" t="s" s="2">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="I75" t="s" s="2">
         <v>37</v>
@@ -11850,7 +11831,7 @@
         <v>38</v>
       </c>
       <c r="G76" t="s" s="2">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H76" t="s" s="2">
         <v>37</v>
@@ -11978,7 +11959,7 @@
         <v>49</v>
       </c>
       <c r="G77" t="s" s="2">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="H77" t="s" s="2">
         <v>50</v>
@@ -12980,7 +12961,7 @@
         <v>38</v>
       </c>
       <c r="G85" t="s" s="2">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="H85" t="s" s="2">
         <v>37</v>
@@ -13234,7 +13215,7 @@
         <v>38</v>
       </c>
       <c r="G87" t="s" s="2">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="H87" t="s" s="2">
         <v>50</v>
@@ -13362,7 +13343,7 @@
         <v>38</v>
       </c>
       <c r="G88" t="s" s="2">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="H88" t="s" s="2">
         <v>37</v>
@@ -13490,7 +13471,7 @@
         <v>38</v>
       </c>
       <c r="G89" t="s" s="2">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="H89" t="s" s="2">
         <v>37</v>
@@ -13621,7 +13602,7 @@
         <v>49</v>
       </c>
       <c r="H90" t="s" s="2">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="I90" t="s" s="2">
         <v>37</v>
@@ -13747,7 +13728,7 @@
         <v>49</v>
       </c>
       <c r="H91" t="s" s="2">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="I91" t="s" s="2">
         <v>37</v>
@@ -13870,7 +13851,7 @@
         <v>38</v>
       </c>
       <c r="G92" t="s" s="2">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="H92" t="s" s="2">
         <v>50</v>
@@ -14622,7 +14603,7 @@
         <v>38</v>
       </c>
       <c r="G98" t="s" s="2">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H98" t="s" s="2">
         <v>37</v>
@@ -14872,7 +14853,7 @@
         <v>38</v>
       </c>
       <c r="G100" t="s" s="2">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="H100" t="s" s="2">
         <v>37</v>
@@ -14996,7 +14977,7 @@
         <v>38</v>
       </c>
       <c r="G101" t="s" s="2">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="H101" t="s" s="2">
         <v>37</v>
@@ -15124,7 +15105,7 @@
         <v>38</v>
       </c>
       <c r="G102" t="s" s="2">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="H102" t="s" s="2">
         <v>37</v>
@@ -15251,7 +15232,7 @@
         <v>39</v>
       </c>
       <c r="H103" t="s" s="2">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="I103" t="s" s="2">
         <v>37</v>

--- a/docs/StructureDefinition-VA.MHV.PHR.imaging.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.imaging.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.16-beta</t>
+    <t>0.1.17-beta</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-16T14:48:21-05:00</t>
+    <t>2023-07-13T09:22:36-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.imaging.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.imaging.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.17-beta</t>
+    <t>0.1.18-beta</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-13T09:22:36-05:00</t>
+    <t>2023-07-19T13:17:04-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.imaging.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.imaging.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-19T13:17:04-05:00</t>
+    <t>2023-07-21T16:23:00-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.imaging.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.imaging.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-21T16:23:00-05:00</t>
+    <t>2023-08-03T12:49:33-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.imaging.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.imaging.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-03T12:49:33-05:00</t>
+    <t>2023-08-17T15:11:45-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.imaging.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.imaging.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.18-beta</t>
+    <t>0.1.19-beta</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-17T15:11:45-05:00</t>
+    <t>2023-08-18T06:56:10-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.imaging.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.imaging.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-18T06:56:10-05:00</t>
+    <t>2023-08-18T07:55:35-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.imaging.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.imaging.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.19-beta</t>
+    <t>0.1.20-beta</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-18T07:55:35-05:00</t>
+    <t>2023-08-22T11:16:10-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.imaging.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.imaging.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-22T11:16:10-05:00</t>
+    <t>2023-08-22T12:58:52-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.imaging.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.imaging.xlsx
@@ -27,13 +27,13 @@
     <t>URL</t>
   </si>
   <si>
-    <t>https://johnmoehrke.github.io/MHV-PHR/StructureDefinition/VA.MHV.PHR.imaging</t>
+    <t>https://department-of-veterans-affairs.github.io/mhv-fhir-phr-mapping/StructureDefinition/VA.MHV.PHR.imaging</t>
   </si>
   <si>
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.20-beta</t>
+    <t>0.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,13 +60,13 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-22T12:58:52-05:00</t>
+    <t>2023-08-22T16:36:15-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
   </si>
   <si>
-    <t>John Moehrke (himself)</t>
+    <t>VA Digital Services</t>
   </si>
   <si>
     <t>Contact</t>
@@ -114,7 +114,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>https://johnmoehrke.github.io/MHV-PHR/StructureDefinition/VA.MHV.PHR.documentReference</t>
+    <t>https://department-of-veterans-affairs.github.io/mhv-fhir-phr-mapping/StructureDefinition/VA.MHV.PHR.documentReference</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -817,7 +817,7 @@
     <t>Key metadata element describing the document that describes he exact type of document. Helps humans to assess whether the document is of interest when viewing a list of documents.</t>
   </si>
   <si>
-    <t>https://johnmoehrke.github.io/MHV-PHR/ValueSet/DocumentReferenceTypeVS</t>
+    <t>https://department-of-veterans-affairs.github.io/mhv-fhir-phr-mapping/ValueSet/DocumentReferenceTypeVS</t>
   </si>
   <si>
     <t>Event.code</t>
@@ -2334,7 +2334,7 @@
     <col min="23" max="23" width="1.0390625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="10.19140625" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="125.34375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="72.86328125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="99.78515625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="1.0390625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="15.32421875" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="40.0390625" customWidth="true" bestFit="true"/>

--- a/docs/StructureDefinition-VA.MHV.PHR.imaging.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.imaging.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4162" uniqueCount="632">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4162" uniqueCount="633">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.0</t>
+    <t>0.2.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-22T16:36:15-05:00</t>
+    <t>2023-08-24T09:48:15-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -146,6 +146,10 @@
   </si>
   <si>
     <t>\-</t>
+  </si>
+  <si>
+    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
   </si>
   <si>
     <t>Event</t>
@@ -2454,19 +2458,19 @@
         <v>37</v>
       </c>
       <c r="AJ1" t="s" s="2">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="AK1" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AL1" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AM1" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AN1" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AO1" t="s" s="2">
         <v>37</v>
@@ -2478,15 +2482,15 @@
         <v>37</v>
       </c>
       <c r="AR1" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" hidden="true">
       <c r="A2" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
@@ -2497,7 +2501,7 @@
         <v>38</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H2" t="s" s="2">
         <v>37</v>
@@ -2506,19 +2510,19 @@
         <v>37</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="N2" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
@@ -2568,13 +2572,13 @@
         <v>37</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AG2" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI2" t="s" s="2">
         <v>37</v>
@@ -2609,10 +2613,10 @@
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -2623,7 +2627,7 @@
         <v>38</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H3" t="s" s="2">
         <v>37</v>
@@ -2632,16 +2636,16 @@
         <v>37</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
@@ -2692,19 +2696,19 @@
         <v>37</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI3" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK3" t="s" s="2">
         <v>37</v>
@@ -2733,10 +2737,10 @@
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -2747,28 +2751,28 @@
         <v>38</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H4" t="s" s="2">
         <v>37</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="N4" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
@@ -2818,19 +2822,19 @@
         <v>37</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>37</v>
@@ -2859,10 +2863,10 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -2873,7 +2877,7 @@
         <v>38</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>37</v>
@@ -2885,16 +2889,16 @@
         <v>37</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -2920,13 +2924,13 @@
         <v>37</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA5" t="s" s="2">
         <v>37</v>
@@ -2944,19 +2948,19 @@
         <v>37</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>37</v>
@@ -2985,21 +2989,21 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
         <v>38</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>37</v>
@@ -3011,16 +3015,16 @@
         <v>37</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -3070,19 +3074,19 @@
         <v>37</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>37</v>
@@ -3091,7 +3095,7 @@
         <v>37</v>
       </c>
       <c r="AM6" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AN6" t="s" s="2">
         <v>37</v>
@@ -3111,14 +3115,14 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
@@ -3137,16 +3141,16 @@
         <v>37</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -3196,7 +3200,7 @@
         <v>37</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>38</v>
@@ -3217,7 +3221,7 @@
         <v>37</v>
       </c>
       <c r="AM7" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AN7" t="s" s="2">
         <v>37</v>
@@ -3237,14 +3241,14 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
@@ -3263,16 +3267,16 @@
         <v>37</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -3322,7 +3326,7 @@
         <v>37</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>38</v>
@@ -3334,7 +3338,7 @@
         <v>37</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK8" t="s" s="2">
         <v>37</v>
@@ -3343,7 +3347,7 @@
         <v>37</v>
       </c>
       <c r="AM8" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AN8" t="s" s="2">
         <v>37</v>
@@ -3363,14 +3367,14 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
@@ -3383,25 +3387,25 @@
         <v>37</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J9" t="s" s="2">
         <v>37</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O9" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="P9" t="s" s="2">
         <v>37</v>
@@ -3450,7 +3454,7 @@
         <v>37</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>38</v>
@@ -3462,7 +3466,7 @@
         <v>37</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>37</v>
@@ -3471,7 +3475,7 @@
         <v>37</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AN9" t="s" s="2">
         <v>37</v>
@@ -3491,10 +3495,10 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
@@ -3514,22 +3518,22 @@
         <v>37</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="O10" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>37</v>
@@ -3578,40 +3582,40 @@
         <v>37</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI10" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AN10" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AO10" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AP10" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AQ10" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AR10" t="s" s="2">
         <v>37</v>
@@ -3619,10 +3623,10 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -3630,28 +3634,28 @@
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G11" t="s" s="2">
         <v>39</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I11" t="s" s="2">
         <v>37</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
@@ -3690,17 +3694,17 @@
         <v>37</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AC11" s="2"/>
       <c r="AD11" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>38</v>
@@ -3712,28 +3716,28 @@
         <v>37</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AL11" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AN11" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AO11" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AP11" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AQ11" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AR11" t="s" s="2">
         <v>37</v>
@@ -3741,41 +3745,41 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C12" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D12" t="s" s="2">
         <v>37</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I12" t="s" s="2">
         <v>37</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
@@ -3826,7 +3830,7 @@
         <v>37</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>38</v>
@@ -3838,39 +3842,39 @@
         <v>37</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AL12" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AN12" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AO12" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AP12" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AQ12" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AR12" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -3881,7 +3885,7 @@
         <v>38</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>37</v>
@@ -3893,13 +3897,13 @@
         <v>37</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
@@ -3950,13 +3954,13 @@
         <v>37</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>37</v>
@@ -3971,7 +3975,7 @@
         <v>37</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AN13" t="s" s="2">
         <v>37</v>
@@ -3991,14 +3995,14 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
@@ -4017,16 +4021,16 @@
         <v>37</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
@@ -4064,19 +4068,19 @@
         <v>37</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AC14" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AD14" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>38</v>
@@ -4088,7 +4092,7 @@
         <v>37</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>37</v>
@@ -4097,7 +4101,7 @@
         <v>37</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AN14" t="s" s="2">
         <v>37</v>
@@ -4117,10 +4121,10 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -4128,34 +4132,34 @@
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>37</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="O15" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>37</v>
@@ -4165,7 +4169,7 @@
         <v>37</v>
       </c>
       <c r="S15" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="T15" t="s" s="2">
         <v>37</v>
@@ -4180,13 +4184,13 @@
         <v>37</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>37</v>
@@ -4204,19 +4208,19 @@
         <v>37</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>37</v>
@@ -4225,7 +4229,7 @@
         <v>37</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="AN15" t="s" s="2">
         <v>37</v>
@@ -4234,7 +4238,7 @@
         <v>37</v>
       </c>
       <c r="AP15" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AQ15" t="s" s="2">
         <v>37</v>
@@ -4245,10 +4249,10 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -4259,7 +4263,7 @@
         <v>38</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>37</v>
@@ -4268,22 +4272,22 @@
         <v>37</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="O16" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>37</v>
@@ -4308,13 +4312,13 @@
         <v>37</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AA16" t="s" s="2">
         <v>37</v>
@@ -4332,19 +4336,19 @@
         <v>37</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>37</v>
@@ -4353,7 +4357,7 @@
         <v>37</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="AN16" t="s" s="2">
         <v>37</v>
@@ -4362,7 +4366,7 @@
         <v>37</v>
       </c>
       <c r="AP16" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AQ16" t="s" s="2">
         <v>37</v>
@@ -4373,10 +4377,10 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -4387,7 +4391,7 @@
         <v>38</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>37</v>
@@ -4396,22 +4400,22 @@
         <v>37</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="O17" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="P17" t="s" s="2">
         <v>37</v>
@@ -4424,7 +4428,7 @@
         <v>37</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="U17" t="s" s="2">
         <v>37</v>
@@ -4460,19 +4464,19 @@
         <v>37</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>37</v>
@@ -4481,7 +4485,7 @@
         <v>37</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AN17" t="s" s="2">
         <v>37</v>
@@ -4490,7 +4494,7 @@
         <v>37</v>
       </c>
       <c r="AP17" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AQ17" t="s" s="2">
         <v>37</v>
@@ -4501,10 +4505,10 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -4515,7 +4519,7 @@
         <v>38</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>37</v>
@@ -4524,19 +4528,19 @@
         <v>37</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
@@ -4550,7 +4554,7 @@
         <v>37</v>
       </c>
       <c r="T18" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="U18" t="s" s="2">
         <v>37</v>
@@ -4586,19 +4590,19 @@
         <v>37</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>37</v>
@@ -4607,7 +4611,7 @@
         <v>37</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AN18" t="s" s="2">
         <v>37</v>
@@ -4616,7 +4620,7 @@
         <v>37</v>
       </c>
       <c r="AP18" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AQ18" t="s" s="2">
         <v>37</v>
@@ -4627,10 +4631,10 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -4641,7 +4645,7 @@
         <v>38</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>37</v>
@@ -4650,16 +4654,16 @@
         <v>37</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -4710,19 +4714,19 @@
         <v>37</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>37</v>
@@ -4731,7 +4735,7 @@
         <v>37</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>37</v>
@@ -4740,7 +4744,7 @@
         <v>37</v>
       </c>
       <c r="AP19" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AQ19" t="s" s="2">
         <v>37</v>
@@ -4751,10 +4755,10 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4765,7 +4769,7 @@
         <v>38</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>37</v>
@@ -4774,19 +4778,19 @@
         <v>37</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
@@ -4836,19 +4840,19 @@
         <v>37</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>37</v>
@@ -4857,7 +4861,7 @@
         <v>37</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AN20" t="s" s="2">
         <v>37</v>
@@ -4866,7 +4870,7 @@
         <v>37</v>
       </c>
       <c r="AP20" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AQ20" t="s" s="2">
         <v>37</v>
@@ -4877,13 +4881,13 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C21" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D21" t="s" s="2">
         <v>37</v>
@@ -4896,22 +4900,22 @@
         <v>39</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I21" t="s" s="2">
         <v>37</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -4962,7 +4966,7 @@
         <v>37</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>38</v>
@@ -4974,39 +4978,39 @@
         <v>37</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AO21" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AP21" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AQ21" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AR21" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -5017,7 +5021,7 @@
         <v>38</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>37</v>
@@ -5029,13 +5033,13 @@
         <v>37</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -5086,13 +5090,13 @@
         <v>37</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>37</v>
@@ -5107,7 +5111,7 @@
         <v>37</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AN22" t="s" s="2">
         <v>37</v>
@@ -5127,14 +5131,14 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
@@ -5153,16 +5157,16 @@
         <v>37</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
@@ -5200,19 +5204,19 @@
         <v>37</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AC23" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AD23" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>38</v>
@@ -5224,7 +5228,7 @@
         <v>37</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>37</v>
@@ -5233,7 +5237,7 @@
         <v>37</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AN23" t="s" s="2">
         <v>37</v>
@@ -5253,10 +5257,10 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -5264,34 +5268,34 @@
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>37</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="O24" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>37</v>
@@ -5301,7 +5305,7 @@
         <v>37</v>
       </c>
       <c r="S24" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="T24" t="s" s="2">
         <v>37</v>
@@ -5316,13 +5320,13 @@
         <v>37</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AA24" t="s" s="2">
         <v>37</v>
@@ -5340,19 +5344,19 @@
         <v>37</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>37</v>
@@ -5361,7 +5365,7 @@
         <v>37</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>37</v>
@@ -5370,7 +5374,7 @@
         <v>37</v>
       </c>
       <c r="AP24" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AQ24" t="s" s="2">
         <v>37</v>
@@ -5381,10 +5385,10 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -5395,7 +5399,7 @@
         <v>38</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>37</v>
@@ -5404,22 +5408,22 @@
         <v>37</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="O25" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>37</v>
@@ -5429,7 +5433,7 @@
         <v>37</v>
       </c>
       <c r="S25" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="T25" t="s" s="2">
         <v>37</v>
@@ -5444,13 +5448,13 @@
         <v>37</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AA25" t="s" s="2">
         <v>37</v>
@@ -5468,19 +5472,19 @@
         <v>37</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>37</v>
@@ -5489,7 +5493,7 @@
         <v>37</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>37</v>
@@ -5498,7 +5502,7 @@
         <v>37</v>
       </c>
       <c r="AP25" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AQ25" t="s" s="2">
         <v>37</v>
@@ -5509,10 +5513,10 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -5523,7 +5527,7 @@
         <v>38</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>37</v>
@@ -5532,22 +5536,22 @@
         <v>37</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="O26" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>37</v>
@@ -5560,7 +5564,7 @@
         <v>37</v>
       </c>
       <c r="T26" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="U26" t="s" s="2">
         <v>37</v>
@@ -5596,19 +5600,19 @@
         <v>37</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>37</v>
@@ -5617,7 +5621,7 @@
         <v>37</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>37</v>
@@ -5626,7 +5630,7 @@
         <v>37</v>
       </c>
       <c r="AP26" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AQ26" t="s" s="2">
         <v>37</v>
@@ -5637,10 +5641,10 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -5651,7 +5655,7 @@
         <v>38</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>37</v>
@@ -5660,19 +5664,19 @@
         <v>37</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
@@ -5686,7 +5690,7 @@
         <v>37</v>
       </c>
       <c r="T27" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="U27" t="s" s="2">
         <v>37</v>
@@ -5722,19 +5726,19 @@
         <v>37</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>37</v>
@@ -5743,7 +5747,7 @@
         <v>37</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>37</v>
@@ -5752,7 +5756,7 @@
         <v>37</v>
       </c>
       <c r="AP27" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AQ27" t="s" s="2">
         <v>37</v>
@@ -5763,10 +5767,10 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5777,7 +5781,7 @@
         <v>38</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>37</v>
@@ -5786,16 +5790,16 @@
         <v>37</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -5846,19 +5850,19 @@
         <v>37</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>37</v>
@@ -5867,7 +5871,7 @@
         <v>37</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>37</v>
@@ -5876,7 +5880,7 @@
         <v>37</v>
       </c>
       <c r="AP28" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AQ28" t="s" s="2">
         <v>37</v>
@@ -5887,10 +5891,10 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5901,7 +5905,7 @@
         <v>38</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>37</v>
@@ -5910,19 +5914,19 @@
         <v>37</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -5972,19 +5976,19 @@
         <v>37</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>37</v>
@@ -5993,7 +5997,7 @@
         <v>37</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>37</v>
@@ -6002,7 +6006,7 @@
         <v>37</v>
       </c>
       <c r="AP29" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AQ29" t="s" s="2">
         <v>37</v>
@@ -6013,13 +6017,13 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C30" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D30" t="s" s="2">
         <v>37</v>
@@ -6032,22 +6036,22 @@
         <v>39</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I30" t="s" s="2">
         <v>37</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -6098,7 +6102,7 @@
         <v>37</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>38</v>
@@ -6110,39 +6114,39 @@
         <v>37</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AO30" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AP30" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AQ30" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AR30" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -6153,7 +6157,7 @@
         <v>38</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>37</v>
@@ -6165,13 +6169,13 @@
         <v>37</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -6222,13 +6226,13 @@
         <v>37</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>37</v>
@@ -6243,7 +6247,7 @@
         <v>37</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>37</v>
@@ -6263,14 +6267,14 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
@@ -6289,16 +6293,16 @@
         <v>37</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
@@ -6336,19 +6340,19 @@
         <v>37</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AC32" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AD32" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>38</v>
@@ -6360,7 +6364,7 @@
         <v>37</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>37</v>
@@ -6369,7 +6373,7 @@
         <v>37</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>37</v>
@@ -6389,10 +6393,10 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -6400,34 +6404,34 @@
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>37</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="O33" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>37</v>
@@ -6437,7 +6441,7 @@
         <v>37</v>
       </c>
       <c r="S33" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="T33" t="s" s="2">
         <v>37</v>
@@ -6452,13 +6456,13 @@
         <v>37</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AA33" t="s" s="2">
         <v>37</v>
@@ -6476,19 +6480,19 @@
         <v>37</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>37</v>
@@ -6497,7 +6501,7 @@
         <v>37</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>37</v>
@@ -6506,7 +6510,7 @@
         <v>37</v>
       </c>
       <c r="AP33" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AQ33" t="s" s="2">
         <v>37</v>
@@ -6517,10 +6521,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -6531,7 +6535,7 @@
         <v>38</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>37</v>
@@ -6540,22 +6544,22 @@
         <v>37</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="O34" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>37</v>
@@ -6580,13 +6584,13 @@
         <v>37</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AA34" t="s" s="2">
         <v>37</v>
@@ -6604,19 +6608,19 @@
         <v>37</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>37</v>
@@ -6625,7 +6629,7 @@
         <v>37</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>37</v>
@@ -6634,7 +6638,7 @@
         <v>37</v>
       </c>
       <c r="AP34" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AQ34" t="s" s="2">
         <v>37</v>
@@ -6645,10 +6649,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6659,7 +6663,7 @@
         <v>38</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>37</v>
@@ -6668,22 +6672,22 @@
         <v>37</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="O35" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>37</v>
@@ -6696,7 +6700,7 @@
         <v>37</v>
       </c>
       <c r="T35" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="U35" t="s" s="2">
         <v>37</v>
@@ -6732,19 +6736,19 @@
         <v>37</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>37</v>
@@ -6753,7 +6757,7 @@
         <v>37</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>37</v>
@@ -6762,7 +6766,7 @@
         <v>37</v>
       </c>
       <c r="AP35" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AQ35" t="s" s="2">
         <v>37</v>
@@ -6773,10 +6777,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6787,7 +6791,7 @@
         <v>38</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>37</v>
@@ -6796,19 +6800,19 @@
         <v>37</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
@@ -6822,7 +6826,7 @@
         <v>37</v>
       </c>
       <c r="T36" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="U36" t="s" s="2">
         <v>37</v>
@@ -6858,19 +6862,19 @@
         <v>37</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>37</v>
@@ -6879,7 +6883,7 @@
         <v>37</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>37</v>
@@ -6888,7 +6892,7 @@
         <v>37</v>
       </c>
       <c r="AP36" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AQ36" t="s" s="2">
         <v>37</v>
@@ -6899,10 +6903,10 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6913,7 +6917,7 @@
         <v>38</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>37</v>
@@ -6922,16 +6926,16 @@
         <v>37</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -6982,19 +6986,19 @@
         <v>37</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>37</v>
@@ -7003,7 +7007,7 @@
         <v>37</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>37</v>
@@ -7012,7 +7016,7 @@
         <v>37</v>
       </c>
       <c r="AP37" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AQ37" t="s" s="2">
         <v>37</v>
@@ -7023,10 +7027,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -7037,7 +7041,7 @@
         <v>38</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>37</v>
@@ -7046,19 +7050,19 @@
         <v>37</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
@@ -7108,19 +7112,19 @@
         <v>37</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>37</v>
@@ -7129,7 +7133,7 @@
         <v>37</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>37</v>
@@ -7138,7 +7142,7 @@
         <v>37</v>
       </c>
       <c r="AP38" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AQ38" t="s" s="2">
         <v>37</v>
@@ -7149,10 +7153,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -7160,31 +7164,31 @@
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H39" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
@@ -7195,7 +7199,7 @@
         <v>37</v>
       </c>
       <c r="S39" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="T39" t="s" s="2">
         <v>37</v>
@@ -7210,11 +7214,11 @@
         <v>37</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Y39" s="2"/>
       <c r="Z39" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>37</v>
@@ -7232,51 +7236,51 @@
         <v>37</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AO39" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AP39" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AQ39" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AR39" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -7296,19 +7300,19 @@
         <v>37</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
@@ -7334,13 +7338,13 @@
         <v>37</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AA40" t="s" s="2">
         <v>37</v>
@@ -7358,51 +7362,51 @@
         <v>37</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AO40" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AP40" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AQ40" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AR40" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -7410,31 +7414,31 @@
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I41" t="s" s="2">
         <v>37</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
@@ -7460,11 +7464,11 @@
         <v>37</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Y41" s="2"/>
       <c r="Z41" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AA41" t="s" s="2">
         <v>37</v>
@@ -7482,40 +7486,40 @@
         <v>37</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AO41" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AP41" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AQ41" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AR41" t="s" s="2">
         <v>37</v>
@@ -7523,10 +7527,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -7537,7 +7541,7 @@
         <v>38</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>37</v>
@@ -7549,13 +7553,13 @@
         <v>37</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -7606,13 +7610,13 @@
         <v>37</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>37</v>
@@ -7627,7 +7631,7 @@
         <v>37</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>37</v>
@@ -7647,14 +7651,14 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
@@ -7673,16 +7677,16 @@
         <v>37</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
@@ -7720,19 +7724,19 @@
         <v>37</v>
       </c>
       <c r="AB43" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AC43" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AD43" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>38</v>
@@ -7744,7 +7748,7 @@
         <v>37</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>37</v>
@@ -7753,7 +7757,7 @@
         <v>37</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>37</v>
@@ -7773,10 +7777,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7784,10 +7788,10 @@
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>37</v>
@@ -7796,22 +7800,22 @@
         <v>37</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="O44" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="P44" t="s" s="2">
         <v>37</v>
@@ -7848,17 +7852,17 @@
         <v>37</v>
       </c>
       <c r="AB44" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AC44" s="2"/>
       <c r="AD44" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>38</v>
@@ -7870,7 +7874,7 @@
         <v>37</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>37</v>
@@ -7879,7 +7883,7 @@
         <v>37</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>37</v>
@@ -7888,7 +7892,7 @@
         <v>37</v>
       </c>
       <c r="AP44" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AQ44" t="s" s="2">
         <v>37</v>
@@ -7899,23 +7903,23 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C45" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D45" t="s" s="2">
         <v>37</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>37</v>
@@ -7924,22 +7928,22 @@
         <v>37</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="O45" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>37</v>
@@ -7949,7 +7953,7 @@
         <v>37</v>
       </c>
       <c r="S45" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="T45" t="s" s="2">
         <v>37</v>
@@ -7988,7 +7992,7 @@
         <v>37</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>38</v>
@@ -8000,7 +8004,7 @@
         <v>37</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>37</v>
@@ -8009,7 +8013,7 @@
         <v>37</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>37</v>
@@ -8018,21 +8022,21 @@
         <v>37</v>
       </c>
       <c r="AP45" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AQ45" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AR45" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -8043,7 +8047,7 @@
         <v>38</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>37</v>
@@ -8055,13 +8059,13 @@
         <v>37</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -8112,13 +8116,13 @@
         <v>37</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>37</v>
@@ -8133,7 +8137,7 @@
         <v>37</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>37</v>
@@ -8153,14 +8157,14 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
@@ -8179,16 +8183,16 @@
         <v>37</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
@@ -8226,19 +8230,19 @@
         <v>37</v>
       </c>
       <c r="AB47" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AC47" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AD47" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>38</v>
@@ -8250,7 +8254,7 @@
         <v>37</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>37</v>
@@ -8259,7 +8263,7 @@
         <v>37</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>37</v>
@@ -8279,10 +8283,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -8290,10 +8294,10 @@
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>37</v>
@@ -8302,22 +8306,22 @@
         <v>37</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="O48" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>37</v>
@@ -8327,7 +8331,7 @@
         <v>37</v>
       </c>
       <c r="S48" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="T48" t="s" s="2">
         <v>37</v>
@@ -8366,19 +8370,19 @@
         <v>37</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>37</v>
@@ -8387,7 +8391,7 @@
         <v>37</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>37</v>
@@ -8396,7 +8400,7 @@
         <v>37</v>
       </c>
       <c r="AP48" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AQ48" t="s" s="2">
         <v>37</v>
@@ -8407,10 +8411,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -8421,7 +8425,7 @@
         <v>38</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>37</v>
@@ -8430,19 +8434,19 @@
         <v>37</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
@@ -8492,19 +8496,19 @@
         <v>37</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>37</v>
@@ -8513,7 +8517,7 @@
         <v>37</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>37</v>
@@ -8522,7 +8526,7 @@
         <v>37</v>
       </c>
       <c r="AP49" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AQ49" t="s" s="2">
         <v>37</v>
@@ -8533,10 +8537,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -8544,10 +8548,10 @@
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>37</v>
@@ -8556,20 +8560,20 @@
         <v>37</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>37</v>
@@ -8618,19 +8622,19 @@
         <v>37</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>37</v>
@@ -8639,7 +8643,7 @@
         <v>37</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>37</v>
@@ -8648,7 +8652,7 @@
         <v>37</v>
       </c>
       <c r="AP50" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AQ50" t="s" s="2">
         <v>37</v>
@@ -8659,10 +8663,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8673,7 +8677,7 @@
         <v>38</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>37</v>
@@ -8682,20 +8686,20 @@
         <v>37</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>37</v>
@@ -8744,19 +8748,19 @@
         <v>37</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>37</v>
@@ -8765,7 +8769,7 @@
         <v>37</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>37</v>
@@ -8774,7 +8778,7 @@
         <v>37</v>
       </c>
       <c r="AP51" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AQ51" t="s" s="2">
         <v>37</v>
@@ -8785,10 +8789,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8799,7 +8803,7 @@
         <v>38</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>37</v>
@@ -8808,22 +8812,22 @@
         <v>37</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="O52" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>37</v>
@@ -8872,19 +8876,19 @@
         <v>37</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>37</v>
@@ -8893,7 +8897,7 @@
         <v>37</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>37</v>
@@ -8902,7 +8906,7 @@
         <v>37</v>
       </c>
       <c r="AP52" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AQ52" t="s" s="2">
         <v>37</v>
@@ -8913,13 +8917,13 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C53" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="D53" t="s" s="2">
         <v>37</v>
@@ -8929,7 +8933,7 @@
         <v>38</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>37</v>
@@ -8938,22 +8942,22 @@
         <v>37</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="O53" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>37</v>
@@ -9002,7 +9006,7 @@
         <v>37</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>38</v>
@@ -9014,7 +9018,7 @@
         <v>37</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>37</v>
@@ -9023,7 +9027,7 @@
         <v>37</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>37</v>
@@ -9032,21 +9036,21 @@
         <v>37</v>
       </c>
       <c r="AP53" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AQ53" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AR53" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -9057,7 +9061,7 @@
         <v>38</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>37</v>
@@ -9069,13 +9073,13 @@
         <v>37</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
@@ -9126,13 +9130,13 @@
         <v>37</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>37</v>
@@ -9147,7 +9151,7 @@
         <v>37</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>37</v>
@@ -9167,14 +9171,14 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
@@ -9193,16 +9197,16 @@
         <v>37</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
@@ -9240,19 +9244,19 @@
         <v>37</v>
       </c>
       <c r="AB55" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AC55" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AD55" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>38</v>
@@ -9264,7 +9268,7 @@
         <v>37</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>37</v>
@@ -9273,7 +9277,7 @@
         <v>37</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>37</v>
@@ -9293,10 +9297,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -9304,10 +9308,10 @@
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>37</v>
@@ -9316,22 +9320,22 @@
         <v>37</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="O56" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="P56" t="s" s="2">
         <v>37</v>
@@ -9341,7 +9345,7 @@
         <v>37</v>
       </c>
       <c r="S56" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="T56" t="s" s="2">
         <v>37</v>
@@ -9380,19 +9384,19 @@
         <v>37</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>37</v>
@@ -9401,7 +9405,7 @@
         <v>37</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>37</v>
@@ -9410,7 +9414,7 @@
         <v>37</v>
       </c>
       <c r="AP56" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AQ56" t="s" s="2">
         <v>37</v>
@@ -9421,10 +9425,10 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -9435,7 +9439,7 @@
         <v>38</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>37</v>
@@ -9444,19 +9448,19 @@
         <v>37</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
@@ -9506,19 +9510,19 @@
         <v>37</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>37</v>
@@ -9527,7 +9531,7 @@
         <v>37</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>37</v>
@@ -9536,7 +9540,7 @@
         <v>37</v>
       </c>
       <c r="AP57" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AQ57" t="s" s="2">
         <v>37</v>
@@ -9547,10 +9551,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -9558,10 +9562,10 @@
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>37</v>
@@ -9570,20 +9574,20 @@
         <v>37</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="P58" t="s" s="2">
         <v>37</v>
@@ -9632,19 +9636,19 @@
         <v>37</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>37</v>
@@ -9653,7 +9657,7 @@
         <v>37</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>37</v>
@@ -9662,7 +9666,7 @@
         <v>37</v>
       </c>
       <c r="AP58" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AQ58" t="s" s="2">
         <v>37</v>
@@ -9673,10 +9677,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -9687,7 +9691,7 @@
         <v>38</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>37</v>
@@ -9696,20 +9700,20 @@
         <v>37</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="P59" t="s" s="2">
         <v>37</v>
@@ -9758,19 +9762,19 @@
         <v>37</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI59" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>37</v>
@@ -9779,7 +9783,7 @@
         <v>37</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>37</v>
@@ -9788,7 +9792,7 @@
         <v>37</v>
       </c>
       <c r="AP59" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AQ59" t="s" s="2">
         <v>37</v>
@@ -9799,10 +9803,10 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9813,7 +9817,7 @@
         <v>38</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>37</v>
@@ -9822,22 +9826,22 @@
         <v>37</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="O60" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>37</v>
@@ -9886,19 +9890,19 @@
         <v>37</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI60" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>37</v>
@@ -9907,7 +9911,7 @@
         <v>37</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>37</v>
@@ -9916,7 +9920,7 @@
         <v>37</v>
       </c>
       <c r="AP60" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AQ60" t="s" s="2">
         <v>37</v>
@@ -9927,10 +9931,10 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9941,7 +9945,7 @@
         <v>38</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>37</v>
@@ -9950,22 +9954,22 @@
         <v>37</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="O61" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="P61" t="s" s="2">
         <v>37</v>
@@ -10014,19 +10018,19 @@
         <v>37</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>37</v>
@@ -10035,7 +10039,7 @@
         <v>37</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>37</v>
@@ -10044,7 +10048,7 @@
         <v>37</v>
       </c>
       <c r="AP61" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="AQ61" t="s" s="2">
         <v>37</v>
@@ -10055,42 +10059,42 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G62" t="s" s="2">
         <v>39</v>
       </c>
       <c r="H62" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I62" t="s" s="2">
         <v>37</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
@@ -10116,29 +10120,29 @@
         <v>37</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="Z62" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AA62" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AB62" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AC62" s="2"/>
       <c r="AD62" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>38</v>
@@ -10150,45 +10154,45 @@
         <v>37</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AO62" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AP62" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AQ62" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AR62" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C63" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="D63" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
@@ -10198,25 +10202,25 @@
         <v>39</v>
       </c>
       <c r="H63" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I63" t="s" s="2">
         <v>37</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
@@ -10242,13 +10246,13 @@
         <v>37</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Y63" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="Z63" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AA63" t="s" s="2">
         <v>37</v>
@@ -10266,7 +10270,7 @@
         <v>37</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>38</v>
@@ -10278,28 +10282,28 @@
         <v>37</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK63" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AO63" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AP63" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AQ63" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AR63" t="s" s="2">
         <v>37</v>
@@ -10307,10 +10311,10 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -10318,28 +10322,28 @@
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H64" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I64" t="s" s="2">
         <v>37</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" s="2"/>
@@ -10390,83 +10394,83 @@
         <v>37</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI64" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AO64" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="AP64" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AQ64" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AR64" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
         <v>38</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H65" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I65" t="s" s="2">
         <v>37</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
@@ -10516,34 +10520,34 @@
         <v>37</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI65" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AN65" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AO65" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AP65" t="s" s="2">
         <v>37</v>
@@ -10552,15 +10556,15 @@
         <v>37</v>
       </c>
       <c r="AR65" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -10574,25 +10578,25 @@
         <v>39</v>
       </c>
       <c r="H66" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I66" t="s" s="2">
         <v>37</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="O66" s="2"/>
       <c r="P66" t="s" s="2">
@@ -10642,7 +10646,7 @@
         <v>37</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>38</v>
@@ -10654,39 +10658,39 @@
         <v>37</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AO66" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AP66" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="AQ66" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="AR66" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -10697,10 +10701,10 @@
         <v>38</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H67" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I67" t="s" s="2">
         <v>37</v>
@@ -10709,16 +10713,16 @@
         <v>37</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
@@ -10768,40 +10772,40 @@
         <v>37</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH67" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI67" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="AO67" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="AP67" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="AQ67" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="AR67" t="s" s="2">
         <v>37</v>
@@ -10809,10 +10813,10 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -10823,10 +10827,10 @@
         <v>38</v>
       </c>
       <c r="G68" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H68" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I68" t="s" s="2">
         <v>37</v>
@@ -10835,16 +10839,16 @@
         <v>37</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="O68" s="2"/>
       <c r="P68" t="s" s="2">
@@ -10894,28 +10898,28 @@
         <v>37</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI68" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="AN68" t="s" s="2">
         <v>37</v>
@@ -10930,15 +10934,15 @@
         <v>37</v>
       </c>
       <c r="AR68" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10958,19 +10962,19 @@
         <v>37</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="O69" s="2"/>
       <c r="P69" t="s" s="2">
@@ -11020,7 +11024,7 @@
         <v>37</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>38</v>
@@ -11032,16 +11036,16 @@
         <v>37</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK69" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="AN69" t="s" s="2">
         <v>37</v>
@@ -11053,7 +11057,7 @@
         <v>37</v>
       </c>
       <c r="AQ69" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="AR69" t="s" s="2">
         <v>37</v>
@@ -11061,10 +11065,10 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -11075,7 +11079,7 @@
         <v>38</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H70" t="s" s="2">
         <v>37</v>
@@ -11087,13 +11091,13 @@
         <v>37</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" s="2"/>
@@ -11144,13 +11148,13 @@
         <v>37</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH70" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI70" t="s" s="2">
         <v>37</v>
@@ -11165,7 +11169,7 @@
         <v>37</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AN70" t="s" s="2">
         <v>37</v>
@@ -11185,14 +11189,14 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E71" s="2"/>
       <c r="F71" t="s" s="2">
@@ -11211,16 +11215,16 @@
         <v>37</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
@@ -11270,7 +11274,7 @@
         <v>37</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>38</v>
@@ -11282,7 +11286,7 @@
         <v>37</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK71" t="s" s="2">
         <v>37</v>
@@ -11291,7 +11295,7 @@
         <v>37</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AN71" t="s" s="2">
         <v>37</v>
@@ -11311,14 +11315,14 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="E72" s="2"/>
       <c r="F72" t="s" s="2">
@@ -11331,25 +11335,25 @@
         <v>37</v>
       </c>
       <c r="I72" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O72" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="P72" t="s" s="2">
         <v>37</v>
@@ -11398,7 +11402,7 @@
         <v>37</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>38</v>
@@ -11410,7 +11414,7 @@
         <v>37</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK72" t="s" s="2">
         <v>37</v>
@@ -11419,7 +11423,7 @@
         <v>37</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AN72" t="s" s="2">
         <v>37</v>
@@ -11439,10 +11443,10 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -11450,10 +11454,10 @@
       </c>
       <c r="E73" s="2"/>
       <c r="F73" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G73" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H73" t="s" s="2">
         <v>37</v>
@@ -11462,19 +11466,19 @@
         <v>37</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="O73" s="2"/>
       <c r="P73" t="s" s="2">
@@ -11500,13 +11504,13 @@
         <v>37</v>
       </c>
       <c r="X73" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Y73" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="Z73" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="AA73" t="s" s="2">
         <v>37</v>
@@ -11524,28 +11528,28 @@
         <v>37</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="AG73" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AH73" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI73" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK73" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AN73" t="s" s="2">
         <v>37</v>
@@ -11557,7 +11561,7 @@
         <v>37</v>
       </c>
       <c r="AQ73" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="AR73" t="s" s="2">
         <v>37</v>
@@ -11565,10 +11569,10 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -11576,10 +11580,10 @@
       </c>
       <c r="E74" s="2"/>
       <c r="F74" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G74" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H74" t="s" s="2">
         <v>37</v>
@@ -11588,16 +11592,16 @@
         <v>37</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="N74" s="2"/>
       <c r="O74" s="2"/>
@@ -11648,28 +11652,28 @@
         <v>37</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="AG74" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AH74" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI74" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK74" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="AN74" t="s" s="2">
         <v>37</v>
@@ -11681,7 +11685,7 @@
         <v>37</v>
       </c>
       <c r="AQ74" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="AR74" t="s" s="2">
         <v>37</v>
@@ -11689,10 +11693,10 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -11703,31 +11707,31 @@
         <v>38</v>
       </c>
       <c r="G75" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H75" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I75" t="s" s="2">
         <v>37</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="O75" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="P75" t="s" s="2">
         <v>37</v>
@@ -11776,19 +11780,19 @@
         <v>37</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH75" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI75" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK75" t="s" s="2">
         <v>37</v>
@@ -11797,7 +11801,7 @@
         <v>37</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="AN75" t="s" s="2">
         <v>37</v>
@@ -11806,21 +11810,21 @@
         <v>37</v>
       </c>
       <c r="AP75" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="AQ75" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AR75" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -11840,22 +11844,22 @@
         <v>37</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="N76" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="O76" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="P76" t="s" s="2">
         <v>37</v>
@@ -11880,13 +11884,13 @@
         <v>37</v>
       </c>
       <c r="X76" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Y76" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="Z76" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="AA76" t="s" s="2">
         <v>37</v>
@@ -11904,7 +11908,7 @@
         <v>37</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>38</v>
@@ -11916,28 +11920,28 @@
         <v>37</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK76" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="AN76" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="AO76" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AP76" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="AQ76" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="AR76" t="s" s="2">
         <v>37</v>
@@ -11945,10 +11949,10 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -11956,28 +11960,28 @@
       </c>
       <c r="E77" s="2"/>
       <c r="F77" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G77" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H77" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I77" t="s" s="2">
         <v>37</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" s="2"/>
@@ -12028,10 +12032,10 @@
         <v>37</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="AG77" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AH77" t="s" s="2">
         <v>39</v>
@@ -12040,16 +12044,16 @@
         <v>37</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK77" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="AN77" t="s" s="2">
         <v>37</v>
@@ -12069,10 +12073,10 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -12083,7 +12087,7 @@
         <v>38</v>
       </c>
       <c r="G78" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H78" t="s" s="2">
         <v>37</v>
@@ -12095,13 +12099,13 @@
         <v>37</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="N78" s="2"/>
       <c r="O78" s="2"/>
@@ -12152,13 +12156,13 @@
         <v>37</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH78" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI78" t="s" s="2">
         <v>37</v>
@@ -12173,7 +12177,7 @@
         <v>37</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AN78" t="s" s="2">
         <v>37</v>
@@ -12193,14 +12197,14 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E79" s="2"/>
       <c r="F79" t="s" s="2">
@@ -12219,16 +12223,16 @@
         <v>37</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O79" s="2"/>
       <c r="P79" t="s" s="2">
@@ -12278,7 +12282,7 @@
         <v>37</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>38</v>
@@ -12290,7 +12294,7 @@
         <v>37</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK79" t="s" s="2">
         <v>37</v>
@@ -12299,7 +12303,7 @@
         <v>37</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AN79" t="s" s="2">
         <v>37</v>
@@ -12319,14 +12323,14 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="E80" s="2"/>
       <c r="F80" t="s" s="2">
@@ -12339,25 +12343,25 @@
         <v>37</v>
       </c>
       <c r="I80" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="N80" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O80" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="P80" t="s" s="2">
         <v>37</v>
@@ -12406,7 +12410,7 @@
         <v>37</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>38</v>
@@ -12418,7 +12422,7 @@
         <v>37</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK80" t="s" s="2">
         <v>37</v>
@@ -12427,7 +12431,7 @@
         <v>37</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AN80" t="s" s="2">
         <v>37</v>
@@ -12447,10 +12451,10 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -12458,28 +12462,28 @@
       </c>
       <c r="E81" s="2"/>
       <c r="F81" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G81" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H81" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I81" t="s" s="2">
         <v>37</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="N81" s="2"/>
       <c r="O81" s="2"/>
@@ -12530,40 +12534,40 @@
         <v>37</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="AG81" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AH81" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI81" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="AK81" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="AN81" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="AO81" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AP81" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="AQ81" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="AR81" t="s" s="2">
         <v>37</v>
@@ -12571,10 +12575,10 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -12585,7 +12589,7 @@
         <v>38</v>
       </c>
       <c r="G82" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H82" t="s" s="2">
         <v>37</v>
@@ -12597,13 +12601,13 @@
         <v>37</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="N82" s="2"/>
       <c r="O82" s="2"/>
@@ -12654,13 +12658,13 @@
         <v>37</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH82" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI82" t="s" s="2">
         <v>37</v>
@@ -12675,7 +12679,7 @@
         <v>37</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AN82" t="s" s="2">
         <v>37</v>
@@ -12695,14 +12699,14 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E83" s="2"/>
       <c r="F83" t="s" s="2">
@@ -12721,16 +12725,16 @@
         <v>37</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="N83" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O83" s="2"/>
       <c r="P83" t="s" s="2">
@@ -12768,19 +12772,19 @@
         <v>37</v>
       </c>
       <c r="AB83" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AC83" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AD83" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>38</v>
@@ -12792,7 +12796,7 @@
         <v>37</v>
       </c>
       <c r="AJ83" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK83" t="s" s="2">
         <v>37</v>
@@ -12801,7 +12805,7 @@
         <v>37</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AN83" t="s" s="2">
         <v>37</v>
@@ -12821,10 +12825,10 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -12835,29 +12839,29 @@
         <v>38</v>
       </c>
       <c r="G84" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H84" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I84" t="s" s="2">
         <v>37</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="N84" s="2"/>
       <c r="O84" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="P84" t="s" s="2">
         <v>37</v>
@@ -12870,7 +12874,7 @@
         <v>37</v>
       </c>
       <c r="T84" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="U84" t="s" s="2">
         <v>37</v>
@@ -12882,13 +12886,13 @@
         <v>37</v>
       </c>
       <c r="X84" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Y84" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="Z84" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="AA84" t="s" s="2">
         <v>37</v>
@@ -12906,19 +12910,19 @@
         <v>37</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH84" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI84" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ84" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK84" t="s" s="2">
         <v>37</v>
@@ -12927,7 +12931,7 @@
         <v>37</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="AN84" t="s" s="2">
         <v>37</v>
@@ -12936,21 +12940,21 @@
         <v>37</v>
       </c>
       <c r="AP84" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="AQ84" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AR84" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -12970,20 +12974,20 @@
         <v>37</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="N85" s="2"/>
       <c r="O85" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="P85" t="s" s="2">
         <v>37</v>
@@ -12996,7 +13000,7 @@
         <v>37</v>
       </c>
       <c r="T85" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="U85" t="s" s="2">
         <v>37</v>
@@ -13008,13 +13012,13 @@
         <v>37</v>
       </c>
       <c r="X85" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y85" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z85" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA85" t="s" s="2">
         <v>37</v>
@@ -13032,19 +13036,19 @@
         <v>37</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH85" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI85" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK85" t="s" s="2">
         <v>37</v>
@@ -13053,7 +13057,7 @@
         <v>37</v>
       </c>
       <c r="AM85" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="AN85" t="s" s="2">
         <v>37</v>
@@ -13073,10 +13077,10 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -13087,10 +13091,10 @@
         <v>38</v>
       </c>
       <c r="G86" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H86" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I86" t="s" s="2">
         <v>37</v>
@@ -13099,19 +13103,19 @@
         <v>37</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="N86" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="O86" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="P86" t="s" s="2">
         <v>37</v>
@@ -13160,19 +13164,19 @@
         <v>37</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH86" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI86" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="AJ86" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK86" t="s" s="2">
         <v>37</v>
@@ -13181,7 +13185,7 @@
         <v>37</v>
       </c>
       <c r="AM86" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="AN86" t="s" s="2">
         <v>37</v>
@@ -13190,21 +13194,21 @@
         <v>37</v>
       </c>
       <c r="AP86" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="AQ86" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AR86" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -13218,28 +13222,28 @@
         <v>38</v>
       </c>
       <c r="H87" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I87" t="s" s="2">
         <v>37</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="N87" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="O87" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="P87" t="s" s="2">
         <v>37</v>
@@ -13252,7 +13256,7 @@
         <v>37</v>
       </c>
       <c r="T87" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="U87" t="s" s="2">
         <v>37</v>
@@ -13288,19 +13292,19 @@
         <v>37</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH87" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI87" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="AJ87" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK87" t="s" s="2">
         <v>37</v>
@@ -13309,7 +13313,7 @@
         <v>37</v>
       </c>
       <c r="AM87" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="AN87" t="s" s="2">
         <v>37</v>
@@ -13318,7 +13322,7 @@
         <v>37</v>
       </c>
       <c r="AP87" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="AQ87" t="s" s="2">
         <v>37</v>
@@ -13329,10 +13333,10 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -13352,22 +13356,22 @@
         <v>37</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="N88" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="O88" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="P88" t="s" s="2">
         <v>37</v>
@@ -13416,19 +13420,19 @@
         <v>37</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH88" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI88" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ88" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK88" t="s" s="2">
         <v>37</v>
@@ -13437,7 +13441,7 @@
         <v>37</v>
       </c>
       <c r="AM88" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="AN88" t="s" s="2">
         <v>37</v>
@@ -13457,10 +13461,10 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -13480,22 +13484,22 @@
         <v>37</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="N89" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="O89" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="P89" t="s" s="2">
         <v>37</v>
@@ -13544,19 +13548,19 @@
         <v>37</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH89" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI89" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ89" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK89" t="s" s="2">
         <v>37</v>
@@ -13565,7 +13569,7 @@
         <v>37</v>
       </c>
       <c r="AM89" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="AN89" t="s" s="2">
         <v>37</v>
@@ -13585,10 +13589,10 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -13599,29 +13603,29 @@
         <v>38</v>
       </c>
       <c r="G90" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H90" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I90" t="s" s="2">
         <v>37</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="N90" s="2"/>
       <c r="O90" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="P90" t="s" s="2">
         <v>37</v>
@@ -13634,7 +13638,7 @@
         <v>37</v>
       </c>
       <c r="T90" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="U90" t="s" s="2">
         <v>37</v>
@@ -13670,19 +13674,19 @@
         <v>37</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH90" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI90" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ90" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK90" t="s" s="2">
         <v>37</v>
@@ -13691,7 +13695,7 @@
         <v>37</v>
       </c>
       <c r="AM90" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="AN90" t="s" s="2">
         <v>37</v>
@@ -13706,15 +13710,15 @@
         <v>37</v>
       </c>
       <c r="AR90" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -13725,29 +13729,29 @@
         <v>38</v>
       </c>
       <c r="G91" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H91" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I91" t="s" s="2">
         <v>37</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="N91" s="2"/>
       <c r="O91" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="P91" t="s" s="2">
         <v>37</v>
@@ -13796,19 +13800,19 @@
         <v>37</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH91" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI91" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ91" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK91" t="s" s="2">
         <v>37</v>
@@ -13817,7 +13821,7 @@
         <v>37</v>
       </c>
       <c r="AM91" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="AN91" t="s" s="2">
         <v>37</v>
@@ -13832,15 +13836,15 @@
         <v>37</v>
       </c>
       <c r="AR91" t="s" s="2">
-        <v>558</v>
+        <v>559</v>
       </c>
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -13854,25 +13858,25 @@
         <v>38</v>
       </c>
       <c r="H92" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I92" t="s" s="2">
         <v>37</v>
       </c>
       <c r="J92" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="N92" t="s" s="2">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="O92" s="2"/>
       <c r="P92" t="s" s="2">
@@ -13898,11 +13902,11 @@
         <v>37</v>
       </c>
       <c r="X92" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Y92" s="2"/>
       <c r="Z92" t="s" s="2">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="AA92" t="s" s="2">
         <v>37</v>
@@ -13920,31 +13924,31 @@
         <v>37</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH92" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI92" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ92" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK92" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL92" t="s" s="2">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="AM92" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="AN92" t="s" s="2">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="AO92" t="s" s="2">
         <v>37</v>
@@ -13953,7 +13957,7 @@
         <v>37</v>
       </c>
       <c r="AQ92" t="s" s="2">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="AR92" t="s" s="2">
         <v>37</v>
@@ -13961,10 +13965,10 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -13975,28 +13979,28 @@
         <v>38</v>
       </c>
       <c r="G93" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H93" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I93" t="s" s="2">
         <v>37</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="N93" t="s" s="2">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="O93" s="2"/>
       <c r="P93" t="s" s="2">
@@ -14046,19 +14050,19 @@
         <v>37</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH93" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI93" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ93" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK93" t="s" s="2">
         <v>37</v>
@@ -14067,7 +14071,7 @@
         <v>37</v>
       </c>
       <c r="AM93" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="AN93" t="s" s="2">
         <v>37</v>
@@ -14087,10 +14091,10 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -14101,7 +14105,7 @@
         <v>38</v>
       </c>
       <c r="G94" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H94" t="s" s="2">
         <v>37</v>
@@ -14113,13 +14117,13 @@
         <v>37</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="N94" s="2"/>
       <c r="O94" s="2"/>
@@ -14170,13 +14174,13 @@
         <v>37</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH94" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI94" t="s" s="2">
         <v>37</v>
@@ -14191,7 +14195,7 @@
         <v>37</v>
       </c>
       <c r="AM94" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AN94" t="s" s="2">
         <v>37</v>
@@ -14211,14 +14215,14 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E95" s="2"/>
       <c r="F95" t="s" s="2">
@@ -14237,16 +14241,16 @@
         <v>37</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="N95" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O95" s="2"/>
       <c r="P95" t="s" s="2">
@@ -14296,7 +14300,7 @@
         <v>37</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>38</v>
@@ -14308,7 +14312,7 @@
         <v>37</v>
       </c>
       <c r="AJ95" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK95" t="s" s="2">
         <v>37</v>
@@ -14317,7 +14321,7 @@
         <v>37</v>
       </c>
       <c r="AM95" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AN95" t="s" s="2">
         <v>37</v>
@@ -14337,14 +14341,14 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="E96" s="2"/>
       <c r="F96" t="s" s="2">
@@ -14357,25 +14361,25 @@
         <v>37</v>
       </c>
       <c r="I96" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J96" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="N96" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O96" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="P96" t="s" s="2">
         <v>37</v>
@@ -14424,7 +14428,7 @@
         <v>37</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>38</v>
@@ -14436,7 +14440,7 @@
         <v>37</v>
       </c>
       <c r="AJ96" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK96" t="s" s="2">
         <v>37</v>
@@ -14445,7 +14449,7 @@
         <v>37</v>
       </c>
       <c r="AM96" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AN96" t="s" s="2">
         <v>37</v>
@@ -14465,10 +14469,10 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
@@ -14479,10 +14483,10 @@
         <v>38</v>
       </c>
       <c r="G97" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H97" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I97" t="s" s="2">
         <v>37</v>
@@ -14491,13 +14495,13 @@
         <v>37</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="N97" s="2"/>
       <c r="O97" s="2"/>
@@ -14548,7 +14552,7 @@
         <v>37</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>38</v>
@@ -14560,22 +14564,22 @@
         <v>37</v>
       </c>
       <c r="AJ97" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK97" t="s" s="2">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="AL97" t="s" s="2">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="AM97" t="s" s="2">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="AN97" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AO97" t="s" s="2">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="AP97" t="s" s="2">
         <v>37</v>
@@ -14584,15 +14588,15 @@
         <v>37</v>
       </c>
       <c r="AR97" t="s" s="2">
-        <v>583</v>
+        <v>584</v>
       </c>
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
@@ -14615,16 +14619,16 @@
         <v>37</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="N98" t="s" s="2">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="O98" s="2"/>
       <c r="P98" t="s" s="2">
@@ -14650,13 +14654,13 @@
         <v>37</v>
       </c>
       <c r="X98" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="Y98" t="s" s="2">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="Z98" t="s" s="2">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="AA98" t="s" s="2">
         <v>37</v>
@@ -14674,7 +14678,7 @@
         <v>37</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>38</v>
@@ -14686,16 +14690,16 @@
         <v>37</v>
       </c>
       <c r="AJ98" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK98" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL98" t="s" s="2">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="AM98" t="s" s="2">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="AN98" t="s" s="2">
         <v>37</v>
@@ -14707,7 +14711,7 @@
         <v>37</v>
       </c>
       <c r="AQ98" t="s" s="2">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="AR98" t="s" s="2">
         <v>37</v>
@@ -14715,10 +14719,10 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
@@ -14729,25 +14733,25 @@
         <v>38</v>
       </c>
       <c r="G99" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H99" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I99" t="s" s="2">
         <v>37</v>
       </c>
       <c r="J99" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="N99" s="2"/>
       <c r="O99" s="2"/>
@@ -14798,31 +14802,31 @@
         <v>37</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH99" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI99" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ99" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK99" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL99" t="s" s="2">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="AM99" t="s" s="2">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="AN99" t="s" s="2">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="AO99" t="s" s="2">
         <v>37</v>
@@ -14831,7 +14835,7 @@
         <v>37</v>
       </c>
       <c r="AQ99" t="s" s="2">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="AR99" t="s" s="2">
         <v>37</v>
@@ -14839,10 +14843,10 @@
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
@@ -14865,13 +14869,13 @@
         <v>37</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="N100" s="2"/>
       <c r="O100" s="2"/>
@@ -14898,13 +14902,13 @@
         <v>37</v>
       </c>
       <c r="X100" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="Y100" t="s" s="2">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="Z100" t="s" s="2">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="AA100" t="s" s="2">
         <v>37</v>
@@ -14922,31 +14926,31 @@
         <v>37</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="AG100" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH100" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI100" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ100" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK100" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL100" t="s" s="2">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="AM100" t="s" s="2">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="AN100" t="s" s="2">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="AO100" t="s" s="2">
         <v>37</v>
@@ -14955,7 +14959,7 @@
         <v>37</v>
       </c>
       <c r="AQ100" t="s" s="2">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="AR100" t="s" s="2">
         <v>37</v>
@@ -14963,10 +14967,10 @@
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
@@ -14989,19 +14993,19 @@
         <v>37</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="N101" t="s" s="2">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="O101" t="s" s="2">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="P101" t="s" s="2">
         <v>37</v>
@@ -15026,13 +15030,13 @@
         <v>37</v>
       </c>
       <c r="X101" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="Y101" t="s" s="2">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="Z101" t="s" s="2">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="AA101" t="s" s="2">
         <v>37</v>
@@ -15050,32 +15054,32 @@
         <v>37</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="AG101" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH101" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI101" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ101" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK101" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL101" t="s" s="2">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="AM101" t="s" s="2">
+        <v>607</v>
+      </c>
+      <c r="AN101" t="s" s="2">
         <v>606</v>
       </c>
-      <c r="AN101" t="s" s="2">
-        <v>605</v>
-      </c>
       <c r="AO101" t="s" s="2">
         <v>37</v>
       </c>
@@ -15083,7 +15087,7 @@
         <v>37</v>
       </c>
       <c r="AQ101" t="s" s="2">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="AR101" t="s" s="2">
         <v>37</v>
@@ -15091,10 +15095,10 @@
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
@@ -15117,13 +15121,13 @@
         <v>37</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="N102" s="2"/>
       <c r="O102" s="2"/>
@@ -15174,31 +15178,31 @@
         <v>37</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="AG102" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH102" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI102" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ102" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK102" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL102" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AM102" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AN102" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AO102" t="s" s="2">
         <v>37</v>
@@ -15207,7 +15211,7 @@
         <v>37</v>
       </c>
       <c r="AQ102" t="s" s="2">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="AR102" t="s" s="2">
         <v>37</v>
@@ -15215,10 +15219,10 @@
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
@@ -15232,7 +15236,7 @@
         <v>39</v>
       </c>
       <c r="H103" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I103" t="s" s="2">
         <v>37</v>
@@ -15241,16 +15245,16 @@
         <v>37</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="N103" t="s" s="2">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="O103" s="2"/>
       <c r="P103" t="s" s="2">
@@ -15300,7 +15304,7 @@
         <v>37</v>
       </c>
       <c r="AF103" t="s" s="2">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="AG103" t="s" s="2">
         <v>38</v>
@@ -15312,19 +15316,19 @@
         <v>37</v>
       </c>
       <c r="AJ103" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK103" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL103" t="s" s="2">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="AM103" t="s" s="2">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="AN103" t="s" s="2">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="AO103" t="s" s="2">
         <v>37</v>
@@ -15333,10 +15337,10 @@
         <v>37</v>
       </c>
       <c r="AQ103" t="s" s="2">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="AR103" t="s" s="2">
-        <v>631</v>
+        <v>632</v>
       </c>
     </row>
   </sheetData>

--- a/docs/StructureDefinition-VA.MHV.PHR.imaging.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.imaging.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-24T09:48:15-05:00</t>
+    <t>2023-08-25T12:12:31-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.imaging.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.imaging.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.1</t>
+    <t>0.2.2</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-25T12:12:31-05:00</t>
+    <t>2023-08-25T14:41:58-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.imaging.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.imaging.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.2</t>
+    <t>0.2.3</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-25T14:41:58-05:00</t>
+    <t>2023-08-31T15:33:32-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.imaging.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.imaging.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.3</t>
+    <t>0.2.4</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-31T15:33:32-05:00</t>
+    <t>2023-09-22T11:03:56-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.imaging.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.imaging.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.4</t>
+    <t>0.2.5</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-22T11:03:56-05:00</t>
+    <t>2023-10-06T11:35:14-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.imaging.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.imaging.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.5</t>
+    <t>0.2.6</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-06T11:35:14-05:00</t>
+    <t>2023-10-20T10:16:33-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.imaging.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.imaging.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AR$104</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AR$111</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4206" uniqueCount="677">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4485" uniqueCount="708">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.7</t>
+    <t>0.2.8</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-15T14:14:41-06:00</t>
+    <t>2023-11-30T14:00:30-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1430,6 +1430,105 @@
   </si>
   <si>
     <t>DocumentEntry.legalAuthenticator</t>
+  </si>
+  <si>
+    <t>DocumentReference.authenticator.id</t>
+  </si>
+  <si>
+    <t>DocumentReference.authenticator.extension</t>
+  </si>
+  <si>
+    <t>DocumentReference.authenticator.extension:when</t>
+  </si>
+  <si>
+    <t>when</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://department-of-veterans-affairs.github.io/mhv-fhir-phr-mapping/StructureDefinition/noteAuthenticatedWhen}
+</t>
+  </si>
+  <si>
+    <t>When the authentication happened</t>
+  </si>
+  <si>
+    <t>DateTime of when the authentication happened</t>
+  </si>
+  <si>
+    <t>DocumentReference.authenticator.reference</t>
+  </si>
+  <si>
+    <t>Literal reference, Relative, internal or absolute URL</t>
+  </si>
+  <si>
+    <t>A reference to a location at which the other resource is found. The reference may be a relative reference, in which case it is relative to the service base URL, or an absolute URL that resolves to the location where the resource is found. The reference may be version specific or not. If the reference is not to a FHIR RESTful server, then it should be assumed to be version specific. Internal fragment references (start with '#') refer to contained resources.</t>
+  </si>
+  <si>
+    <t>Using absolute URLs provides a stable scalable approach suitable for a cloud/web context, while using relative/logical references provides a flexible approach suitable for use when trading across closed eco-system boundaries.   Absolute URLs do not need to point to a FHIR RESTful server, though this is the preferred approach. If the URL conforms to the structure "/[type]/[id]" then it should be assumed that the reference is to a FHIR RESTful server.</t>
+  </si>
+  <si>
+    <t>Reference.reference</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ref-1
+</t>
+  </si>
+  <si>
+    <t>DocumentReference.authenticator.type</t>
+  </si>
+  <si>
+    <t>Type the reference refers to (e.g. "Patient")</t>
+  </si>
+  <si>
+    <t>The expected type of the target of the reference. If both Reference.type and Reference.reference are populated and Reference.reference is a FHIR URL, both SHALL be consistent.
+The type is the Canonical URL of Resource Definition that is the type this reference refers to. References are URLs that are relative to http://hl7.org/fhir/StructureDefinition/ e.g. "Patient" is a reference to http://hl7.org/fhir/StructureDefinition/Patient. Absolute URLs are only allowed for logical models (and can only be used in references in logical models, not resources).</t>
+  </si>
+  <si>
+    <t>This element is used to indicate the type of  the target of the reference. This may be used which ever of the other elements are populated (or not). In some cases, the type of the target may be determined by inspection of the reference (e.g. a RESTful URL) or by resolving the target of the reference; if both the type and a reference is provided, the reference SHALL resolve to a resource of the same type as that specified.</t>
+  </si>
+  <si>
+    <t>Aa resource (or, for logical models, the URI of the logical model).</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/resource-types</t>
+  </si>
+  <si>
+    <t>Reference.type</t>
+  </si>
+  <si>
+    <t>DocumentReference.authenticator.identifier</t>
+  </si>
+  <si>
+    <t>Logical reference, when literal reference is not known</t>
+  </si>
+  <si>
+    <t>An identifier for the target resource. This is used when there is no way to reference the other resource directly, either because the entity it represents is not available through a FHIR server, or because there is no way for the author of the resource to convert a known identifier to an actual location. There is no requirement that a Reference.identifier point to something that is actually exposed as a FHIR instance, but it SHALL point to a business concept that would be expected to be exposed as a FHIR instance, and that instance would need to be of a FHIR resource type allowed by the reference.</t>
+  </si>
+  <si>
+    <t>When an identifier is provided in place of a reference, any system processing the reference will only be able to resolve the identifier to a reference if it understands the business context in which the identifier is used. Sometimes this is global (e.g. a national identifier) but often it is not. For this reason, none of the useful mechanisms described for working with references (e.g. chaining, includes) are possible, nor should servers be expected to be able resolve the reference. Servers may accept an identifier based reference untouched, resolve it, and/or reject it - see CapabilityStatement.rest.resource.referencePolicy. 
+When both an identifier and a literal reference are provided, the literal reference is preferred. Applications processing the resource are allowed - but not required - to check that the identifier matches the literal reference
+Applications converting a logical reference to a literal reference may choose to leave the logical reference present, or remove it.
+Reference is intended to point to a structure that can potentially be expressed as a FHIR resource, though there is no need for it to exist as an actual FHIR resource instance - except in as much as an application wishes to actual find the target of the reference. The content referred to be the identifier must meet the logical constraints implied by any limitations on what resource types are permitted for the reference.  For example, it would not be legitimate to send the identifier for a drug prescription if the type were Reference(Observation|DiagnosticReport).  One of the use-cases for Reference.identifier is the situation where no FHIR representation exists (where the type is Reference (Any).</t>
+  </si>
+  <si>
+    <t>Reference.identifier</t>
+  </si>
+  <si>
+    <t>.identifier</t>
+  </si>
+  <si>
+    <t>DocumentReference.authenticator.display</t>
+  </si>
+  <si>
+    <t>Text alternative for the resource</t>
+  </si>
+  <si>
+    <t>Plain text narrative that identifies the resource in addition to the resource reference.</t>
+  </si>
+  <si>
+    <t>This is generally not the same as the Resource.text of the referenced resource.  The purpose is to identify what's being referenced, not to fully describe it.</t>
+  </si>
+  <si>
+    <t>Reference.display</t>
   </si>
   <si>
     <t>DocumentReference.custodian</t>
@@ -2438,7 +2537,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AR104"/>
+  <dimension ref="A1:AR111"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -11097,7 +11196,7 @@
         <v>94</v>
       </c>
       <c r="H69" t="s" s="2">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="I69" t="s" s="2">
         <v>81</v>
@@ -11106,17 +11205,15 @@
         <v>81</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>242</v>
+        <v>177</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>458</v>
+        <v>178</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>459</v>
-      </c>
-      <c r="N69" t="s" s="2">
-        <v>460</v>
-      </c>
+        <v>179</v>
+      </c>
+      <c r="N69" s="2"/>
       <c r="O69" s="2"/>
       <c r="P69" t="s" s="2">
         <v>81</v>
@@ -11165,7 +11262,7 @@
         <v>81</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>457</v>
+        <v>180</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>82</v>
@@ -11177,16 +11274,16 @@
         <v>81</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>106</v>
+        <v>81</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>439</v>
+        <v>81</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>461</v>
+        <v>81</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>462</v>
+        <v>181</v>
       </c>
       <c r="AN69" t="s" s="2">
         <v>81</v>
@@ -11201,26 +11298,26 @@
         <v>81</v>
       </c>
       <c r="AR69" t="s" s="2">
-        <v>463</v>
+        <v>81</v>
       </c>
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
-        <v>81</v>
+        <v>139</v>
       </c>
       <c r="E70" s="2"/>
       <c r="F70" t="s" s="2">
         <v>82</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H70" t="s" s="2">
         <v>81</v>
@@ -11229,19 +11326,19 @@
         <v>81</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>465</v>
+        <v>140</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>466</v>
+        <v>141</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>467</v>
+        <v>184</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>468</v>
+        <v>143</v>
       </c>
       <c r="O70" s="2"/>
       <c r="P70" t="s" s="2">
@@ -11279,19 +11376,19 @@
         <v>81</v>
       </c>
       <c r="AB70" t="s" s="2">
-        <v>81</v>
+        <v>185</v>
       </c>
       <c r="AC70" t="s" s="2">
-        <v>81</v>
+        <v>186</v>
       </c>
       <c r="AD70" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>81</v>
+        <v>168</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>464</v>
+        <v>187</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>82</v>
@@ -11303,16 +11400,16 @@
         <v>81</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>106</v>
+        <v>145</v>
       </c>
       <c r="AK70" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>469</v>
+        <v>81</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>470</v>
+        <v>181</v>
       </c>
       <c r="AN70" t="s" s="2">
         <v>81</v>
@@ -11324,7 +11421,7 @@
         <v>81</v>
       </c>
       <c r="AQ70" t="s" s="2">
-        <v>471</v>
+        <v>81</v>
       </c>
       <c r="AR70" t="s" s="2">
         <v>81</v>
@@ -11332,12 +11429,14 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>472</v>
+        <v>459</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>472</v>
-      </c>
-      <c r="C71" s="2"/>
+        <v>458</v>
+      </c>
+      <c r="C71" t="s" s="2">
+        <v>460</v>
+      </c>
       <c r="D71" t="s" s="2">
         <v>81</v>
       </c>
@@ -11349,7 +11448,7 @@
         <v>94</v>
       </c>
       <c r="H71" t="s" s="2">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="I71" t="s" s="2">
         <v>81</v>
@@ -11358,13 +11457,13 @@
         <v>81</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>177</v>
+        <v>461</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>178</v>
+        <v>462</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>179</v>
+        <v>463</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" s="2"/>
@@ -11415,19 +11514,19 @@
         <v>81</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AH71" t="s" s="2">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="AI71" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>81</v>
+        <v>145</v>
       </c>
       <c r="AK71" t="s" s="2">
         <v>81</v>
@@ -11436,7 +11535,7 @@
         <v>81</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>181</v>
+        <v>81</v>
       </c>
       <c r="AN71" t="s" s="2">
         <v>81</v>
@@ -11456,21 +11555,21 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>473</v>
+        <v>464</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>473</v>
+        <v>464</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
-        <v>139</v>
+        <v>81</v>
       </c>
       <c r="E72" s="2"/>
       <c r="F72" t="s" s="2">
         <v>82</v>
       </c>
       <c r="G72" t="s" s="2">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="H72" t="s" s="2">
         <v>81</v>
@@ -11479,19 +11578,19 @@
         <v>81</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>140</v>
+        <v>177</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>141</v>
+        <v>465</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>184</v>
+        <v>466</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>143</v>
+        <v>467</v>
       </c>
       <c r="O72" s="2"/>
       <c r="P72" t="s" s="2">
@@ -11541,19 +11640,19 @@
         <v>81</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>187</v>
+        <v>468</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AH72" t="s" s="2">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="AI72" t="s" s="2">
-        <v>81</v>
+        <v>469</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>145</v>
+        <v>106</v>
       </c>
       <c r="AK72" t="s" s="2">
         <v>81</v>
@@ -11562,7 +11661,7 @@
         <v>81</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>181</v>
+        <v>137</v>
       </c>
       <c r="AN72" t="s" s="2">
         <v>81</v>
@@ -11582,46 +11681,44 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
-        <v>475</v>
+        <v>81</v>
       </c>
       <c r="E73" s="2"/>
       <c r="F73" t="s" s="2">
         <v>82</v>
       </c>
       <c r="G73" t="s" s="2">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="H73" t="s" s="2">
         <v>81</v>
       </c>
       <c r="I73" t="s" s="2">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="J73" t="s" s="2">
         <v>95</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>140</v>
+        <v>108</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="O73" t="s" s="2">
-        <v>149</v>
-      </c>
+        <v>473</v>
+      </c>
+      <c r="O73" s="2"/>
       <c r="P73" t="s" s="2">
         <v>81</v>
       </c>
@@ -11645,13 +11742,13 @@
         <v>81</v>
       </c>
       <c r="X73" t="s" s="2">
-        <v>81</v>
+        <v>207</v>
       </c>
       <c r="Y73" t="s" s="2">
-        <v>81</v>
+        <v>474</v>
       </c>
       <c r="Z73" t="s" s="2">
-        <v>81</v>
+        <v>475</v>
       </c>
       <c r="AA73" t="s" s="2">
         <v>81</v>
@@ -11669,19 +11766,19 @@
         <v>81</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AH73" t="s" s="2">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="AI73" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>145</v>
+        <v>106</v>
       </c>
       <c r="AK73" t="s" s="2">
         <v>81</v>
@@ -11710,10 +11807,10 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -11721,7 +11818,7 @@
       </c>
       <c r="E74" s="2"/>
       <c r="F74" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="G74" t="s" s="2">
         <v>94</v>
@@ -11736,16 +11833,16 @@
         <v>95</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>114</v>
+        <v>152</v>
       </c>
       <c r="L74" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="M74" t="s" s="2">
+        <v>479</v>
+      </c>
+      <c r="N74" t="s" s="2">
         <v>480</v>
-      </c>
-      <c r="M74" t="s" s="2">
-        <v>481</v>
-      </c>
-      <c r="N74" t="s" s="2">
-        <v>482</v>
       </c>
       <c r="O74" s="2"/>
       <c r="P74" t="s" s="2">
@@ -11771,13 +11868,13 @@
         <v>81</v>
       </c>
       <c r="X74" t="s" s="2">
-        <v>195</v>
+        <v>81</v>
       </c>
       <c r="Y74" t="s" s="2">
-        <v>483</v>
+        <v>81</v>
       </c>
       <c r="Z74" t="s" s="2">
-        <v>484</v>
+        <v>81</v>
       </c>
       <c r="AA74" t="s" s="2">
         <v>81</v>
@@ -11795,10 +11892,10 @@
         <v>81</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="AG74" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="AH74" t="s" s="2">
         <v>94</v>
@@ -11813,10 +11910,10 @@
         <v>81</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>485</v>
+        <v>81</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="AN74" t="s" s="2">
         <v>81</v>
@@ -11828,7 +11925,7 @@
         <v>81</v>
       </c>
       <c r="AQ74" t="s" s="2">
-        <v>487</v>
+        <v>81</v>
       </c>
       <c r="AR74" t="s" s="2">
         <v>81</v>
@@ -11836,10 +11933,10 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -11847,7 +11944,7 @@
       </c>
       <c r="E75" s="2"/>
       <c r="F75" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="G75" t="s" s="2">
         <v>94</v>
@@ -11862,15 +11959,17 @@
         <v>95</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>489</v>
+        <v>177</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>491</v>
-      </c>
-      <c r="N75" s="2"/>
+        <v>485</v>
+      </c>
+      <c r="N75" t="s" s="2">
+        <v>486</v>
+      </c>
       <c r="O75" s="2"/>
       <c r="P75" t="s" s="2">
         <v>81</v>
@@ -11919,10 +12018,10 @@
         <v>81</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="AG75" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="AH75" t="s" s="2">
         <v>94</v>
@@ -11937,10 +12036,10 @@
         <v>81</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>492</v>
+        <v>81</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>493</v>
+        <v>137</v>
       </c>
       <c r="AN75" t="s" s="2">
         <v>81</v>
@@ -11952,7 +12051,7 @@
         <v>81</v>
       </c>
       <c r="AQ75" t="s" s="2">
-        <v>494</v>
+        <v>81</v>
       </c>
       <c r="AR75" t="s" s="2">
         <v>81</v>
@@ -11960,10 +12059,10 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>495</v>
+        <v>488</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>495</v>
+        <v>488</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -11983,23 +12082,21 @@
         <v>81</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>177</v>
+        <v>242</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>496</v>
+        <v>489</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>497</v>
+        <v>490</v>
       </c>
       <c r="N76" t="s" s="2">
-        <v>498</v>
-      </c>
-      <c r="O76" t="s" s="2">
-        <v>499</v>
-      </c>
+        <v>491</v>
+      </c>
+      <c r="O76" s="2"/>
       <c r="P76" t="s" s="2">
         <v>81</v>
       </c>
@@ -12047,7 +12144,7 @@
         <v>81</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>495</v>
+        <v>488</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>82</v>
@@ -12062,13 +12159,13 @@
         <v>106</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>81</v>
+        <v>439</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>81</v>
+        <v>492</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>500</v>
+        <v>493</v>
       </c>
       <c r="AN76" t="s" s="2">
         <v>81</v>
@@ -12077,21 +12174,21 @@
         <v>81</v>
       </c>
       <c r="AP76" t="s" s="2">
-        <v>501</v>
+        <v>81</v>
       </c>
       <c r="AQ76" t="s" s="2">
-        <v>502</v>
+        <v>81</v>
       </c>
       <c r="AR76" t="s" s="2">
-        <v>503</v>
+        <v>494</v>
       </c>
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>504</v>
+        <v>495</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>504</v>
+        <v>495</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -12114,20 +12211,18 @@
         <v>95</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>202</v>
+        <v>496</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>505</v>
+        <v>497</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>506</v>
+        <v>498</v>
       </c>
       <c r="N77" t="s" s="2">
-        <v>507</v>
-      </c>
-      <c r="O77" t="s" s="2">
-        <v>508</v>
-      </c>
+        <v>499</v>
+      </c>
+      <c r="O77" s="2"/>
       <c r="P77" t="s" s="2">
         <v>81</v>
       </c>
@@ -12151,13 +12246,13 @@
         <v>81</v>
       </c>
       <c r="X77" t="s" s="2">
-        <v>207</v>
+        <v>81</v>
       </c>
       <c r="Y77" t="s" s="2">
-        <v>509</v>
+        <v>81</v>
       </c>
       <c r="Z77" t="s" s="2">
-        <v>510</v>
+        <v>81</v>
       </c>
       <c r="AA77" t="s" s="2">
         <v>81</v>
@@ -12175,7 +12270,7 @@
         <v>81</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>504</v>
+        <v>495</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>82</v>
@@ -12193,22 +12288,22 @@
         <v>81</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>511</v>
+        <v>500</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>512</v>
+        <v>501</v>
       </c>
       <c r="AN77" t="s" s="2">
-        <v>513</v>
+        <v>81</v>
       </c>
       <c r="AO77" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AP77" t="s" s="2">
-        <v>514</v>
+        <v>81</v>
       </c>
       <c r="AQ77" t="s" s="2">
-        <v>515</v>
+        <v>502</v>
       </c>
       <c r="AR77" t="s" s="2">
         <v>81</v>
@@ -12216,10 +12311,10 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>516</v>
+        <v>503</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>516</v>
+        <v>503</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -12227,28 +12322,28 @@
       </c>
       <c r="E78" s="2"/>
       <c r="F78" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="G78" t="s" s="2">
         <v>94</v>
       </c>
       <c r="H78" t="s" s="2">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="I78" t="s" s="2">
         <v>81</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>465</v>
+        <v>177</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>517</v>
+        <v>178</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>518</v>
+        <v>179</v>
       </c>
       <c r="N78" s="2"/>
       <c r="O78" s="2"/>
@@ -12299,28 +12394,28 @@
         <v>81</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>516</v>
+        <v>180</v>
       </c>
       <c r="AG78" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="AH78" t="s" s="2">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="AI78" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>106</v>
+        <v>81</v>
       </c>
       <c r="AK78" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>519</v>
+        <v>81</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>520</v>
+        <v>181</v>
       </c>
       <c r="AN78" t="s" s="2">
         <v>81</v>
@@ -12340,21 +12435,21 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>521</v>
+        <v>504</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>521</v>
+        <v>504</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
-        <v>81</v>
+        <v>139</v>
       </c>
       <c r="E79" s="2"/>
       <c r="F79" t="s" s="2">
         <v>82</v>
       </c>
       <c r="G79" t="s" s="2">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="H79" t="s" s="2">
         <v>81</v>
@@ -12366,15 +12461,17 @@
         <v>81</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>177</v>
+        <v>140</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>178</v>
+        <v>141</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="N79" s="2"/>
+        <v>184</v>
+      </c>
+      <c r="N79" t="s" s="2">
+        <v>143</v>
+      </c>
       <c r="O79" s="2"/>
       <c r="P79" t="s" s="2">
         <v>81</v>
@@ -12423,19 +12520,19 @@
         <v>81</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AH79" t="s" s="2">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="AI79" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>81</v>
+        <v>145</v>
       </c>
       <c r="AK79" t="s" s="2">
         <v>81</v>
@@ -12464,14 +12561,14 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>522</v>
+        <v>505</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>522</v>
+        <v>505</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
-        <v>139</v>
+        <v>506</v>
       </c>
       <c r="E80" s="2"/>
       <c r="F80" t="s" s="2">
@@ -12484,24 +12581,26 @@
         <v>81</v>
       </c>
       <c r="I80" t="s" s="2">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="K80" t="s" s="2">
         <v>140</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>141</v>
+        <v>507</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>184</v>
+        <v>508</v>
       </c>
       <c r="N80" t="s" s="2">
         <v>143</v>
       </c>
-      <c r="O80" s="2"/>
+      <c r="O80" t="s" s="2">
+        <v>149</v>
+      </c>
       <c r="P80" t="s" s="2">
         <v>81</v>
       </c>
@@ -12549,7 +12648,7 @@
         <v>81</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>187</v>
+        <v>509</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>82</v>
@@ -12570,7 +12669,7 @@
         <v>81</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>181</v>
+        <v>137</v>
       </c>
       <c r="AN80" t="s" s="2">
         <v>81</v>
@@ -12590,46 +12689,44 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>523</v>
+        <v>510</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>523</v>
+        <v>510</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
-        <v>475</v>
+        <v>81</v>
       </c>
       <c r="E81" s="2"/>
       <c r="F81" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="G81" t="s" s="2">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="H81" t="s" s="2">
         <v>81</v>
       </c>
       <c r="I81" t="s" s="2">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="J81" t="s" s="2">
         <v>95</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>140</v>
+        <v>114</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>476</v>
+        <v>511</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>477</v>
+        <v>512</v>
       </c>
       <c r="N81" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="O81" t="s" s="2">
-        <v>149</v>
-      </c>
+        <v>513</v>
+      </c>
+      <c r="O81" s="2"/>
       <c r="P81" t="s" s="2">
         <v>81</v>
       </c>
@@ -12653,13 +12750,13 @@
         <v>81</v>
       </c>
       <c r="X81" t="s" s="2">
-        <v>81</v>
+        <v>195</v>
       </c>
       <c r="Y81" t="s" s="2">
-        <v>81</v>
+        <v>514</v>
       </c>
       <c r="Z81" t="s" s="2">
-        <v>81</v>
+        <v>515</v>
       </c>
       <c r="AA81" t="s" s="2">
         <v>81</v>
@@ -12677,28 +12774,28 @@
         <v>81</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>478</v>
+        <v>510</v>
       </c>
       <c r="AG81" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="AH81" t="s" s="2">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="AI81" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>145</v>
+        <v>106</v>
       </c>
       <c r="AK81" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>81</v>
+        <v>516</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>137</v>
+        <v>517</v>
       </c>
       <c r="AN81" t="s" s="2">
         <v>81</v>
@@ -12710,7 +12807,7 @@
         <v>81</v>
       </c>
       <c r="AQ81" t="s" s="2">
-        <v>81</v>
+        <v>518</v>
       </c>
       <c r="AR81" t="s" s="2">
         <v>81</v>
@@ -12718,10 +12815,10 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -12735,7 +12832,7 @@
         <v>94</v>
       </c>
       <c r="H82" t="s" s="2">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="I82" t="s" s="2">
         <v>81</v>
@@ -12744,13 +12841,13 @@
         <v>95</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>526</v>
+        <v>521</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="N82" s="2"/>
       <c r="O82" s="2"/>
@@ -12801,40 +12898,40 @@
         <v>81</v>
       </c>
       <c r="AF82" t="s" s="2">
+        <v>519</v>
+      </c>
+      <c r="AG82" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AH82" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AI82" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ82" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="AK82" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL82" t="s" s="2">
+        <v>523</v>
+      </c>
+      <c r="AM82" t="s" s="2">
         <v>524</v>
       </c>
-      <c r="AG82" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AH82" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AI82" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AJ82" t="s" s="2">
-        <v>528</v>
-      </c>
-      <c r="AK82" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL82" t="s" s="2">
-        <v>529</v>
-      </c>
-      <c r="AM82" t="s" s="2">
-        <v>520</v>
-      </c>
       <c r="AN82" t="s" s="2">
-        <v>530</v>
+        <v>81</v>
       </c>
       <c r="AO82" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AP82" t="s" s="2">
-        <v>531</v>
+        <v>81</v>
       </c>
       <c r="AQ82" t="s" s="2">
-        <v>532</v>
+        <v>525</v>
       </c>
       <c r="AR82" t="s" s="2">
         <v>81</v>
@@ -12842,10 +12939,10 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>533</v>
+        <v>526</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>533</v>
+        <v>526</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -12859,25 +12956,29 @@
         <v>94</v>
       </c>
       <c r="H83" t="s" s="2">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="I83" t="s" s="2">
         <v>81</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="K83" t="s" s="2">
         <v>177</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>178</v>
+        <v>527</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="N83" s="2"/>
-      <c r="O83" s="2"/>
+        <v>528</v>
+      </c>
+      <c r="N83" t="s" s="2">
+        <v>529</v>
+      </c>
+      <c r="O83" t="s" s="2">
+        <v>530</v>
+      </c>
       <c r="P83" t="s" s="2">
         <v>81</v>
       </c>
@@ -12925,7 +13026,7 @@
         <v>81</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>180</v>
+        <v>526</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>82</v>
@@ -12937,7 +13038,7 @@
         <v>81</v>
       </c>
       <c r="AJ83" t="s" s="2">
-        <v>81</v>
+        <v>106</v>
       </c>
       <c r="AK83" t="s" s="2">
         <v>81</v>
@@ -12946,7 +13047,7 @@
         <v>81</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>181</v>
+        <v>531</v>
       </c>
       <c r="AN83" t="s" s="2">
         <v>81</v>
@@ -12955,32 +13056,32 @@
         <v>81</v>
       </c>
       <c r="AP83" t="s" s="2">
-        <v>81</v>
+        <v>532</v>
       </c>
       <c r="AQ83" t="s" s="2">
-        <v>81</v>
+        <v>533</v>
       </c>
       <c r="AR83" t="s" s="2">
-        <v>81</v>
+        <v>534</v>
       </c>
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
-        <v>139</v>
+        <v>81</v>
       </c>
       <c r="E84" s="2"/>
       <c r="F84" t="s" s="2">
         <v>82</v>
       </c>
       <c r="G84" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H84" t="s" s="2">
         <v>81</v>
@@ -12989,21 +13090,23 @@
         <v>81</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>140</v>
+        <v>202</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>141</v>
+        <v>536</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>184</v>
+        <v>537</v>
       </c>
       <c r="N84" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="O84" s="2"/>
+        <v>538</v>
+      </c>
+      <c r="O84" t="s" s="2">
+        <v>539</v>
+      </c>
       <c r="P84" t="s" s="2">
         <v>81</v>
       </c>
@@ -13027,31 +13130,31 @@
         <v>81</v>
       </c>
       <c r="X84" t="s" s="2">
-        <v>81</v>
+        <v>207</v>
       </c>
       <c r="Y84" t="s" s="2">
-        <v>81</v>
+        <v>540</v>
       </c>
       <c r="Z84" t="s" s="2">
-        <v>81</v>
+        <v>541</v>
       </c>
       <c r="AA84" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AB84" t="s" s="2">
-        <v>185</v>
+        <v>81</v>
       </c>
       <c r="AC84" t="s" s="2">
-        <v>186</v>
+        <v>81</v>
       </c>
       <c r="AD84" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>168</v>
+        <v>81</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>187</v>
+        <v>535</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>82</v>
@@ -13063,28 +13166,28 @@
         <v>81</v>
       </c>
       <c r="AJ84" t="s" s="2">
-        <v>145</v>
+        <v>106</v>
       </c>
       <c r="AK84" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>81</v>
+        <v>542</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>181</v>
+        <v>543</v>
       </c>
       <c r="AN84" t="s" s="2">
-        <v>81</v>
+        <v>544</v>
       </c>
       <c r="AO84" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AP84" t="s" s="2">
-        <v>81</v>
+        <v>545</v>
       </c>
       <c r="AQ84" t="s" s="2">
-        <v>81</v>
+        <v>546</v>
       </c>
       <c r="AR84" t="s" s="2">
         <v>81</v>
@@ -13092,10 +13195,10 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>535</v>
+        <v>547</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>535</v>
+        <v>547</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -13103,7 +13206,7 @@
       </c>
       <c r="E85" s="2"/>
       <c r="F85" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="G85" t="s" s="2">
         <v>94</v>
@@ -13118,18 +13221,16 @@
         <v>95</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>114</v>
+        <v>496</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>536</v>
+        <v>548</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>537</v>
+        <v>549</v>
       </c>
       <c r="N85" s="2"/>
-      <c r="O85" t="s" s="2">
-        <v>538</v>
-      </c>
+      <c r="O85" s="2"/>
       <c r="P85" t="s" s="2">
         <v>81</v>
       </c>
@@ -13141,7 +13242,7 @@
         <v>81</v>
       </c>
       <c r="T85" t="s" s="2">
-        <v>539</v>
+        <v>81</v>
       </c>
       <c r="U85" t="s" s="2">
         <v>81</v>
@@ -13153,13 +13254,13 @@
         <v>81</v>
       </c>
       <c r="X85" t="s" s="2">
-        <v>195</v>
+        <v>81</v>
       </c>
       <c r="Y85" t="s" s="2">
-        <v>540</v>
+        <v>81</v>
       </c>
       <c r="Z85" t="s" s="2">
-        <v>541</v>
+        <v>81</v>
       </c>
       <c r="AA85" t="s" s="2">
         <v>81</v>
@@ -13177,13 +13278,13 @@
         <v>81</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>542</v>
+        <v>547</v>
       </c>
       <c r="AG85" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="AH85" t="s" s="2">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="AI85" t="s" s="2">
         <v>81</v>
@@ -13195,10 +13296,10 @@
         <v>81</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>81</v>
+        <v>550</v>
       </c>
       <c r="AM85" t="s" s="2">
-        <v>543</v>
+        <v>551</v>
       </c>
       <c r="AN85" t="s" s="2">
         <v>81</v>
@@ -13207,21 +13308,21 @@
         <v>81</v>
       </c>
       <c r="AP85" t="s" s="2">
-        <v>544</v>
+        <v>81</v>
       </c>
       <c r="AQ85" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AR85" t="s" s="2">
-        <v>545</v>
+        <v>81</v>
       </c>
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>546</v>
+        <v>552</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>546</v>
+        <v>552</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -13232,7 +13333,7 @@
         <v>82</v>
       </c>
       <c r="G86" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="H86" t="s" s="2">
         <v>81</v>
@@ -13241,21 +13342,19 @@
         <v>81</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>114</v>
+        <v>177</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>547</v>
+        <v>178</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>548</v>
+        <v>179</v>
       </c>
       <c r="N86" s="2"/>
-      <c r="O86" t="s" s="2">
-        <v>549</v>
-      </c>
+      <c r="O86" s="2"/>
       <c r="P86" t="s" s="2">
         <v>81</v>
       </c>
@@ -13267,7 +13366,7 @@
         <v>81</v>
       </c>
       <c r="T86" t="s" s="2">
-        <v>550</v>
+        <v>81</v>
       </c>
       <c r="U86" t="s" s="2">
         <v>81</v>
@@ -13279,13 +13378,13 @@
         <v>81</v>
       </c>
       <c r="X86" t="s" s="2">
-        <v>118</v>
+        <v>81</v>
       </c>
       <c r="Y86" t="s" s="2">
-        <v>119</v>
+        <v>81</v>
       </c>
       <c r="Z86" t="s" s="2">
-        <v>120</v>
+        <v>81</v>
       </c>
       <c r="AA86" t="s" s="2">
         <v>81</v>
@@ -13303,7 +13402,7 @@
         <v>81</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>551</v>
+        <v>180</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>82</v>
@@ -13315,7 +13414,7 @@
         <v>81</v>
       </c>
       <c r="AJ86" t="s" s="2">
-        <v>106</v>
+        <v>81</v>
       </c>
       <c r="AK86" t="s" s="2">
         <v>81</v>
@@ -13324,7 +13423,7 @@
         <v>81</v>
       </c>
       <c r="AM86" t="s" s="2">
-        <v>552</v>
+        <v>181</v>
       </c>
       <c r="AN86" t="s" s="2">
         <v>81</v>
@@ -13351,17 +13450,17 @@
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
-        <v>81</v>
+        <v>139</v>
       </c>
       <c r="E87" s="2"/>
       <c r="F87" t="s" s="2">
         <v>82</v>
       </c>
       <c r="G87" t="s" s="2">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="H87" t="s" s="2">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="I87" t="s" s="2">
         <v>81</v>
@@ -13370,20 +13469,18 @@
         <v>81</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>554</v>
+        <v>140</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>555</v>
+        <v>141</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>556</v>
+        <v>184</v>
       </c>
       <c r="N87" t="s" s="2">
-        <v>557</v>
-      </c>
-      <c r="O87" t="s" s="2">
-        <v>558</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="O87" s="2"/>
       <c r="P87" t="s" s="2">
         <v>81</v>
       </c>
@@ -13431,19 +13528,19 @@
         <v>81</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>559</v>
+        <v>187</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AH87" t="s" s="2">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="AI87" t="s" s="2">
-        <v>560</v>
+        <v>81</v>
       </c>
       <c r="AJ87" t="s" s="2">
-        <v>106</v>
+        <v>145</v>
       </c>
       <c r="AK87" t="s" s="2">
         <v>81</v>
@@ -13452,7 +13549,7 @@
         <v>81</v>
       </c>
       <c r="AM87" t="s" s="2">
-        <v>561</v>
+        <v>181</v>
       </c>
       <c r="AN87" t="s" s="2">
         <v>81</v>
@@ -13461,56 +13558,56 @@
         <v>81</v>
       </c>
       <c r="AP87" t="s" s="2">
-        <v>562</v>
+        <v>81</v>
       </c>
       <c r="AQ87" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AR87" t="s" s="2">
-        <v>563</v>
+        <v>81</v>
       </c>
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>564</v>
+        <v>554</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>564</v>
+        <v>554</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
-        <v>81</v>
+        <v>506</v>
       </c>
       <c r="E88" s="2"/>
       <c r="F88" t="s" s="2">
         <v>82</v>
       </c>
       <c r="G88" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H88" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I88" t="s" s="2">
         <v>95</v>
-      </c>
-      <c r="I88" t="s" s="2">
-        <v>81</v>
       </c>
       <c r="J88" t="s" s="2">
         <v>95</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>565</v>
+        <v>140</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>566</v>
+        <v>507</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>567</v>
+        <v>508</v>
       </c>
       <c r="N88" t="s" s="2">
-        <v>568</v>
+        <v>143</v>
       </c>
       <c r="O88" t="s" s="2">
-        <v>569</v>
+        <v>149</v>
       </c>
       <c r="P88" t="s" s="2">
         <v>81</v>
@@ -13523,7 +13620,7 @@
         <v>81</v>
       </c>
       <c r="T88" t="s" s="2">
-        <v>570</v>
+        <v>81</v>
       </c>
       <c r="U88" t="s" s="2">
         <v>81</v>
@@ -13559,19 +13656,19 @@
         <v>81</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>571</v>
+        <v>509</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AH88" t="s" s="2">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="AI88" t="s" s="2">
-        <v>560</v>
+        <v>81</v>
       </c>
       <c r="AJ88" t="s" s="2">
-        <v>106</v>
+        <v>145</v>
       </c>
       <c r="AK88" t="s" s="2">
         <v>81</v>
@@ -13580,7 +13677,7 @@
         <v>81</v>
       </c>
       <c r="AM88" t="s" s="2">
-        <v>572</v>
+        <v>137</v>
       </c>
       <c r="AN88" t="s" s="2">
         <v>81</v>
@@ -13589,7 +13686,7 @@
         <v>81</v>
       </c>
       <c r="AP88" t="s" s="2">
-        <v>573</v>
+        <v>81</v>
       </c>
       <c r="AQ88" t="s" s="2">
         <v>81</v>
@@ -13600,10 +13697,10 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>574</v>
+        <v>555</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>574</v>
+        <v>555</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -13611,13 +13708,13 @@
       </c>
       <c r="E89" s="2"/>
       <c r="F89" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="G89" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="H89" t="s" s="2">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="I89" t="s" s="2">
         <v>81</v>
@@ -13626,20 +13723,16 @@
         <v>95</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>575</v>
+        <v>556</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>576</v>
+        <v>557</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>577</v>
-      </c>
-      <c r="N89" t="s" s="2">
-        <v>578</v>
-      </c>
-      <c r="O89" t="s" s="2">
-        <v>579</v>
-      </c>
+        <v>558</v>
+      </c>
+      <c r="N89" s="2"/>
+      <c r="O89" s="2"/>
       <c r="P89" t="s" s="2">
         <v>81</v>
       </c>
@@ -13687,10 +13780,10 @@
         <v>81</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>580</v>
+        <v>555</v>
       </c>
       <c r="AG89" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="AH89" t="s" s="2">
         <v>94</v>
@@ -13699,28 +13792,28 @@
         <v>81</v>
       </c>
       <c r="AJ89" t="s" s="2">
-        <v>106</v>
+        <v>559</v>
       </c>
       <c r="AK89" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL89" t="s" s="2">
-        <v>81</v>
+        <v>560</v>
       </c>
       <c r="AM89" t="s" s="2">
-        <v>581</v>
+        <v>551</v>
       </c>
       <c r="AN89" t="s" s="2">
-        <v>81</v>
+        <v>561</v>
       </c>
       <c r="AO89" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AP89" t="s" s="2">
-        <v>81</v>
+        <v>562</v>
       </c>
       <c r="AQ89" t="s" s="2">
-        <v>81</v>
+        <v>563</v>
       </c>
       <c r="AR89" t="s" s="2">
         <v>81</v>
@@ -13728,10 +13821,10 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>582</v>
+        <v>564</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>582</v>
+        <v>564</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -13742,7 +13835,7 @@
         <v>82</v>
       </c>
       <c r="G90" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="H90" t="s" s="2">
         <v>81</v>
@@ -13751,23 +13844,19 @@
         <v>81</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>554</v>
+        <v>177</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>583</v>
+        <v>178</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>584</v>
-      </c>
-      <c r="N90" t="s" s="2">
-        <v>585</v>
-      </c>
-      <c r="O90" t="s" s="2">
-        <v>586</v>
-      </c>
+        <v>179</v>
+      </c>
+      <c r="N90" s="2"/>
+      <c r="O90" s="2"/>
       <c r="P90" t="s" s="2">
         <v>81</v>
       </c>
@@ -13815,7 +13904,7 @@
         <v>81</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>587</v>
+        <v>180</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>82</v>
@@ -13827,7 +13916,7 @@
         <v>81</v>
       </c>
       <c r="AJ90" t="s" s="2">
-        <v>106</v>
+        <v>81</v>
       </c>
       <c r="AK90" t="s" s="2">
         <v>81</v>
@@ -13836,7 +13925,7 @@
         <v>81</v>
       </c>
       <c r="AM90" t="s" s="2">
-        <v>588</v>
+        <v>181</v>
       </c>
       <c r="AN90" t="s" s="2">
         <v>81</v>
@@ -13856,44 +13945,44 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>589</v>
+        <v>565</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>589</v>
+        <v>565</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
-        <v>81</v>
+        <v>139</v>
       </c>
       <c r="E91" s="2"/>
       <c r="F91" t="s" s="2">
         <v>82</v>
       </c>
       <c r="G91" t="s" s="2">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="H91" t="s" s="2">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="I91" t="s" s="2">
         <v>81</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>177</v>
+        <v>140</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>590</v>
+        <v>141</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>591</v>
-      </c>
-      <c r="N91" s="2"/>
-      <c r="O91" t="s" s="2">
-        <v>592</v>
-      </c>
+        <v>184</v>
+      </c>
+      <c r="N91" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="O91" s="2"/>
       <c r="P91" t="s" s="2">
         <v>81</v>
       </c>
@@ -13905,7 +13994,7 @@
         <v>81</v>
       </c>
       <c r="T91" t="s" s="2">
-        <v>593</v>
+        <v>81</v>
       </c>
       <c r="U91" t="s" s="2">
         <v>81</v>
@@ -13929,31 +14018,31 @@
         <v>81</v>
       </c>
       <c r="AB91" t="s" s="2">
-        <v>81</v>
+        <v>185</v>
       </c>
       <c r="AC91" t="s" s="2">
-        <v>81</v>
+        <v>186</v>
       </c>
       <c r="AD91" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>81</v>
+        <v>168</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>594</v>
+        <v>187</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AH91" t="s" s="2">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="AI91" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ91" t="s" s="2">
-        <v>106</v>
+        <v>145</v>
       </c>
       <c r="AK91" t="s" s="2">
         <v>81</v>
@@ -13962,7 +14051,7 @@
         <v>81</v>
       </c>
       <c r="AM91" t="s" s="2">
-        <v>595</v>
+        <v>181</v>
       </c>
       <c r="AN91" t="s" s="2">
         <v>81</v>
@@ -13977,15 +14066,15 @@
         <v>81</v>
       </c>
       <c r="AR91" t="s" s="2">
-        <v>596</v>
+        <v>81</v>
       </c>
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>597</v>
+        <v>566</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>597</v>
+        <v>566</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -14008,17 +14097,17 @@
         <v>95</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>598</v>
+        <v>114</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>599</v>
+        <v>567</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>600</v>
+        <v>568</v>
       </c>
       <c r="N92" s="2"/>
       <c r="O92" t="s" s="2">
-        <v>601</v>
+        <v>569</v>
       </c>
       <c r="P92" t="s" s="2">
         <v>81</v>
@@ -14031,7 +14120,7 @@
         <v>81</v>
       </c>
       <c r="T92" t="s" s="2">
-        <v>81</v>
+        <v>570</v>
       </c>
       <c r="U92" t="s" s="2">
         <v>81</v>
@@ -14043,13 +14132,13 @@
         <v>81</v>
       </c>
       <c r="X92" t="s" s="2">
-        <v>81</v>
+        <v>195</v>
       </c>
       <c r="Y92" t="s" s="2">
-        <v>81</v>
+        <v>571</v>
       </c>
       <c r="Z92" t="s" s="2">
-        <v>81</v>
+        <v>572</v>
       </c>
       <c r="AA92" t="s" s="2">
         <v>81</v>
@@ -14067,7 +14156,7 @@
         <v>81</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>602</v>
+        <v>573</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>82</v>
@@ -14088,7 +14177,7 @@
         <v>81</v>
       </c>
       <c r="AM92" t="s" s="2">
-        <v>581</v>
+        <v>574</v>
       </c>
       <c r="AN92" t="s" s="2">
         <v>81</v>
@@ -14097,21 +14186,21 @@
         <v>81</v>
       </c>
       <c r="AP92" t="s" s="2">
-        <v>81</v>
+        <v>575</v>
       </c>
       <c r="AQ92" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AR92" t="s" s="2">
-        <v>603</v>
+        <v>576</v>
       </c>
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>604</v>
+        <v>577</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>604</v>
+        <v>577</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -14125,7 +14214,7 @@
         <v>82</v>
       </c>
       <c r="H93" t="s" s="2">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="I93" t="s" s="2">
         <v>81</v>
@@ -14134,18 +14223,18 @@
         <v>95</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>314</v>
+        <v>114</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>605</v>
+        <v>578</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>606</v>
-      </c>
-      <c r="N93" t="s" s="2">
-        <v>607</v>
-      </c>
-      <c r="O93" s="2"/>
+        <v>579</v>
+      </c>
+      <c r="N93" s="2"/>
+      <c r="O93" t="s" s="2">
+        <v>580</v>
+      </c>
       <c r="P93" t="s" s="2">
         <v>81</v>
       </c>
@@ -14157,7 +14246,7 @@
         <v>81</v>
       </c>
       <c r="T93" t="s" s="2">
-        <v>81</v>
+        <v>581</v>
       </c>
       <c r="U93" t="s" s="2">
         <v>81</v>
@@ -14169,11 +14258,13 @@
         <v>81</v>
       </c>
       <c r="X93" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="Y93" s="2"/>
+        <v>118</v>
+      </c>
+      <c r="Y93" t="s" s="2">
+        <v>119</v>
+      </c>
       <c r="Z93" t="s" s="2">
-        <v>608</v>
+        <v>120</v>
       </c>
       <c r="AA93" t="s" s="2">
         <v>81</v>
@@ -14191,7 +14282,7 @@
         <v>81</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>604</v>
+        <v>582</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>82</v>
@@ -14209,13 +14300,13 @@
         <v>81</v>
       </c>
       <c r="AL93" t="s" s="2">
-        <v>609</v>
+        <v>81</v>
       </c>
       <c r="AM93" t="s" s="2">
-        <v>520</v>
+        <v>583</v>
       </c>
       <c r="AN93" t="s" s="2">
-        <v>610</v>
+        <v>81</v>
       </c>
       <c r="AO93" t="s" s="2">
         <v>81</v>
@@ -14224,7 +14315,7 @@
         <v>81</v>
       </c>
       <c r="AQ93" t="s" s="2">
-        <v>611</v>
+        <v>81</v>
       </c>
       <c r="AR93" t="s" s="2">
         <v>81</v>
@@ -14232,10 +14323,10 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>612</v>
+        <v>584</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>612</v>
+        <v>584</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -14255,21 +14346,23 @@
         <v>81</v>
       </c>
       <c r="J94" t="s" s="2">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>465</v>
+        <v>585</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>613</v>
+        <v>586</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>614</v>
+        <v>587</v>
       </c>
       <c r="N94" t="s" s="2">
-        <v>615</v>
-      </c>
-      <c r="O94" s="2"/>
+        <v>588</v>
+      </c>
+      <c r="O94" t="s" s="2">
+        <v>589</v>
+      </c>
       <c r="P94" t="s" s="2">
         <v>81</v>
       </c>
@@ -14317,7 +14410,7 @@
         <v>81</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>612</v>
+        <v>590</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>82</v>
@@ -14326,7 +14419,7 @@
         <v>94</v>
       </c>
       <c r="AI94" t="s" s="2">
-        <v>81</v>
+        <v>591</v>
       </c>
       <c r="AJ94" t="s" s="2">
         <v>106</v>
@@ -14338,7 +14431,7 @@
         <v>81</v>
       </c>
       <c r="AM94" t="s" s="2">
-        <v>616</v>
+        <v>592</v>
       </c>
       <c r="AN94" t="s" s="2">
         <v>81</v>
@@ -14347,21 +14440,21 @@
         <v>81</v>
       </c>
       <c r="AP94" t="s" s="2">
-        <v>81</v>
+        <v>593</v>
       </c>
       <c r="AQ94" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AR94" t="s" s="2">
-        <v>81</v>
+        <v>594</v>
       </c>
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>617</v>
+        <v>595</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>617</v>
+        <v>595</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
@@ -14372,28 +14465,32 @@
         <v>82</v>
       </c>
       <c r="G95" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="H95" t="s" s="2">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="I95" t="s" s="2">
         <v>81</v>
       </c>
       <c r="J95" t="s" s="2">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>177</v>
+        <v>596</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>178</v>
+        <v>597</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="N95" s="2"/>
-      <c r="O95" s="2"/>
+        <v>598</v>
+      </c>
+      <c r="N95" t="s" s="2">
+        <v>599</v>
+      </c>
+      <c r="O95" t="s" s="2">
+        <v>600</v>
+      </c>
       <c r="P95" t="s" s="2">
         <v>81</v>
       </c>
@@ -14405,7 +14502,7 @@
         <v>81</v>
       </c>
       <c r="T95" t="s" s="2">
-        <v>81</v>
+        <v>601</v>
       </c>
       <c r="U95" t="s" s="2">
         <v>81</v>
@@ -14441,7 +14538,7 @@
         <v>81</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>180</v>
+        <v>602</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>82</v>
@@ -14450,10 +14547,10 @@
         <v>94</v>
       </c>
       <c r="AI95" t="s" s="2">
-        <v>81</v>
+        <v>591</v>
       </c>
       <c r="AJ95" t="s" s="2">
-        <v>81</v>
+        <v>106</v>
       </c>
       <c r="AK95" t="s" s="2">
         <v>81</v>
@@ -14462,7 +14559,7 @@
         <v>81</v>
       </c>
       <c r="AM95" t="s" s="2">
-        <v>181</v>
+        <v>603</v>
       </c>
       <c r="AN95" t="s" s="2">
         <v>81</v>
@@ -14471,7 +14568,7 @@
         <v>81</v>
       </c>
       <c r="AP95" t="s" s="2">
-        <v>81</v>
+        <v>604</v>
       </c>
       <c r="AQ95" t="s" s="2">
         <v>81</v>
@@ -14482,21 +14579,21 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>618</v>
+        <v>605</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>618</v>
+        <v>605</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
-        <v>139</v>
+        <v>81</v>
       </c>
       <c r="E96" s="2"/>
       <c r="F96" t="s" s="2">
         <v>82</v>
       </c>
       <c r="G96" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H96" t="s" s="2">
         <v>81</v>
@@ -14505,21 +14602,23 @@
         <v>81</v>
       </c>
       <c r="J96" t="s" s="2">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>140</v>
+        <v>606</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>141</v>
+        <v>607</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>184</v>
+        <v>608</v>
       </c>
       <c r="N96" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="O96" s="2"/>
+        <v>609</v>
+      </c>
+      <c r="O96" t="s" s="2">
+        <v>610</v>
+      </c>
       <c r="P96" t="s" s="2">
         <v>81</v>
       </c>
@@ -14567,19 +14666,19 @@
         <v>81</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>187</v>
+        <v>611</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AH96" t="s" s="2">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="AI96" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ96" t="s" s="2">
-        <v>145</v>
+        <v>106</v>
       </c>
       <c r="AK96" t="s" s="2">
         <v>81</v>
@@ -14588,7 +14687,7 @@
         <v>81</v>
       </c>
       <c r="AM96" t="s" s="2">
-        <v>181</v>
+        <v>612</v>
       </c>
       <c r="AN96" t="s" s="2">
         <v>81</v>
@@ -14608,45 +14707,45 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>619</v>
+        <v>613</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>619</v>
+        <v>613</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
-        <v>475</v>
+        <v>81</v>
       </c>
       <c r="E97" s="2"/>
       <c r="F97" t="s" s="2">
         <v>82</v>
       </c>
       <c r="G97" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H97" t="s" s="2">
         <v>81</v>
       </c>
       <c r="I97" t="s" s="2">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="J97" t="s" s="2">
         <v>95</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>140</v>
+        <v>585</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>476</v>
+        <v>614</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>477</v>
+        <v>615</v>
       </c>
       <c r="N97" t="s" s="2">
-        <v>143</v>
+        <v>616</v>
       </c>
       <c r="O97" t="s" s="2">
-        <v>149</v>
+        <v>617</v>
       </c>
       <c r="P97" t="s" s="2">
         <v>81</v>
@@ -14695,19 +14794,19 @@
         <v>81</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>478</v>
+        <v>618</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AH97" t="s" s="2">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="AI97" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ97" t="s" s="2">
-        <v>145</v>
+        <v>106</v>
       </c>
       <c r="AK97" t="s" s="2">
         <v>81</v>
@@ -14716,7 +14815,7 @@
         <v>81</v>
       </c>
       <c r="AM97" t="s" s="2">
-        <v>137</v>
+        <v>619</v>
       </c>
       <c r="AN97" t="s" s="2">
         <v>81</v>
@@ -14759,19 +14858,21 @@
         <v>81</v>
       </c>
       <c r="J98" t="s" s="2">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="K98" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="L98" t="s" s="2">
         <v>621</v>
       </c>
-      <c r="L98" t="s" s="2">
+      <c r="M98" t="s" s="2">
         <v>622</v>
       </c>
-      <c r="M98" t="s" s="2">
+      <c r="N98" s="2"/>
+      <c r="O98" t="s" s="2">
         <v>623</v>
       </c>
-      <c r="N98" s="2"/>
-      <c r="O98" s="2"/>
       <c r="P98" t="s" s="2">
         <v>81</v>
       </c>
@@ -14783,7 +14884,7 @@
         <v>81</v>
       </c>
       <c r="T98" t="s" s="2">
-        <v>81</v>
+        <v>624</v>
       </c>
       <c r="U98" t="s" s="2">
         <v>81</v>
@@ -14819,13 +14920,13 @@
         <v>81</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>620</v>
+        <v>625</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AH98" t="s" s="2">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="AI98" t="s" s="2">
         <v>81</v>
@@ -14834,10 +14935,10 @@
         <v>106</v>
       </c>
       <c r="AK98" t="s" s="2">
-        <v>624</v>
+        <v>81</v>
       </c>
       <c r="AL98" t="s" s="2">
-        <v>625</v>
+        <v>81</v>
       </c>
       <c r="AM98" t="s" s="2">
         <v>626</v>
@@ -14846,24 +14947,24 @@
         <v>81</v>
       </c>
       <c r="AO98" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AP98" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AQ98" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AR98" t="s" s="2">
         <v>627</v>
-      </c>
-      <c r="AP98" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AQ98" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AR98" t="s" s="2">
-        <v>628</v>
       </c>
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
@@ -14874,19 +14975,19 @@
         <v>82</v>
       </c>
       <c r="G99" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="H99" t="s" s="2">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="I99" t="s" s="2">
         <v>81</v>
       </c>
       <c r="J99" t="s" s="2">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>202</v>
+        <v>629</v>
       </c>
       <c r="L99" t="s" s="2">
         <v>630</v>
@@ -14894,10 +14995,10 @@
       <c r="M99" t="s" s="2">
         <v>631</v>
       </c>
-      <c r="N99" t="s" s="2">
+      <c r="N99" s="2"/>
+      <c r="O99" t="s" s="2">
         <v>632</v>
       </c>
-      <c r="O99" s="2"/>
       <c r="P99" t="s" s="2">
         <v>81</v>
       </c>
@@ -14921,37 +15022,37 @@
         <v>81</v>
       </c>
       <c r="X99" t="s" s="2">
-        <v>398</v>
+        <v>81</v>
       </c>
       <c r="Y99" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z99" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA99" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB99" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC99" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD99" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE99" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF99" t="s" s="2">
         <v>633</v>
       </c>
-      <c r="Z99" t="s" s="2">
-        <v>634</v>
-      </c>
-      <c r="AA99" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB99" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC99" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD99" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE99" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF99" t="s" s="2">
-        <v>629</v>
-      </c>
       <c r="AG99" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AH99" t="s" s="2">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="AI99" t="s" s="2">
         <v>81</v>
@@ -14963,10 +15064,10 @@
         <v>81</v>
       </c>
       <c r="AL99" t="s" s="2">
-        <v>635</v>
+        <v>81</v>
       </c>
       <c r="AM99" t="s" s="2">
-        <v>636</v>
+        <v>612</v>
       </c>
       <c r="AN99" t="s" s="2">
         <v>81</v>
@@ -14978,18 +15079,18 @@
         <v>81</v>
       </c>
       <c r="AQ99" t="s" s="2">
-        <v>637</v>
+        <v>81</v>
       </c>
       <c r="AR99" t="s" s="2">
-        <v>81</v>
+        <v>634</v>
       </c>
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
@@ -15000,7 +15101,7 @@
         <v>82</v>
       </c>
       <c r="G100" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="H100" t="s" s="2">
         <v>95</v>
@@ -15012,15 +15113,17 @@
         <v>95</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>234</v>
+        <v>314</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>640</v>
-      </c>
-      <c r="N100" s="2"/>
+        <v>637</v>
+      </c>
+      <c r="N100" t="s" s="2">
+        <v>638</v>
+      </c>
       <c r="O100" s="2"/>
       <c r="P100" t="s" s="2">
         <v>81</v>
@@ -15045,13 +15148,11 @@
         <v>81</v>
       </c>
       <c r="X100" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y100" t="s" s="2">
-        <v>81</v>
-      </c>
+        <v>207</v>
+      </c>
+      <c r="Y100" s="2"/>
       <c r="Z100" t="s" s="2">
-        <v>81</v>
+        <v>639</v>
       </c>
       <c r="AA100" t="s" s="2">
         <v>81</v>
@@ -15069,7 +15170,7 @@
         <v>81</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="AG100" t="s" s="2">
         <v>82</v>
@@ -15087,22 +15188,22 @@
         <v>81</v>
       </c>
       <c r="AL100" t="s" s="2">
+        <v>640</v>
+      </c>
+      <c r="AM100" t="s" s="2">
+        <v>551</v>
+      </c>
+      <c r="AN100" t="s" s="2">
         <v>641</v>
       </c>
-      <c r="AM100" t="s" s="2">
+      <c r="AO100" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AP100" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AQ100" t="s" s="2">
         <v>642</v>
-      </c>
-      <c r="AN100" t="s" s="2">
-        <v>643</v>
-      </c>
-      <c r="AO100" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AP100" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AQ100" t="s" s="2">
-        <v>644</v>
       </c>
       <c r="AR100" t="s" s="2">
         <v>81</v>
@@ -15110,10 +15211,10 @@
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
@@ -15124,27 +15225,29 @@
         <v>82</v>
       </c>
       <c r="G101" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="H101" t="s" s="2">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="I101" t="s" s="2">
         <v>81</v>
       </c>
       <c r="J101" t="s" s="2">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>202</v>
+        <v>496</v>
       </c>
       <c r="L101" t="s" s="2">
+        <v>644</v>
+      </c>
+      <c r="M101" t="s" s="2">
+        <v>645</v>
+      </c>
+      <c r="N101" t="s" s="2">
         <v>646</v>
       </c>
-      <c r="M101" t="s" s="2">
-        <v>647</v>
-      </c>
-      <c r="N101" s="2"/>
       <c r="O101" s="2"/>
       <c r="P101" t="s" s="2">
         <v>81</v>
@@ -15169,13 +15272,13 @@
         <v>81</v>
       </c>
       <c r="X101" t="s" s="2">
-        <v>398</v>
+        <v>81</v>
       </c>
       <c r="Y101" t="s" s="2">
-        <v>648</v>
+        <v>81</v>
       </c>
       <c r="Z101" t="s" s="2">
-        <v>649</v>
+        <v>81</v>
       </c>
       <c r="AA101" t="s" s="2">
         <v>81</v>
@@ -15193,7 +15296,7 @@
         <v>81</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="AG101" t="s" s="2">
         <v>82</v>
@@ -15211,13 +15314,13 @@
         <v>81</v>
       </c>
       <c r="AL101" t="s" s="2">
-        <v>650</v>
+        <v>81</v>
       </c>
       <c r="AM101" t="s" s="2">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="AN101" t="s" s="2">
-        <v>652</v>
+        <v>81</v>
       </c>
       <c r="AO101" t="s" s="2">
         <v>81</v>
@@ -15226,7 +15329,7 @@
         <v>81</v>
       </c>
       <c r="AQ101" t="s" s="2">
-        <v>653</v>
+        <v>81</v>
       </c>
       <c r="AR101" t="s" s="2">
         <v>81</v>
@@ -15234,10 +15337,10 @@
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>654</v>
+        <v>648</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>654</v>
+        <v>648</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
@@ -15248,7 +15351,7 @@
         <v>82</v>
       </c>
       <c r="G102" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="H102" t="s" s="2">
         <v>81</v>
@@ -15260,20 +15363,16 @@
         <v>81</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>202</v>
+        <v>177</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>655</v>
+        <v>178</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>656</v>
-      </c>
-      <c r="N102" t="s" s="2">
-        <v>657</v>
-      </c>
-      <c r="O102" t="s" s="2">
-        <v>658</v>
-      </c>
+        <v>179</v>
+      </c>
+      <c r="N102" s="2"/>
+      <c r="O102" s="2"/>
       <c r="P102" t="s" s="2">
         <v>81</v>
       </c>
@@ -15297,13 +15396,13 @@
         <v>81</v>
       </c>
       <c r="X102" t="s" s="2">
-        <v>398</v>
+        <v>81</v>
       </c>
       <c r="Y102" t="s" s="2">
-        <v>659</v>
+        <v>81</v>
       </c>
       <c r="Z102" t="s" s="2">
-        <v>660</v>
+        <v>81</v>
       </c>
       <c r="AA102" t="s" s="2">
         <v>81</v>
@@ -15321,7 +15420,7 @@
         <v>81</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>654</v>
+        <v>180</v>
       </c>
       <c r="AG102" t="s" s="2">
         <v>82</v>
@@ -15333,19 +15432,19 @@
         <v>81</v>
       </c>
       <c r="AJ102" t="s" s="2">
-        <v>106</v>
+        <v>81</v>
       </c>
       <c r="AK102" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL102" t="s" s="2">
-        <v>650</v>
+        <v>81</v>
       </c>
       <c r="AM102" t="s" s="2">
-        <v>651</v>
+        <v>181</v>
       </c>
       <c r="AN102" t="s" s="2">
-        <v>650</v>
+        <v>81</v>
       </c>
       <c r="AO102" t="s" s="2">
         <v>81</v>
@@ -15354,7 +15453,7 @@
         <v>81</v>
       </c>
       <c r="AQ102" t="s" s="2">
-        <v>661</v>
+        <v>81</v>
       </c>
       <c r="AR102" t="s" s="2">
         <v>81</v>
@@ -15362,21 +15461,21 @@
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>662</v>
+        <v>649</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>662</v>
+        <v>649</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
-        <v>81</v>
+        <v>139</v>
       </c>
       <c r="E103" s="2"/>
       <c r="F103" t="s" s="2">
         <v>82</v>
       </c>
       <c r="G103" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H103" t="s" s="2">
         <v>81</v>
@@ -15388,15 +15487,17 @@
         <v>81</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>663</v>
+        <v>140</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>664</v>
+        <v>141</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>665</v>
-      </c>
-      <c r="N103" s="2"/>
+        <v>184</v>
+      </c>
+      <c r="N103" t="s" s="2">
+        <v>143</v>
+      </c>
       <c r="O103" s="2"/>
       <c r="P103" t="s" s="2">
         <v>81</v>
@@ -15445,31 +15546,31 @@
         <v>81</v>
       </c>
       <c r="AF103" t="s" s="2">
-        <v>662</v>
+        <v>187</v>
       </c>
       <c r="AG103" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AH103" t="s" s="2">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="AI103" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ103" t="s" s="2">
-        <v>106</v>
+        <v>145</v>
       </c>
       <c r="AK103" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL103" t="s" s="2">
-        <v>416</v>
+        <v>81</v>
       </c>
       <c r="AM103" t="s" s="2">
-        <v>417</v>
+        <v>181</v>
       </c>
       <c r="AN103" t="s" s="2">
-        <v>418</v>
+        <v>81</v>
       </c>
       <c r="AO103" t="s" s="2">
         <v>81</v>
@@ -15478,7 +15579,7 @@
         <v>81</v>
       </c>
       <c r="AQ103" t="s" s="2">
-        <v>666</v>
+        <v>81</v>
       </c>
       <c r="AR103" t="s" s="2">
         <v>81</v>
@@ -15486,14 +15587,14 @@
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>667</v>
+        <v>650</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>667</v>
+        <v>650</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
-        <v>81</v>
+        <v>506</v>
       </c>
       <c r="E104" s="2"/>
       <c r="F104" t="s" s="2">
@@ -15503,27 +15604,29 @@
         <v>83</v>
       </c>
       <c r="H104" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I104" t="s" s="2">
         <v>95</v>
       </c>
-      <c r="I104" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="J104" t="s" s="2">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>668</v>
+        <v>140</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>669</v>
+        <v>507</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>670</v>
+        <v>508</v>
       </c>
       <c r="N104" t="s" s="2">
-        <v>671</v>
-      </c>
-      <c r="O104" s="2"/>
+        <v>143</v>
+      </c>
+      <c r="O104" t="s" s="2">
+        <v>149</v>
+      </c>
       <c r="P104" t="s" s="2">
         <v>81</v>
       </c>
@@ -15571,7 +15674,7 @@
         <v>81</v>
       </c>
       <c r="AF104" t="s" s="2">
-        <v>667</v>
+        <v>509</v>
       </c>
       <c r="AG104" t="s" s="2">
         <v>82</v>
@@ -15583,35 +15686,911 @@
         <v>81</v>
       </c>
       <c r="AJ104" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="AK104" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL104" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM104" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="AN104" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO104" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AP104" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AQ104" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AR104" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="105" hidden="true">
+      <c r="A105" t="s" s="2">
+        <v>651</v>
+      </c>
+      <c r="B105" t="s" s="2">
+        <v>651</v>
+      </c>
+      <c r="C105" s="2"/>
+      <c r="D105" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="E105" s="2"/>
+      <c r="F105" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G105" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="H105" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="I105" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J105" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K105" t="s" s="2">
+        <v>652</v>
+      </c>
+      <c r="L105" t="s" s="2">
+        <v>653</v>
+      </c>
+      <c r="M105" t="s" s="2">
+        <v>654</v>
+      </c>
+      <c r="N105" s="2"/>
+      <c r="O105" s="2"/>
+      <c r="P105" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q105" s="2"/>
+      <c r="R105" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S105" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T105" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U105" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V105" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W105" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X105" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y105" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z105" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA105" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB105" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC105" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD105" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE105" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF105" t="s" s="2">
+        <v>651</v>
+      </c>
+      <c r="AG105" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH105" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AI105" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ105" t="s" s="2">
         <v>106</v>
       </c>
-      <c r="AK104" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL104" t="s" s="2">
+      <c r="AK105" t="s" s="2">
+        <v>655</v>
+      </c>
+      <c r="AL105" t="s" s="2">
+        <v>656</v>
+      </c>
+      <c r="AM105" t="s" s="2">
+        <v>657</v>
+      </c>
+      <c r="AN105" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO105" t="s" s="2">
+        <v>658</v>
+      </c>
+      <c r="AP105" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AQ105" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AR105" t="s" s="2">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="106" hidden="true">
+      <c r="A106" t="s" s="2">
+        <v>660</v>
+      </c>
+      <c r="B106" t="s" s="2">
+        <v>660</v>
+      </c>
+      <c r="C106" s="2"/>
+      <c r="D106" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="E106" s="2"/>
+      <c r="F106" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G106" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H106" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I106" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J106" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K106" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="L106" t="s" s="2">
+        <v>661</v>
+      </c>
+      <c r="M106" t="s" s="2">
+        <v>662</v>
+      </c>
+      <c r="N106" t="s" s="2">
+        <v>663</v>
+      </c>
+      <c r="O106" s="2"/>
+      <c r="P106" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q106" s="2"/>
+      <c r="R106" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S106" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T106" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U106" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V106" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W106" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X106" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="Y106" t="s" s="2">
+        <v>664</v>
+      </c>
+      <c r="Z106" t="s" s="2">
+        <v>665</v>
+      </c>
+      <c r="AA106" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB106" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC106" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD106" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE106" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF106" t="s" s="2">
+        <v>660</v>
+      </c>
+      <c r="AG106" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH106" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AI106" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ106" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="AK106" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL106" t="s" s="2">
+        <v>666</v>
+      </c>
+      <c r="AM106" t="s" s="2">
+        <v>667</v>
+      </c>
+      <c r="AN106" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO106" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AP106" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AQ106" t="s" s="2">
+        <v>668</v>
+      </c>
+      <c r="AR106" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="107" hidden="true">
+      <c r="A107" t="s" s="2">
+        <v>669</v>
+      </c>
+      <c r="B107" t="s" s="2">
+        <v>669</v>
+      </c>
+      <c r="C107" s="2"/>
+      <c r="D107" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="E107" s="2"/>
+      <c r="F107" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G107" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="H107" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="I107" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J107" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="K107" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="L107" t="s" s="2">
+        <v>670</v>
+      </c>
+      <c r="M107" t="s" s="2">
+        <v>671</v>
+      </c>
+      <c r="N107" s="2"/>
+      <c r="O107" s="2"/>
+      <c r="P107" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q107" s="2"/>
+      <c r="R107" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S107" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T107" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U107" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V107" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W107" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X107" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y107" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z107" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA107" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB107" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC107" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD107" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE107" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF107" t="s" s="2">
+        <v>669</v>
+      </c>
+      <c r="AG107" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH107" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AI107" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ107" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="AK107" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL107" t="s" s="2">
         <v>672</v>
       </c>
-      <c r="AM104" t="s" s="2">
+      <c r="AM107" t="s" s="2">
         <v>673</v>
       </c>
-      <c r="AN104" t="s" s="2">
+      <c r="AN107" t="s" s="2">
         <v>674</v>
       </c>
-      <c r="AO104" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AP104" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AQ104" t="s" s="2">
+      <c r="AO107" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AP107" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AQ107" t="s" s="2">
         <v>675</v>
       </c>
-      <c r="AR104" t="s" s="2">
+      <c r="AR107" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="108" hidden="true">
+      <c r="A108" t="s" s="2">
         <v>676</v>
+      </c>
+      <c r="B108" t="s" s="2">
+        <v>676</v>
+      </c>
+      <c r="C108" s="2"/>
+      <c r="D108" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="E108" s="2"/>
+      <c r="F108" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G108" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H108" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I108" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J108" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K108" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="L108" t="s" s="2">
+        <v>677</v>
+      </c>
+      <c r="M108" t="s" s="2">
+        <v>678</v>
+      </c>
+      <c r="N108" s="2"/>
+      <c r="O108" s="2"/>
+      <c r="P108" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q108" s="2"/>
+      <c r="R108" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S108" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T108" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U108" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V108" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W108" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X108" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="Y108" t="s" s="2">
+        <v>679</v>
+      </c>
+      <c r="Z108" t="s" s="2">
+        <v>680</v>
+      </c>
+      <c r="AA108" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB108" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC108" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD108" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE108" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF108" t="s" s="2">
+        <v>676</v>
+      </c>
+      <c r="AG108" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH108" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AI108" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ108" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="AK108" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL108" t="s" s="2">
+        <v>681</v>
+      </c>
+      <c r="AM108" t="s" s="2">
+        <v>682</v>
+      </c>
+      <c r="AN108" t="s" s="2">
+        <v>683</v>
+      </c>
+      <c r="AO108" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AP108" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AQ108" t="s" s="2">
+        <v>684</v>
+      </c>
+      <c r="AR108" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="109" hidden="true">
+      <c r="A109" t="s" s="2">
+        <v>685</v>
+      </c>
+      <c r="B109" t="s" s="2">
+        <v>685</v>
+      </c>
+      <c r="C109" s="2"/>
+      <c r="D109" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="E109" s="2"/>
+      <c r="F109" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G109" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H109" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I109" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J109" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K109" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="L109" t="s" s="2">
+        <v>686</v>
+      </c>
+      <c r="M109" t="s" s="2">
+        <v>687</v>
+      </c>
+      <c r="N109" t="s" s="2">
+        <v>688</v>
+      </c>
+      <c r="O109" t="s" s="2">
+        <v>689</v>
+      </c>
+      <c r="P109" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q109" s="2"/>
+      <c r="R109" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S109" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T109" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U109" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V109" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W109" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X109" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="Y109" t="s" s="2">
+        <v>690</v>
+      </c>
+      <c r="Z109" t="s" s="2">
+        <v>691</v>
+      </c>
+      <c r="AA109" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB109" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC109" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD109" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE109" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF109" t="s" s="2">
+        <v>685</v>
+      </c>
+      <c r="AG109" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH109" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AI109" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ109" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="AK109" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL109" t="s" s="2">
+        <v>681</v>
+      </c>
+      <c r="AM109" t="s" s="2">
+        <v>682</v>
+      </c>
+      <c r="AN109" t="s" s="2">
+        <v>681</v>
+      </c>
+      <c r="AO109" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AP109" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AQ109" t="s" s="2">
+        <v>692</v>
+      </c>
+      <c r="AR109" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="110" hidden="true">
+      <c r="A110" t="s" s="2">
+        <v>693</v>
+      </c>
+      <c r="B110" t="s" s="2">
+        <v>693</v>
+      </c>
+      <c r="C110" s="2"/>
+      <c r="D110" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="E110" s="2"/>
+      <c r="F110" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G110" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H110" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I110" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J110" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K110" t="s" s="2">
+        <v>694</v>
+      </c>
+      <c r="L110" t="s" s="2">
+        <v>695</v>
+      </c>
+      <c r="M110" t="s" s="2">
+        <v>696</v>
+      </c>
+      <c r="N110" s="2"/>
+      <c r="O110" s="2"/>
+      <c r="P110" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q110" s="2"/>
+      <c r="R110" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S110" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T110" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U110" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V110" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W110" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X110" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y110" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z110" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA110" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB110" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC110" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD110" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE110" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF110" t="s" s="2">
+        <v>693</v>
+      </c>
+      <c r="AG110" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH110" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AI110" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ110" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="AK110" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL110" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="AM110" t="s" s="2">
+        <v>417</v>
+      </c>
+      <c r="AN110" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="AO110" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AP110" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AQ110" t="s" s="2">
+        <v>697</v>
+      </c>
+      <c r="AR110" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="111" hidden="true">
+      <c r="A111" t="s" s="2">
+        <v>698</v>
+      </c>
+      <c r="B111" t="s" s="2">
+        <v>698</v>
+      </c>
+      <c r="C111" s="2"/>
+      <c r="D111" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="E111" s="2"/>
+      <c r="F111" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G111" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="H111" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="I111" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J111" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K111" t="s" s="2">
+        <v>699</v>
+      </c>
+      <c r="L111" t="s" s="2">
+        <v>700</v>
+      </c>
+      <c r="M111" t="s" s="2">
+        <v>701</v>
+      </c>
+      <c r="N111" t="s" s="2">
+        <v>702</v>
+      </c>
+      <c r="O111" s="2"/>
+      <c r="P111" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q111" s="2"/>
+      <c r="R111" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S111" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T111" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U111" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V111" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W111" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X111" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y111" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z111" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA111" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB111" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC111" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD111" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE111" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF111" t="s" s="2">
+        <v>698</v>
+      </c>
+      <c r="AG111" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH111" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AI111" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ111" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="AK111" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL111" t="s" s="2">
+        <v>703</v>
+      </c>
+      <c r="AM111" t="s" s="2">
+        <v>704</v>
+      </c>
+      <c r="AN111" t="s" s="2">
+        <v>705</v>
+      </c>
+      <c r="AO111" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AP111" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AQ111" t="s" s="2">
+        <v>706</v>
+      </c>
+      <c r="AR111" t="s" s="2">
+        <v>707</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AR104">
+  <autoFilter ref="A1:AR111">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -15621,7 +16600,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI103">
+  <conditionalFormatting sqref="A2:AI110">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/docs/StructureDefinition-VA.MHV.PHR.imaging.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.imaging.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.8</t>
+    <t>0.2.9</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-30T14:00:30-06:00</t>
+    <t>2023-12-15T17:23:12-06:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.imaging.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.imaging.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.9</t>
+    <t>0.2.10</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-15T17:23:12-06:00</t>
+    <t>2023-12-22T09:54:24-06:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.imaging.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.imaging.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.10</t>
+    <t>0.3.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-22T09:54:24-06:00</t>
+    <t>2024-01-19T11:04:10-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -877,7 +877,7 @@
     <t>DocumentReference.status</t>
   </si>
   <si>
-    <t>current | superseded | entered-in-error</t>
+    <t>May indicate entered-in-error</t>
   </si>
   <si>
     <t>The status of this document reference.</t>
@@ -887,9 +887,6 @@
 This element is labeled as a modifier because the status contains the codes that mark the document or reference as not currently valid.</t>
   </si>
   <si>
-    <t>current</t>
-  </si>
-  <si>
     <t>http://hl7.org/fhir/ValueSet/document-reference-status</t>
   </si>
   <si>
@@ -908,7 +905,7 @@
     <t>DocumentEntry.availabilityStatus</t>
   </si>
   <si>
-    <t>`current` or derived from ImagingExamTO.status</t>
+    <t>`current` if not `entered-in-error` or derived from ImagingExamTO.status</t>
   </si>
   <si>
     <t>DocumentReference.docStatus</t>
@@ -953,7 +950,10 @@
     <t>Key metadata element describing the document that describes he exact type of document. Helps humans to assess whether the document is of interest when viewing a list of documents.</t>
   </si>
   <si>
-    <t>https://department-of-veterans-affairs.github.io/mhv-fhir-phr-mapping/ValueSet/DocumentReferenceTypeVS</t>
+    <t>All LOINC  values whose SCALE is DOC in the LOINC database and the HL7 v3 Code System NullFlavor concept 'unknown'</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/core/ValueSet/us-core-documentreference-type</t>
   </si>
   <si>
     <t>Event.code</t>
@@ -985,9 +985,6 @@
   </si>
   <si>
     <t>DocumentReference.type.coding</t>
-  </si>
-  <si>
-    <t>2</t>
   </si>
   <si>
     <t xml:space="preserve">Coding
@@ -1031,6 +1028,9 @@
 &lt;/valueCoding&gt;</t>
   </si>
   <si>
+    <t>https://department-of-veterans-affairs.github.io/mhv-fhir-phr-mapping/ValueSet/DocumentReferenceTypeVS</t>
+  </si>
+  <si>
     <t>LOINC#18748-4</t>
   </si>
   <si>
@@ -1364,7 +1364,7 @@
     <t>DocumentReference.author</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/core/StructureDefinition/us-core-practitioner|http://hl7.org/fhir/us/core/StructureDefinition/us-core-organization|http://hl7.org/fhir/us/core/StructureDefinition/us-core-patient|http://hl7.org/fhir/us/core/StructureDefinition/us-core-practitionerrole|http://hl7.org/fhir/us/core/StructureDefinition/us-core-relatedperson|Device)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/core/StructureDefinition/us-core-practitioner|http://hl7.org/fhir/us/core/StructureDefinition/us-core-organization|http://hl7.org/fhir/us/core/StructureDefinition/us-core-patient|http://hl7.org/fhir/us/core/StructureDefinition/us-core-practitionerrole|http://hl7.org/fhir/us/core/StructureDefinition/us-core-relatedperson|Device) &lt;&lt;contained&gt;&gt;
 </t>
   </si>
   <si>
@@ -1401,7 +1401,7 @@
     <t>DocumentReference.authenticator</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Practitioner|PractitionerRole|Organization)
+    <t xml:space="preserve">Reference(https://department-of-veterans-affairs.github.io/mhv-fhir-phr-mapping/StructureDefinition/VA.MHV.PHR.practitioner|Practitioner) &lt;&lt;contained&gt;&gt;
 </t>
   </si>
   <si>
@@ -2184,7 +2184,7 @@
     <t>DocumentReference.context.related</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Resource)
+    <t xml:space="preserve">Reference(https://department-of-veterans-affairs.github.io/mhv-fhir-phr-mapping/StructureDefinition/VA.MHV.PHR.location|Location) &lt;&lt;contained&gt;&gt;
 </t>
   </si>
   <si>
@@ -2588,7 +2588,7 @@
     <col min="41" max="41" width="32.84375" customWidth="true" bestFit="true"/>
     <col min="42" max="42" width="82.05078125" customWidth="true" bestFit="true"/>
     <col min="43" max="43" width="157.95703125" customWidth="true" bestFit="true"/>
-    <col min="44" max="44" width="59.875" customWidth="true" bestFit="true"/>
+    <col min="44" max="44" width="66.0546875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -7565,7 +7565,7 @@
         <v>81</v>
       </c>
       <c r="S40" t="s" s="2">
-        <v>280</v>
+        <v>81</v>
       </c>
       <c r="T40" t="s" s="2">
         <v>81</v>
@@ -7584,7 +7584,7 @@
       </c>
       <c r="Y40" s="2"/>
       <c r="Z40" t="s" s="2">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="AA40" t="s" s="2">
         <v>81</v>
@@ -7617,36 +7617,36 @@
         <v>106</v>
       </c>
       <c r="AK40" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="AL40" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM40" t="s" s="2">
         <v>282</v>
       </c>
-      <c r="AL40" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AM40" t="s" s="2">
+      <c r="AN40" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO40" t="s" s="2">
         <v>283</v>
       </c>
-      <c r="AN40" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO40" t="s" s="2">
+      <c r="AP40" t="s" s="2">
         <v>284</v>
       </c>
-      <c r="AP40" t="s" s="2">
+      <c r="AQ40" t="s" s="2">
         <v>285</v>
       </c>
-      <c r="AQ40" t="s" s="2">
+      <c r="AR40" t="s" s="2">
         <v>286</v>
-      </c>
-      <c r="AR40" t="s" s="2">
-        <v>287</v>
       </c>
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -7672,13 +7672,13 @@
         <v>114</v>
       </c>
       <c r="L41" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="M41" t="s" s="2">
         <v>289</v>
       </c>
-      <c r="M41" t="s" s="2">
+      <c r="N41" t="s" s="2">
         <v>290</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>291</v>
       </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
@@ -7707,11 +7707,11 @@
         <v>195</v>
       </c>
       <c r="Y41" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="Z41" t="s" s="2">
         <v>292</v>
       </c>
-      <c r="Z41" t="s" s="2">
-        <v>293</v>
-      </c>
       <c r="AA41" t="s" s="2">
         <v>81</v>
       </c>
@@ -7728,7 +7728,7 @@
         <v>81</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>82</v>
@@ -7746,33 +7746,33 @@
         <v>81</v>
       </c>
       <c r="AL41" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="AM41" t="s" s="2">
         <v>294</v>
       </c>
-      <c r="AM41" t="s" s="2">
+      <c r="AN41" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO41" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="AP41" t="s" s="2">
         <v>295</v>
       </c>
-      <c r="AN41" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO41" t="s" s="2">
-        <v>284</v>
-      </c>
-      <c r="AP41" t="s" s="2">
+      <c r="AQ41" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AR41" t="s" s="2">
         <v>296</v>
-      </c>
-      <c r="AQ41" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AR41" t="s" s="2">
-        <v>297</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -7798,13 +7798,13 @@
         <v>202</v>
       </c>
       <c r="L42" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="M42" t="s" s="2">
         <v>299</v>
       </c>
-      <c r="M42" t="s" s="2">
+      <c r="N42" t="s" s="2">
         <v>300</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>301</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
@@ -7832,7 +7832,9 @@
       <c r="X42" t="s" s="2">
         <v>195</v>
       </c>
-      <c r="Y42" s="2"/>
+      <c r="Y42" t="s" s="2">
+        <v>301</v>
+      </c>
       <c r="Z42" t="s" s="2">
         <v>302</v>
       </c>
@@ -7852,7 +7854,7 @@
         <v>81</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>82</v>
@@ -8157,7 +8159,7 @@
         <v>94</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>313</v>
+        <v>83</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>81</v>
@@ -8169,19 +8171,19 @@
         <v>95</v>
       </c>
       <c r="K45" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="L45" t="s" s="2">
         <v>314</v>
       </c>
-      <c r="L45" t="s" s="2">
+      <c r="M45" t="s" s="2">
         <v>315</v>
       </c>
-      <c r="M45" t="s" s="2">
+      <c r="N45" t="s" s="2">
         <v>316</v>
       </c>
-      <c r="N45" t="s" s="2">
+      <c r="O45" t="s" s="2">
         <v>317</v>
-      </c>
-      <c r="O45" t="s" s="2">
-        <v>318</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>81</v>
@@ -8218,7 +8220,7 @@
         <v>81</v>
       </c>
       <c r="AB45" t="s" s="2">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="AC45" s="2"/>
       <c r="AD45" t="s" s="2">
@@ -8228,7 +8230,7 @@
         <v>168</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>82</v>
@@ -8249,16 +8251,16 @@
         <v>81</v>
       </c>
       <c r="AM45" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="AN45" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO45" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AP45" t="s" s="2">
         <v>321</v>
-      </c>
-      <c r="AN45" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO45" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AP45" t="s" s="2">
-        <v>322</v>
       </c>
       <c r="AQ45" t="s" s="2">
         <v>81</v>
@@ -8269,13 +8271,13 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B46" t="s" s="2">
         <v>312</v>
       </c>
       <c r="C46" t="s" s="2">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D46" t="s" s="2">
         <v>81</v>
@@ -8297,19 +8299,19 @@
         <v>95</v>
       </c>
       <c r="K46" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="L46" t="s" s="2">
         <v>314</v>
       </c>
-      <c r="L46" t="s" s="2">
+      <c r="M46" t="s" s="2">
         <v>315</v>
       </c>
-      <c r="M46" t="s" s="2">
+      <c r="N46" t="s" s="2">
         <v>316</v>
       </c>
-      <c r="N46" t="s" s="2">
+      <c r="O46" t="s" s="2">
         <v>317</v>
-      </c>
-      <c r="O46" t="s" s="2">
-        <v>318</v>
       </c>
       <c r="P46" t="s" s="2">
         <v>81</v>
@@ -8319,29 +8321,27 @@
         <v>81</v>
       </c>
       <c r="S46" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="T46" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U46" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V46" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W46" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X46" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="Y46" s="2"/>
+      <c r="Z46" t="s" s="2">
         <v>325</v>
       </c>
-      <c r="T46" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U46" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V46" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W46" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X46" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y46" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Z46" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="AA46" t="s" s="2">
         <v>81</v>
       </c>
@@ -8358,7 +8358,7 @@
         <v>81</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>82</v>
@@ -8379,16 +8379,16 @@
         <v>81</v>
       </c>
       <c r="AM46" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="AN46" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO46" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AP46" t="s" s="2">
         <v>321</v>
-      </c>
-      <c r="AN46" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO46" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AP46" t="s" s="2">
-        <v>322</v>
       </c>
       <c r="AQ46" t="s" s="2">
         <v>81</v>
@@ -8914,7 +8914,7 @@
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="G51" t="s" s="2">
         <v>94</v>
@@ -9311,19 +9311,19 @@
         <v>95</v>
       </c>
       <c r="K54" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="L54" t="s" s="2">
         <v>314</v>
       </c>
-      <c r="L54" t="s" s="2">
+      <c r="M54" t="s" s="2">
         <v>315</v>
       </c>
-      <c r="M54" t="s" s="2">
+      <c r="N54" t="s" s="2">
         <v>316</v>
       </c>
-      <c r="N54" t="s" s="2">
+      <c r="O54" t="s" s="2">
         <v>317</v>
-      </c>
-      <c r="O54" t="s" s="2">
-        <v>318</v>
       </c>
       <c r="P54" t="s" s="2">
         <v>81</v>
@@ -9372,7 +9372,7 @@
         <v>81</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>82</v>
@@ -9393,16 +9393,16 @@
         <v>81</v>
       </c>
       <c r="AM54" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="AN54" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO54" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AP54" t="s" s="2">
         <v>321</v>
-      </c>
-      <c r="AN54" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO54" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AP54" t="s" s="2">
-        <v>322</v>
       </c>
       <c r="AQ54" t="s" s="2">
         <v>81</v>
@@ -15113,7 +15113,7 @@
         <v>95</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="L100" t="s" s="2">
         <v>636</v>

--- a/docs/StructureDefinition-VA.MHV.PHR.imaging.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.imaging.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.3.1</t>
+    <t>0.3.2-ci</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-19T11:04:10-06:00</t>
+    <t>2024-01-29T11:03:46-06:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.imaging.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.imaging.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.3.2-ci</t>
+    <t>0.3.2</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-29T11:03:46-06:00</t>
+    <t>2024-01-29T11:44:59-06:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.imaging.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.imaging.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.3.2</t>
+    <t>0.3.3</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-29T11:44:59-06:00</t>
+    <t>2024-02-26T14:52:47-06:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.imaging.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.imaging.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.3.3</t>
+    <t>0.3.4</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-26T14:52:47-06:00</t>
+    <t>2024-03-18T14:58:21-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.imaging.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.imaging.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.3.4</t>
+    <t>0.3.5</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-18T14:58:21-05:00</t>
+    <t>2024-03-29T15:35:14-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -237,6 +237,9 @@
     <t>Constraint(s)</t>
   </si>
   <si>
+    <t>Mapping: VIA to mhv-fhir-phr</t>
+  </si>
+  <si>
     <t>Mapping: Workflow Pattern</t>
   </si>
   <si>
@@ -256,9 +259,6 @@
   </si>
   <si>
     <t>Mapping: XDS metadata equivalent</t>
-  </si>
-  <si>
-    <t>Mapping: VIA to mhv-fhir-phr</t>
   </si>
   <si>
     <t/>
@@ -284,6 +284,9 @@
 dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
   </si>
   <si>
+    <t>ImagingExamTO</t>
+  </si>
+  <si>
     <t>Event</t>
   </si>
   <si>
@@ -294,9 +297,6 @@
   </si>
   <si>
     <t>when describing a CDA</t>
-  </si>
-  <si>
-    <t>ImagingExamTO</t>
   </si>
   <si>
     <t>DocumentReference.id</t>
@@ -890,6 +890,9 @@
     <t>http://hl7.org/fhir/ValueSet/document-reference-status</t>
   </si>
   <si>
+    <t>`current` if not `entered-in-error` or derived from ImagingExamTO.status</t>
+  </si>
+  <si>
     <t>Event.status</t>
   </si>
   <si>
@@ -905,9 +908,6 @@
     <t>DocumentEntry.availabilityStatus</t>
   </si>
   <si>
-    <t>`current` if not `entered-in-error` or derived from ImagingExamTO.status</t>
-  </si>
-  <si>
     <t>DocumentReference.docStatus</t>
   </si>
   <si>
@@ -926,6 +926,9 @@
     <t>http://hl7.org/fhir/ValueSet/composition-status|4.0.1</t>
   </si>
   <si>
+    <t>`final` or derived from ImagingExamTO.radiologyReportTO.status</t>
+  </si>
+  <si>
     <t>Composition.status</t>
   </si>
   <si>
@@ -933,9 +936,6 @@
   </si>
   <si>
     <t>TXA-17</t>
-  </si>
-  <si>
-    <t>`final` or derived from ImagingExamTO.radiologyReportTO.status</t>
   </si>
   <si>
     <t>DocumentReference.type</t>
@@ -1262,6 +1262,9 @@
 </t>
   </si>
   <si>
+    <t>`clinical-note`</t>
+  </si>
+  <si>
     <t>Composition.class</t>
   </si>
   <si>
@@ -1272,9 +1275,6 @@
   </si>
   <si>
     <t>DocumentEntry.class</t>
-  </si>
-  <si>
-    <t>`clinical-note`</t>
   </si>
   <si>
     <t>DocumentReference.category:us-core</t>
@@ -1302,6 +1302,9 @@
     <t>Who or what the document is about. The document can be about a person, (patient or healthcare practitioner), a device (e.g. a machine) or even a group of subjects (such as a document about a herd of farm animals, or a set of patients that share a common exposure).</t>
   </si>
   <si>
+    <t>GetPatient()</t>
+  </si>
+  <si>
     <t>Event.subject</t>
   </si>
   <si>
@@ -1321,9 +1324,6 @@
   </si>
   <si>
     <t>DocumentEntry.patientId</t>
-  </si>
-  <si>
-    <t>GetPatient()</t>
   </si>
   <si>
     <t>DocumentReference.date</t>
@@ -1346,6 +1346,9 @@
     <t>Referencing/indexing time is used for tracking, organizing versions and searching.</t>
   </si>
   <si>
+    <t>ConvertDate(ImagingExamTO.timestamp)</t>
+  </si>
+  <si>
     <t>Event.occurrence[x]</t>
   </si>
   <si>
@@ -1356,9 +1359,6 @@
   </si>
   <si>
     <t>FiveWs.recorded</t>
-  </si>
-  <si>
-    <t>ConvertDate(ImagingExamTO.timestamp)</t>
   </si>
   <si>
     <t>DocumentReference.author</t>
@@ -1377,6 +1377,9 @@
     <t>Not necessarily who did the actual data entry (i.e. typist) or who was the source (informant).</t>
   </si>
   <si>
+    <t>GetPractitioner(ImagingStudyTO.provider.[UserTO])</t>
+  </si>
+  <si>
     <t>Event.performer.actor</t>
   </si>
   <si>
@@ -1393,9 +1396,6 @@
   </si>
   <si>
     <t>DocumentEntry.author</t>
-  </si>
-  <si>
-    <t>GetPractitioner(ImagingStudyTO.provider.[UserTO])</t>
   </si>
   <si>
     <t>DocumentReference.authenticator</t>
@@ -1543,13 +1543,13 @@
     <t>Identifies the logical organization (software system, vendor, or department) to go to find the current version, where to report issues, etc. This is different from the physical location (URL, disk drive, or server) of the document, which is the technical location of the document, which host may be delegated to the management of some other organization.</t>
   </si>
   <si>
+    <t>GetLocation(ImagingExamTO.imagingLocation)</t>
+  </si>
+  <si>
     <t>Composition.custodian</t>
   </si>
   <si>
     <t>.participation[typeCode="RCV"].role[classCode="CUST"].scoper[classCode="ORG" and determinerCode="INST"]</t>
-  </si>
-  <si>
-    <t>GetLocation(ImagingExamTO.imagingLocation)</t>
   </si>
   <si>
     <t>DocumentReference.relatesTo</t>
@@ -1664,6 +1664,9 @@
     <t>Helps humans to assess whether the document is of interest.</t>
   </si>
   <si>
+    <t>ImagingStudyTO.interpretation</t>
+  </si>
+  <si>
     <t>.outboundRelationship[typeCode="SUBJ"].target.text</t>
   </si>
   <si>
@@ -1671,9 +1674,6 @@
   </si>
   <si>
     <t>DocumentEntry.comments</t>
-  </si>
-  <si>
-    <t>ImagingStudyTO.interpretation</t>
   </si>
   <si>
     <t>DocumentReference.securityLabel</t>
@@ -1798,13 +1798,13 @@
     <t>Attachment.contentType</t>
   </si>
   <si>
+    <t>`text/plain`</t>
+  </si>
+  <si>
     <t>./mediaType, ./charset</t>
   </si>
   <si>
     <t>ED.2+ED.3/RP.2+RP.3. Note conversion may be needed if old style values are being used</t>
-  </si>
-  <si>
-    <t>`text/plain`</t>
   </si>
   <si>
     <t>DocumentReference.content.attachment.language</t>
@@ -1854,13 +1854,13 @@
 </t>
   </si>
   <si>
+    <t>Base64Encode(ImagingStudyTO.radiologyReportTo.text)</t>
+  </si>
+  <si>
     <t>./data</t>
   </si>
   <si>
     <t>ED.5</t>
-  </si>
-  <si>
-    <t>Base64Encode(ImagingStudyTO.radiologyReportTo.text)</t>
   </si>
   <si>
     <t>DocumentReference.content.attachment.url</t>
@@ -1958,10 +1958,10 @@
     <t>Attachment.title</t>
   </si>
   <si>
+    <t>ImagingExamTO.name or ImagingExamTO.radiologyReportTo.title</t>
+  </si>
+  <si>
     <t>./title/data</t>
-  </si>
-  <si>
-    <t>ImagingExamTO.name or ImagingExamTO.radiologyReportTo.title</t>
   </si>
   <si>
     <t>DocumentReference.content.attachment.creation</t>
@@ -2047,6 +2047,9 @@
     <t>Describes the clinical encounter or type of care that the document content is associated with.</t>
   </si>
   <si>
+    <t>identifier.value = ImagingExamTO.encounterId</t>
+  </si>
+  <si>
     <t>Event.context</t>
   </si>
   <si>
@@ -2057,9 +2060,6 @@
   </si>
   <si>
     <t>FiveWs.context</t>
-  </si>
-  <si>
-    <t>identifier.value = ImagingExamTO.encounterId</t>
   </si>
   <si>
     <t>DocumentReference.context.event</t>
@@ -2197,6 +2197,9 @@
     <t>May be identifiers or resources that caused the DocumentReference or referenced Document to be created.</t>
   </si>
   <si>
+    <t>identifier.display = ImagingExamTO.order.type.name1</t>
+  </si>
+  <si>
     <t>Composition.event.detail</t>
   </si>
   <si>
@@ -2207,9 +2210,6 @@
   </si>
   <si>
     <t>DocumentEntry.referenceIdList</t>
-  </si>
-  <si>
-    <t>identifier.display = ImagingExamTO.order.type.name1</t>
   </si>
 </sst>
 </file>
@@ -2581,14 +2581,14 @@
     <col min="33" max="33" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="9.87890625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="26.71875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="50.96484375" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="255.0" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="66.0546875" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="26.71875" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="50.96484375" customWidth="true" bestFit="true"/>
     <col min="40" max="40" width="255.0" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="32.84375" customWidth="true" bestFit="true"/>
-    <col min="42" max="42" width="82.05078125" customWidth="true" bestFit="true"/>
-    <col min="43" max="43" width="157.95703125" customWidth="true" bestFit="true"/>
-    <col min="44" max="44" width="66.0546875" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="255.0" customWidth="true" bestFit="true"/>
+    <col min="42" max="42" width="32.84375" customWidth="true" bestFit="true"/>
+    <col min="43" max="43" width="82.05078125" customWidth="true" bestFit="true"/>
+    <col min="44" max="44" width="157.95703125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2839,7 +2839,7 @@
         <v>91</v>
       </c>
       <c r="AO2" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AP2" t="s" s="2">
         <v>81</v>
@@ -2848,7 +2848,7 @@
         <v>81</v>
       </c>
       <c r="AR2" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" hidden="true">
@@ -3461,10 +3461,10 @@
         <v>81</v>
       </c>
       <c r="AM7" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN7" t="s" s="2">
         <v>129</v>
-      </c>
-      <c r="AN7" t="s" s="2">
-        <v>81</v>
       </c>
       <c r="AO7" t="s" s="2">
         <v>81</v>
@@ -3587,10 +3587,10 @@
         <v>81</v>
       </c>
       <c r="AM8" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN8" t="s" s="2">
         <v>137</v>
-      </c>
-      <c r="AN8" t="s" s="2">
-        <v>81</v>
       </c>
       <c r="AO8" t="s" s="2">
         <v>81</v>
@@ -3713,10 +3713,10 @@
         <v>81</v>
       </c>
       <c r="AM9" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN9" t="s" s="2">
         <v>137</v>
-      </c>
-      <c r="AN9" t="s" s="2">
-        <v>81</v>
       </c>
       <c r="AO9" t="s" s="2">
         <v>81</v>
@@ -3841,10 +3841,10 @@
         <v>81</v>
       </c>
       <c r="AM10" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN10" t="s" s="2">
         <v>137</v>
-      </c>
-      <c r="AN10" t="s" s="2">
-        <v>81</v>
       </c>
       <c r="AO10" t="s" s="2">
         <v>81</v>
@@ -3963,28 +3963,28 @@
         <v>106</v>
       </c>
       <c r="AK11" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL11" t="s" s="2">
         <v>157</v>
       </c>
-      <c r="AL11" t="s" s="2">
+      <c r="AM11" t="s" s="2">
         <v>158</v>
       </c>
-      <c r="AM11" t="s" s="2">
+      <c r="AN11" t="s" s="2">
         <v>159</v>
       </c>
-      <c r="AN11" t="s" s="2">
+      <c r="AO11" t="s" s="2">
         <v>160</v>
       </c>
-      <c r="AO11" t="s" s="2">
+      <c r="AP11" t="s" s="2">
         <v>161</v>
       </c>
-      <c r="AP11" t="s" s="2">
+      <c r="AQ11" t="s" s="2">
         <v>162</v>
       </c>
-      <c r="AQ11" t="s" s="2">
+      <c r="AR11" t="s" s="2">
         <v>163</v>
-      </c>
-      <c r="AR11" t="s" s="2">
-        <v>81</v>
       </c>
     </row>
     <row r="12" hidden="true">
@@ -4085,28 +4085,28 @@
         <v>106</v>
       </c>
       <c r="AK12" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL12" t="s" s="2">
         <v>157</v>
       </c>
-      <c r="AL12" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="AM12" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN12" t="s" s="2">
         <v>169</v>
       </c>
-      <c r="AN12" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="AO12" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AP12" t="s" s="2">
         <v>161</v>
       </c>
-      <c r="AP12" t="s" s="2">
+      <c r="AQ12" t="s" s="2">
         <v>170</v>
       </c>
-      <c r="AQ12" t="s" s="2">
+      <c r="AR12" t="s" s="2">
         <v>171</v>
-      </c>
-      <c r="AR12" t="s" s="2">
-        <v>81</v>
       </c>
     </row>
     <row r="13" hidden="true">
@@ -4211,28 +4211,28 @@
         <v>106</v>
       </c>
       <c r="AK13" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="AL13" t="s" s="2">
         <v>157</v>
       </c>
-      <c r="AL13" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="AM13" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN13" t="s" s="2">
         <v>169</v>
       </c>
-      <c r="AN13" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="AO13" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AP13" t="s" s="2">
         <v>161</v>
       </c>
-      <c r="AP13" t="s" s="2">
+      <c r="AQ13" t="s" s="2">
         <v>170</v>
       </c>
-      <c r="AQ13" t="s" s="2">
+      <c r="AR13" t="s" s="2">
         <v>171</v>
-      </c>
-      <c r="AR13" t="s" s="2">
-        <v>174</v>
       </c>
     </row>
     <row r="14" hidden="true">
@@ -4341,10 +4341,10 @@
         <v>81</v>
       </c>
       <c r="AM14" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN14" t="s" s="2">
         <v>181</v>
-      </c>
-      <c r="AN14" t="s" s="2">
-        <v>81</v>
       </c>
       <c r="AO14" t="s" s="2">
         <v>81</v>
@@ -4467,10 +4467,10 @@
         <v>81</v>
       </c>
       <c r="AM15" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN15" t="s" s="2">
         <v>181</v>
-      </c>
-      <c r="AN15" t="s" s="2">
-        <v>81</v>
       </c>
       <c r="AO15" t="s" s="2">
         <v>81</v>
@@ -4595,19 +4595,19 @@
         <v>81</v>
       </c>
       <c r="AM16" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN16" t="s" s="2">
         <v>199</v>
       </c>
-      <c r="AN16" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="AO16" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AP16" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AQ16" t="s" s="2">
         <v>137</v>
-      </c>
-      <c r="AQ16" t="s" s="2">
-        <v>81</v>
       </c>
       <c r="AR16" t="s" s="2">
         <v>81</v>
@@ -4723,19 +4723,19 @@
         <v>81</v>
       </c>
       <c r="AM17" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN17" t="s" s="2">
         <v>199</v>
       </c>
-      <c r="AN17" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="AO17" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AP17" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AQ17" t="s" s="2">
         <v>211</v>
-      </c>
-      <c r="AQ17" t="s" s="2">
-        <v>81</v>
       </c>
       <c r="AR17" t="s" s="2">
         <v>81</v>
@@ -4851,19 +4851,19 @@
         <v>81</v>
       </c>
       <c r="AM18" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN18" t="s" s="2">
         <v>221</v>
       </c>
-      <c r="AN18" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="AO18" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AP18" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AQ18" t="s" s="2">
         <v>222</v>
-      </c>
-      <c r="AQ18" t="s" s="2">
-        <v>81</v>
       </c>
       <c r="AR18" t="s" s="2">
         <v>81</v>
@@ -4977,19 +4977,19 @@
         <v>81</v>
       </c>
       <c r="AM19" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN19" t="s" s="2">
         <v>230</v>
       </c>
-      <c r="AN19" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="AO19" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AP19" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AQ19" t="s" s="2">
         <v>231</v>
-      </c>
-      <c r="AQ19" t="s" s="2">
-        <v>81</v>
       </c>
       <c r="AR19" t="s" s="2">
         <v>81</v>
@@ -5101,19 +5101,19 @@
         <v>81</v>
       </c>
       <c r="AM20" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN20" t="s" s="2">
         <v>238</v>
       </c>
-      <c r="AN20" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="AO20" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AP20" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AQ20" t="s" s="2">
         <v>239</v>
-      </c>
-      <c r="AQ20" t="s" s="2">
-        <v>81</v>
       </c>
       <c r="AR20" t="s" s="2">
         <v>81</v>
@@ -5227,19 +5227,19 @@
         <v>81</v>
       </c>
       <c r="AM21" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN21" t="s" s="2">
         <v>247</v>
       </c>
-      <c r="AN21" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="AO21" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AP21" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AQ21" t="s" s="2">
         <v>248</v>
-      </c>
-      <c r="AQ21" t="s" s="2">
-        <v>81</v>
       </c>
       <c r="AR21" t="s" s="2">
         <v>81</v>
@@ -5347,28 +5347,28 @@
         <v>106</v>
       </c>
       <c r="AK22" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="AL22" t="s" s="2">
         <v>157</v>
       </c>
-      <c r="AL22" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="AM22" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN22" t="s" s="2">
         <v>169</v>
       </c>
-      <c r="AN22" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="AO22" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AP22" t="s" s="2">
         <v>161</v>
       </c>
-      <c r="AP22" t="s" s="2">
+      <c r="AQ22" t="s" s="2">
         <v>170</v>
       </c>
-      <c r="AQ22" t="s" s="2">
+      <c r="AR22" t="s" s="2">
         <v>171</v>
-      </c>
-      <c r="AR22" t="s" s="2">
-        <v>251</v>
       </c>
     </row>
     <row r="23" hidden="true">
@@ -5477,10 +5477,10 @@
         <v>81</v>
       </c>
       <c r="AM23" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN23" t="s" s="2">
         <v>181</v>
-      </c>
-      <c r="AN23" t="s" s="2">
-        <v>81</v>
       </c>
       <c r="AO23" t="s" s="2">
         <v>81</v>
@@ -5603,10 +5603,10 @@
         <v>81</v>
       </c>
       <c r="AM24" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN24" t="s" s="2">
         <v>181</v>
-      </c>
-      <c r="AN24" t="s" s="2">
-        <v>81</v>
       </c>
       <c r="AO24" t="s" s="2">
         <v>81</v>
@@ -5731,19 +5731,19 @@
         <v>81</v>
       </c>
       <c r="AM25" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN25" t="s" s="2">
         <v>199</v>
       </c>
-      <c r="AN25" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="AO25" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AP25" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AQ25" t="s" s="2">
         <v>137</v>
-      </c>
-      <c r="AQ25" t="s" s="2">
-        <v>81</v>
       </c>
       <c r="AR25" t="s" s="2">
         <v>81</v>
@@ -5859,19 +5859,19 @@
         <v>81</v>
       </c>
       <c r="AM26" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN26" t="s" s="2">
         <v>199</v>
       </c>
-      <c r="AN26" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="AO26" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AP26" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AQ26" t="s" s="2">
         <v>211</v>
-      </c>
-      <c r="AQ26" t="s" s="2">
-        <v>81</v>
       </c>
       <c r="AR26" t="s" s="2">
         <v>81</v>
@@ -5987,19 +5987,19 @@
         <v>81</v>
       </c>
       <c r="AM27" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN27" t="s" s="2">
         <v>221</v>
       </c>
-      <c r="AN27" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="AO27" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AP27" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AQ27" t="s" s="2">
         <v>222</v>
-      </c>
-      <c r="AQ27" t="s" s="2">
-        <v>81</v>
       </c>
       <c r="AR27" t="s" s="2">
         <v>81</v>
@@ -6113,19 +6113,19 @@
         <v>81</v>
       </c>
       <c r="AM28" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN28" t="s" s="2">
         <v>230</v>
       </c>
-      <c r="AN28" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="AO28" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AP28" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AQ28" t="s" s="2">
         <v>231</v>
-      </c>
-      <c r="AQ28" t="s" s="2">
-        <v>81</v>
       </c>
       <c r="AR28" t="s" s="2">
         <v>81</v>
@@ -6237,19 +6237,19 @@
         <v>81</v>
       </c>
       <c r="AM29" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN29" t="s" s="2">
         <v>238</v>
       </c>
-      <c r="AN29" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="AO29" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AP29" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AQ29" t="s" s="2">
         <v>239</v>
-      </c>
-      <c r="AQ29" t="s" s="2">
-        <v>81</v>
       </c>
       <c r="AR29" t="s" s="2">
         <v>81</v>
@@ -6363,19 +6363,19 @@
         <v>81</v>
       </c>
       <c r="AM30" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN30" t="s" s="2">
         <v>247</v>
       </c>
-      <c r="AN30" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="AO30" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AP30" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AQ30" t="s" s="2">
         <v>248</v>
-      </c>
-      <c r="AQ30" t="s" s="2">
-        <v>81</v>
       </c>
       <c r="AR30" t="s" s="2">
         <v>81</v>
@@ -6483,28 +6483,28 @@
         <v>106</v>
       </c>
       <c r="AK31" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="AL31" t="s" s="2">
         <v>157</v>
       </c>
-      <c r="AL31" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="AM31" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN31" t="s" s="2">
         <v>169</v>
       </c>
-      <c r="AN31" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="AO31" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AP31" t="s" s="2">
         <v>161</v>
       </c>
-      <c r="AP31" t="s" s="2">
+      <c r="AQ31" t="s" s="2">
         <v>170</v>
       </c>
-      <c r="AQ31" t="s" s="2">
+      <c r="AR31" t="s" s="2">
         <v>171</v>
-      </c>
-      <c r="AR31" t="s" s="2">
-        <v>265</v>
       </c>
     </row>
     <row r="32" hidden="true">
@@ -6613,10 +6613,10 @@
         <v>81</v>
       </c>
       <c r="AM32" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN32" t="s" s="2">
         <v>181</v>
-      </c>
-      <c r="AN32" t="s" s="2">
-        <v>81</v>
       </c>
       <c r="AO32" t="s" s="2">
         <v>81</v>
@@ -6739,10 +6739,10 @@
         <v>81</v>
       </c>
       <c r="AM33" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN33" t="s" s="2">
         <v>181</v>
-      </c>
-      <c r="AN33" t="s" s="2">
-        <v>81</v>
       </c>
       <c r="AO33" t="s" s="2">
         <v>81</v>
@@ -6867,19 +6867,19 @@
         <v>81</v>
       </c>
       <c r="AM34" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN34" t="s" s="2">
         <v>199</v>
       </c>
-      <c r="AN34" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="AO34" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AP34" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AQ34" t="s" s="2">
         <v>137</v>
-      </c>
-      <c r="AQ34" t="s" s="2">
-        <v>81</v>
       </c>
       <c r="AR34" t="s" s="2">
         <v>81</v>
@@ -6995,19 +6995,19 @@
         <v>81</v>
       </c>
       <c r="AM35" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN35" t="s" s="2">
         <v>199</v>
       </c>
-      <c r="AN35" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="AO35" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AP35" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AQ35" t="s" s="2">
         <v>211</v>
-      </c>
-      <c r="AQ35" t="s" s="2">
-        <v>81</v>
       </c>
       <c r="AR35" t="s" s="2">
         <v>81</v>
@@ -7123,19 +7123,19 @@
         <v>81</v>
       </c>
       <c r="AM36" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN36" t="s" s="2">
         <v>221</v>
       </c>
-      <c r="AN36" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="AO36" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AP36" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AQ36" t="s" s="2">
         <v>222</v>
-      </c>
-      <c r="AQ36" t="s" s="2">
-        <v>81</v>
       </c>
       <c r="AR36" t="s" s="2">
         <v>81</v>
@@ -7249,19 +7249,19 @@
         <v>81</v>
       </c>
       <c r="AM37" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN37" t="s" s="2">
         <v>230</v>
       </c>
-      <c r="AN37" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="AO37" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AP37" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AQ37" t="s" s="2">
         <v>231</v>
-      </c>
-      <c r="AQ37" t="s" s="2">
-        <v>81</v>
       </c>
       <c r="AR37" t="s" s="2">
         <v>81</v>
@@ -7373,19 +7373,19 @@
         <v>81</v>
       </c>
       <c r="AM38" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN38" t="s" s="2">
         <v>238</v>
       </c>
-      <c r="AN38" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="AO38" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AP38" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AQ38" t="s" s="2">
         <v>239</v>
-      </c>
-      <c r="AQ38" t="s" s="2">
-        <v>81</v>
       </c>
       <c r="AR38" t="s" s="2">
         <v>81</v>
@@ -7499,19 +7499,19 @@
         <v>81</v>
       </c>
       <c r="AM39" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN39" t="s" s="2">
         <v>247</v>
       </c>
-      <c r="AN39" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="AO39" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AP39" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AQ39" t="s" s="2">
         <v>248</v>
-      </c>
-      <c r="AQ39" t="s" s="2">
-        <v>81</v>
       </c>
       <c r="AR39" t="s" s="2">
         <v>81</v>
@@ -7620,16 +7620,16 @@
         <v>281</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>81</v>
+        <v>282</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>282</v>
+        <v>81</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>81</v>
+        <v>283</v>
       </c>
       <c r="AO40" t="s" s="2">
-        <v>283</v>
+        <v>81</v>
       </c>
       <c r="AP40" t="s" s="2">
         <v>284</v>
@@ -7743,28 +7743,28 @@
         <v>106</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>81</v>
+        <v>293</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>293</v>
+        <v>81</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>294</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>81</v>
+        <v>295</v>
       </c>
       <c r="AO41" t="s" s="2">
-        <v>283</v>
+        <v>81</v>
       </c>
       <c r="AP41" t="s" s="2">
-        <v>295</v>
+        <v>284</v>
       </c>
       <c r="AQ41" t="s" s="2">
-        <v>81</v>
+        <v>296</v>
       </c>
       <c r="AR41" t="s" s="2">
-        <v>296</v>
+        <v>81</v>
       </c>
     </row>
     <row r="42" hidden="true">
@@ -7869,28 +7869,28 @@
         <v>106</v>
       </c>
       <c r="AK42" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL42" t="s" s="2">
         <v>303</v>
       </c>
-      <c r="AL42" t="s" s="2">
+      <c r="AM42" t="s" s="2">
         <v>304</v>
       </c>
-      <c r="AM42" t="s" s="2">
+      <c r="AN42" t="s" s="2">
         <v>305</v>
       </c>
-      <c r="AN42" t="s" s="2">
+      <c r="AO42" t="s" s="2">
         <v>306</v>
       </c>
-      <c r="AO42" t="s" s="2">
+      <c r="AP42" t="s" s="2">
         <v>307</v>
       </c>
-      <c r="AP42" t="s" s="2">
+      <c r="AQ42" t="s" s="2">
         <v>308</v>
       </c>
-      <c r="AQ42" t="s" s="2">
+      <c r="AR42" t="s" s="2">
         <v>309</v>
-      </c>
-      <c r="AR42" t="s" s="2">
-        <v>81</v>
       </c>
     </row>
     <row r="43" hidden="true">
@@ -7999,10 +7999,10 @@
         <v>81</v>
       </c>
       <c r="AM43" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN43" t="s" s="2">
         <v>181</v>
-      </c>
-      <c r="AN43" t="s" s="2">
-        <v>81</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>81</v>
@@ -8125,10 +8125,10 @@
         <v>81</v>
       </c>
       <c r="AM44" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN44" t="s" s="2">
         <v>181</v>
-      </c>
-      <c r="AN44" t="s" s="2">
-        <v>81</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>81</v>
@@ -8251,19 +8251,19 @@
         <v>81</v>
       </c>
       <c r="AM45" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN45" t="s" s="2">
         <v>320</v>
       </c>
-      <c r="AN45" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="AO45" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AP45" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AQ45" t="s" s="2">
         <v>321</v>
-      </c>
-      <c r="AQ45" t="s" s="2">
-        <v>81</v>
       </c>
       <c r="AR45" t="s" s="2">
         <v>81</v>
@@ -8373,28 +8373,28 @@
         <v>106</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>81</v>
+        <v>326</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AM46" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN46" t="s" s="2">
         <v>320</v>
       </c>
-      <c r="AN46" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="AO46" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AP46" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AQ46" t="s" s="2">
         <v>321</v>
       </c>
-      <c r="AQ46" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="AR46" t="s" s="2">
-        <v>326</v>
+        <v>81</v>
       </c>
     </row>
     <row r="47" hidden="true">
@@ -8503,10 +8503,10 @@
         <v>81</v>
       </c>
       <c r="AM47" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN47" t="s" s="2">
         <v>181</v>
-      </c>
-      <c r="AN47" t="s" s="2">
-        <v>81</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>81</v>
@@ -8629,10 +8629,10 @@
         <v>81</v>
       </c>
       <c r="AM48" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN48" t="s" s="2">
         <v>181</v>
-      </c>
-      <c r="AN48" t="s" s="2">
-        <v>81</v>
       </c>
       <c r="AO48" t="s" s="2">
         <v>81</v>
@@ -8757,19 +8757,19 @@
         <v>81</v>
       </c>
       <c r="AM49" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN49" t="s" s="2">
         <v>339</v>
       </c>
-      <c r="AN49" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="AO49" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AP49" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AQ49" t="s" s="2">
         <v>340</v>
-      </c>
-      <c r="AQ49" t="s" s="2">
-        <v>81</v>
       </c>
       <c r="AR49" t="s" s="2">
         <v>81</v>
@@ -8883,19 +8883,19 @@
         <v>81</v>
       </c>
       <c r="AM50" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN50" t="s" s="2">
         <v>347</v>
       </c>
-      <c r="AN50" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="AO50" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AP50" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AQ50" t="s" s="2">
         <v>348</v>
-      </c>
-      <c r="AQ50" t="s" s="2">
-        <v>81</v>
       </c>
       <c r="AR50" t="s" s="2">
         <v>81</v>
@@ -9009,19 +9009,19 @@
         <v>81</v>
       </c>
       <c r="AM51" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN51" t="s" s="2">
         <v>305</v>
       </c>
-      <c r="AN51" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="AO51" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AP51" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AQ51" t="s" s="2">
         <v>355</v>
-      </c>
-      <c r="AQ51" t="s" s="2">
-        <v>81</v>
       </c>
       <c r="AR51" t="s" s="2">
         <v>81</v>
@@ -9135,19 +9135,19 @@
         <v>81</v>
       </c>
       <c r="AM52" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN52" t="s" s="2">
         <v>362</v>
       </c>
-      <c r="AN52" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="AO52" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AP52" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AQ52" t="s" s="2">
         <v>363</v>
-      </c>
-      <c r="AQ52" t="s" s="2">
-        <v>81</v>
       </c>
       <c r="AR52" t="s" s="2">
         <v>81</v>
@@ -9263,19 +9263,19 @@
         <v>81</v>
       </c>
       <c r="AM53" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN53" t="s" s="2">
         <v>372</v>
       </c>
-      <c r="AN53" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="AO53" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AP53" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AQ53" t="s" s="2">
         <v>373</v>
-      </c>
-      <c r="AQ53" t="s" s="2">
-        <v>81</v>
       </c>
       <c r="AR53" t="s" s="2">
         <v>81</v>
@@ -9387,28 +9387,28 @@
         <v>106</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>81</v>
+        <v>376</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AM54" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN54" t="s" s="2">
         <v>320</v>
       </c>
-      <c r="AN54" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="AO54" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AP54" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AQ54" t="s" s="2">
         <v>321</v>
       </c>
-      <c r="AQ54" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="AR54" t="s" s="2">
-        <v>376</v>
+        <v>81</v>
       </c>
     </row>
     <row r="55" hidden="true">
@@ -9517,10 +9517,10 @@
         <v>81</v>
       </c>
       <c r="AM55" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN55" t="s" s="2">
         <v>181</v>
-      </c>
-      <c r="AN55" t="s" s="2">
-        <v>81</v>
       </c>
       <c r="AO55" t="s" s="2">
         <v>81</v>
@@ -9643,10 +9643,10 @@
         <v>81</v>
       </c>
       <c r="AM56" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN56" t="s" s="2">
         <v>181</v>
-      </c>
-      <c r="AN56" t="s" s="2">
-        <v>81</v>
       </c>
       <c r="AO56" t="s" s="2">
         <v>81</v>
@@ -9771,19 +9771,19 @@
         <v>81</v>
       </c>
       <c r="AM57" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN57" t="s" s="2">
         <v>339</v>
       </c>
-      <c r="AN57" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="AO57" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AP57" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AQ57" t="s" s="2">
         <v>340</v>
-      </c>
-      <c r="AQ57" t="s" s="2">
-        <v>81</v>
       </c>
       <c r="AR57" t="s" s="2">
         <v>81</v>
@@ -9897,19 +9897,19 @@
         <v>81</v>
       </c>
       <c r="AM58" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN58" t="s" s="2">
         <v>347</v>
       </c>
-      <c r="AN58" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="AO58" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AP58" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AQ58" t="s" s="2">
         <v>348</v>
-      </c>
-      <c r="AQ58" t="s" s="2">
-        <v>81</v>
       </c>
       <c r="AR58" t="s" s="2">
         <v>81</v>
@@ -10023,19 +10023,19 @@
         <v>81</v>
       </c>
       <c r="AM59" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN59" t="s" s="2">
         <v>305</v>
       </c>
-      <c r="AN59" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="AO59" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AP59" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AQ59" t="s" s="2">
         <v>355</v>
-      </c>
-      <c r="AQ59" t="s" s="2">
-        <v>81</v>
       </c>
       <c r="AR59" t="s" s="2">
         <v>81</v>
@@ -10149,19 +10149,19 @@
         <v>81</v>
       </c>
       <c r="AM60" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN60" t="s" s="2">
         <v>362</v>
       </c>
-      <c r="AN60" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="AO60" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AP60" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AQ60" t="s" s="2">
         <v>363</v>
-      </c>
-      <c r="AQ60" t="s" s="2">
-        <v>81</v>
       </c>
       <c r="AR60" t="s" s="2">
         <v>81</v>
@@ -10277,19 +10277,19 @@
         <v>81</v>
       </c>
       <c r="AM61" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN61" t="s" s="2">
         <v>372</v>
       </c>
-      <c r="AN61" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="AO61" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AP61" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AQ61" t="s" s="2">
         <v>373</v>
-      </c>
-      <c r="AQ61" t="s" s="2">
-        <v>81</v>
       </c>
       <c r="AR61" t="s" s="2">
         <v>81</v>
@@ -10405,19 +10405,19 @@
         <v>81</v>
       </c>
       <c r="AM62" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN62" t="s" s="2">
         <v>391</v>
       </c>
-      <c r="AN62" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="AO62" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AP62" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AQ62" t="s" s="2">
         <v>392</v>
-      </c>
-      <c r="AQ62" t="s" s="2">
-        <v>81</v>
       </c>
       <c r="AR62" t="s" s="2">
         <v>81</v>
@@ -10523,10 +10523,10 @@
         <v>106</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>81</v>
+        <v>402</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>402</v>
+        <v>81</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>403</v>
@@ -10535,13 +10535,13 @@
         <v>404</v>
       </c>
       <c r="AO63" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="AP63" t="s" s="2">
         <v>307</v>
       </c>
-      <c r="AP63" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="AQ63" t="s" s="2">
-        <v>405</v>
+        <v>81</v>
       </c>
       <c r="AR63" t="s" s="2">
         <v>406</v>
@@ -10654,7 +10654,7 @@
         <v>81</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>402</v>
+        <v>81</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>403</v>
@@ -10663,16 +10663,16 @@
         <v>404</v>
       </c>
       <c r="AO64" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="AP64" t="s" s="2">
         <v>307</v>
       </c>
-      <c r="AP64" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="AQ64" t="s" s="2">
-        <v>405</v>
+        <v>81</v>
       </c>
       <c r="AR64" t="s" s="2">
-        <v>81</v>
+        <v>406</v>
       </c>
     </row>
     <row r="65" hidden="true">
@@ -10910,19 +10910,19 @@
         <v>431</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>81</v>
+        <v>432</v>
       </c>
       <c r="AO66" t="s" s="2">
-        <v>432</v>
+        <v>81</v>
       </c>
       <c r="AP66" t="s" s="2">
-        <v>81</v>
+        <v>433</v>
       </c>
       <c r="AQ66" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AR66" t="s" s="2">
-        <v>433</v>
+        <v>81</v>
       </c>
     </row>
     <row r="67" hidden="true">
@@ -11039,10 +11039,10 @@
         <v>442</v>
       </c>
       <c r="AO67" t="s" s="2">
-        <v>81</v>
+        <v>443</v>
       </c>
       <c r="AP67" t="s" s="2">
-        <v>443</v>
+        <v>81</v>
       </c>
       <c r="AQ67" t="s" s="2">
         <v>444</v>
@@ -11153,28 +11153,28 @@
         <v>106</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>439</v>
+        <v>81</v>
       </c>
       <c r="AL68" t="s" s="2">
+        <v>440</v>
+      </c>
+      <c r="AM68" t="s" s="2">
         <v>451</v>
       </c>
-      <c r="AM68" t="s" s="2">
+      <c r="AN68" t="s" s="2">
         <v>452</v>
       </c>
-      <c r="AN68" t="s" s="2">
+      <c r="AO68" t="s" s="2">
         <v>453</v>
       </c>
-      <c r="AO68" t="s" s="2">
+      <c r="AP68" t="s" s="2">
         <v>454</v>
       </c>
-      <c r="AP68" t="s" s="2">
+      <c r="AQ68" t="s" s="2">
         <v>455</v>
       </c>
-      <c r="AQ68" t="s" s="2">
+      <c r="AR68" t="s" s="2">
         <v>456</v>
-      </c>
-      <c r="AR68" t="s" s="2">
-        <v>81</v>
       </c>
     </row>
     <row r="69" hidden="true">
@@ -11283,10 +11283,10 @@
         <v>81</v>
       </c>
       <c r="AM69" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN69" t="s" s="2">
         <v>181</v>
-      </c>
-      <c r="AN69" t="s" s="2">
-        <v>81</v>
       </c>
       <c r="AO69" t="s" s="2">
         <v>81</v>
@@ -11409,10 +11409,10 @@
         <v>81</v>
       </c>
       <c r="AM70" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN70" t="s" s="2">
         <v>181</v>
-      </c>
-      <c r="AN70" t="s" s="2">
-        <v>81</v>
       </c>
       <c r="AO70" t="s" s="2">
         <v>81</v>
@@ -11661,10 +11661,10 @@
         <v>81</v>
       </c>
       <c r="AM72" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN72" t="s" s="2">
         <v>137</v>
-      </c>
-      <c r="AN72" t="s" s="2">
-        <v>81</v>
       </c>
       <c r="AO72" t="s" s="2">
         <v>81</v>
@@ -11787,10 +11787,10 @@
         <v>81</v>
       </c>
       <c r="AM73" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN73" t="s" s="2">
         <v>137</v>
-      </c>
-      <c r="AN73" t="s" s="2">
-        <v>81</v>
       </c>
       <c r="AO73" t="s" s="2">
         <v>81</v>
@@ -11913,10 +11913,10 @@
         <v>81</v>
       </c>
       <c r="AM74" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN74" t="s" s="2">
         <v>482</v>
-      </c>
-      <c r="AN74" t="s" s="2">
-        <v>81</v>
       </c>
       <c r="AO74" t="s" s="2">
         <v>81</v>
@@ -12039,10 +12039,10 @@
         <v>81</v>
       </c>
       <c r="AM75" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN75" t="s" s="2">
         <v>137</v>
-      </c>
-      <c r="AN75" t="s" s="2">
-        <v>81</v>
       </c>
       <c r="AO75" t="s" s="2">
         <v>81</v>
@@ -12159,16 +12159,16 @@
         <v>106</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>439</v>
+        <v>492</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>492</v>
+        <v>440</v>
       </c>
       <c r="AM76" t="s" s="2">
         <v>493</v>
       </c>
       <c r="AN76" t="s" s="2">
-        <v>81</v>
+        <v>494</v>
       </c>
       <c r="AO76" t="s" s="2">
         <v>81</v>
@@ -12180,7 +12180,7 @@
         <v>81</v>
       </c>
       <c r="AR76" t="s" s="2">
-        <v>494</v>
+        <v>81</v>
       </c>
     </row>
     <row r="77" hidden="true">
@@ -12288,14 +12288,14 @@
         <v>81</v>
       </c>
       <c r="AL77" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM77" t="s" s="2">
         <v>500</v>
       </c>
-      <c r="AM77" t="s" s="2">
+      <c r="AN77" t="s" s="2">
         <v>501</v>
       </c>
-      <c r="AN77" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="AO77" t="s" s="2">
         <v>81</v>
       </c>
@@ -12303,10 +12303,10 @@
         <v>81</v>
       </c>
       <c r="AQ77" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AR77" t="s" s="2">
         <v>502</v>
-      </c>
-      <c r="AR77" t="s" s="2">
-        <v>81</v>
       </c>
     </row>
     <row r="78" hidden="true">
@@ -12415,10 +12415,10 @@
         <v>81</v>
       </c>
       <c r="AM78" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN78" t="s" s="2">
         <v>181</v>
-      </c>
-      <c r="AN78" t="s" s="2">
-        <v>81</v>
       </c>
       <c r="AO78" t="s" s="2">
         <v>81</v>
@@ -12541,10 +12541,10 @@
         <v>81</v>
       </c>
       <c r="AM79" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN79" t="s" s="2">
         <v>181</v>
-      </c>
-      <c r="AN79" t="s" s="2">
-        <v>81</v>
       </c>
       <c r="AO79" t="s" s="2">
         <v>81</v>
@@ -12669,10 +12669,10 @@
         <v>81</v>
       </c>
       <c r="AM80" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN80" t="s" s="2">
         <v>137</v>
-      </c>
-      <c r="AN80" t="s" s="2">
-        <v>81</v>
       </c>
       <c r="AO80" t="s" s="2">
         <v>81</v>
@@ -12792,14 +12792,14 @@
         <v>81</v>
       </c>
       <c r="AL81" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM81" t="s" s="2">
         <v>516</v>
       </c>
-      <c r="AM81" t="s" s="2">
+      <c r="AN81" t="s" s="2">
         <v>517</v>
       </c>
-      <c r="AN81" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="AO81" t="s" s="2">
         <v>81</v>
       </c>
@@ -12807,10 +12807,10 @@
         <v>81</v>
       </c>
       <c r="AQ81" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AR81" t="s" s="2">
         <v>518</v>
-      </c>
-      <c r="AR81" t="s" s="2">
-        <v>81</v>
       </c>
     </row>
     <row r="82" hidden="true">
@@ -12916,14 +12916,14 @@
         <v>81</v>
       </c>
       <c r="AL82" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM82" t="s" s="2">
         <v>523</v>
       </c>
-      <c r="AM82" t="s" s="2">
+      <c r="AN82" t="s" s="2">
         <v>524</v>
       </c>
-      <c r="AN82" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="AO82" t="s" s="2">
         <v>81</v>
       </c>
@@ -12931,10 +12931,10 @@
         <v>81</v>
       </c>
       <c r="AQ82" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AR82" t="s" s="2">
         <v>525</v>
-      </c>
-      <c r="AR82" t="s" s="2">
-        <v>81</v>
       </c>
     </row>
     <row r="83" hidden="true">
@@ -13041,22 +13041,22 @@
         <v>106</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>81</v>
+        <v>531</v>
       </c>
       <c r="AL83" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>531</v>
+        <v>81</v>
       </c>
       <c r="AN83" t="s" s="2">
-        <v>81</v>
+        <v>532</v>
       </c>
       <c r="AO83" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AP83" t="s" s="2">
-        <v>532</v>
+        <v>81</v>
       </c>
       <c r="AQ83" t="s" s="2">
         <v>533</v>
@@ -13172,25 +13172,25 @@
         <v>81</v>
       </c>
       <c r="AL84" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM84" t="s" s="2">
         <v>542</v>
       </c>
-      <c r="AM84" t="s" s="2">
+      <c r="AN84" t="s" s="2">
         <v>543</v>
       </c>
-      <c r="AN84" t="s" s="2">
+      <c r="AO84" t="s" s="2">
         <v>544</v>
       </c>
-      <c r="AO84" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="AP84" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AQ84" t="s" s="2">
         <v>545</v>
       </c>
-      <c r="AQ84" t="s" s="2">
+      <c r="AR84" t="s" s="2">
         <v>546</v>
-      </c>
-      <c r="AR84" t="s" s="2">
-        <v>81</v>
       </c>
     </row>
     <row r="85" hidden="true">
@@ -13296,13 +13296,13 @@
         <v>81</v>
       </c>
       <c r="AL85" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM85" t="s" s="2">
         <v>550</v>
       </c>
-      <c r="AM85" t="s" s="2">
+      <c r="AN85" t="s" s="2">
         <v>551</v>
-      </c>
-      <c r="AN85" t="s" s="2">
-        <v>81</v>
       </c>
       <c r="AO85" t="s" s="2">
         <v>81</v>
@@ -13423,10 +13423,10 @@
         <v>81</v>
       </c>
       <c r="AM86" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN86" t="s" s="2">
         <v>181</v>
-      </c>
-      <c r="AN86" t="s" s="2">
-        <v>81</v>
       </c>
       <c r="AO86" t="s" s="2">
         <v>81</v>
@@ -13549,10 +13549,10 @@
         <v>81</v>
       </c>
       <c r="AM87" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN87" t="s" s="2">
         <v>181</v>
-      </c>
-      <c r="AN87" t="s" s="2">
-        <v>81</v>
       </c>
       <c r="AO87" t="s" s="2">
         <v>81</v>
@@ -13677,10 +13677,10 @@
         <v>81</v>
       </c>
       <c r="AM88" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN88" t="s" s="2">
         <v>137</v>
-      </c>
-      <c r="AN88" t="s" s="2">
-        <v>81</v>
       </c>
       <c r="AO88" t="s" s="2">
         <v>81</v>
@@ -13798,25 +13798,25 @@
         <v>81</v>
       </c>
       <c r="AL89" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM89" t="s" s="2">
         <v>560</v>
       </c>
-      <c r="AM89" t="s" s="2">
+      <c r="AN89" t="s" s="2">
         <v>551</v>
       </c>
-      <c r="AN89" t="s" s="2">
+      <c r="AO89" t="s" s="2">
         <v>561</v>
       </c>
-      <c r="AO89" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="AP89" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AQ89" t="s" s="2">
         <v>562</v>
       </c>
-      <c r="AQ89" t="s" s="2">
+      <c r="AR89" t="s" s="2">
         <v>563</v>
-      </c>
-      <c r="AR89" t="s" s="2">
-        <v>81</v>
       </c>
     </row>
     <row r="90" hidden="true">
@@ -13925,10 +13925,10 @@
         <v>81</v>
       </c>
       <c r="AM90" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN90" t="s" s="2">
         <v>181</v>
-      </c>
-      <c r="AN90" t="s" s="2">
-        <v>81</v>
       </c>
       <c r="AO90" t="s" s="2">
         <v>81</v>
@@ -14051,10 +14051,10 @@
         <v>81</v>
       </c>
       <c r="AM91" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN91" t="s" s="2">
         <v>181</v>
-      </c>
-      <c r="AN91" t="s" s="2">
-        <v>81</v>
       </c>
       <c r="AO91" t="s" s="2">
         <v>81</v>
@@ -14171,28 +14171,28 @@
         <v>106</v>
       </c>
       <c r="AK92" t="s" s="2">
-        <v>81</v>
+        <v>574</v>
       </c>
       <c r="AL92" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AM92" t="s" s="2">
-        <v>574</v>
+        <v>81</v>
       </c>
       <c r="AN92" t="s" s="2">
-        <v>81</v>
+        <v>575</v>
       </c>
       <c r="AO92" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AP92" t="s" s="2">
-        <v>575</v>
+        <v>81</v>
       </c>
       <c r="AQ92" t="s" s="2">
-        <v>81</v>
+        <v>576</v>
       </c>
       <c r="AR92" t="s" s="2">
-        <v>576</v>
+        <v>81</v>
       </c>
     </row>
     <row r="93" hidden="true">
@@ -14303,10 +14303,10 @@
         <v>81</v>
       </c>
       <c r="AM93" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN93" t="s" s="2">
         <v>583</v>
-      </c>
-      <c r="AN93" t="s" s="2">
-        <v>81</v>
       </c>
       <c r="AO93" t="s" s="2">
         <v>81</v>
@@ -14425,28 +14425,28 @@
         <v>106</v>
       </c>
       <c r="AK94" t="s" s="2">
-        <v>81</v>
+        <v>592</v>
       </c>
       <c r="AL94" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AM94" t="s" s="2">
-        <v>592</v>
+        <v>81</v>
       </c>
       <c r="AN94" t="s" s="2">
-        <v>81</v>
+        <v>593</v>
       </c>
       <c r="AO94" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AP94" t="s" s="2">
-        <v>593</v>
+        <v>81</v>
       </c>
       <c r="AQ94" t="s" s="2">
-        <v>81</v>
+        <v>594</v>
       </c>
       <c r="AR94" t="s" s="2">
-        <v>594</v>
+        <v>81</v>
       </c>
     </row>
     <row r="95" hidden="true">
@@ -14559,19 +14559,19 @@
         <v>81</v>
       </c>
       <c r="AM95" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN95" t="s" s="2">
         <v>603</v>
       </c>
-      <c r="AN95" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="AO95" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AP95" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AQ95" t="s" s="2">
         <v>604</v>
-      </c>
-      <c r="AQ95" t="s" s="2">
-        <v>81</v>
       </c>
       <c r="AR95" t="s" s="2">
         <v>81</v>
@@ -14687,10 +14687,10 @@
         <v>81</v>
       </c>
       <c r="AM96" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN96" t="s" s="2">
         <v>612</v>
-      </c>
-      <c r="AN96" t="s" s="2">
-        <v>81</v>
       </c>
       <c r="AO96" t="s" s="2">
         <v>81</v>
@@ -14815,10 +14815,10 @@
         <v>81</v>
       </c>
       <c r="AM97" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN97" t="s" s="2">
         <v>619</v>
-      </c>
-      <c r="AN97" t="s" s="2">
-        <v>81</v>
       </c>
       <c r="AO97" t="s" s="2">
         <v>81</v>
@@ -14935,16 +14935,16 @@
         <v>106</v>
       </c>
       <c r="AK98" t="s" s="2">
-        <v>81</v>
+        <v>626</v>
       </c>
       <c r="AL98" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AM98" t="s" s="2">
-        <v>626</v>
+        <v>81</v>
       </c>
       <c r="AN98" t="s" s="2">
-        <v>81</v>
+        <v>627</v>
       </c>
       <c r="AO98" t="s" s="2">
         <v>81</v>
@@ -14956,7 +14956,7 @@
         <v>81</v>
       </c>
       <c r="AR98" t="s" s="2">
-        <v>627</v>
+        <v>81</v>
       </c>
     </row>
     <row r="99" hidden="true">
@@ -15061,17 +15061,17 @@
         <v>106</v>
       </c>
       <c r="AK99" t="s" s="2">
-        <v>81</v>
+        <v>634</v>
       </c>
       <c r="AL99" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AM99" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN99" t="s" s="2">
         <v>612</v>
       </c>
-      <c r="AN99" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="AO99" t="s" s="2">
         <v>81</v>
       </c>
@@ -15082,7 +15082,7 @@
         <v>81</v>
       </c>
       <c r="AR99" t="s" s="2">
-        <v>634</v>
+        <v>81</v>
       </c>
     </row>
     <row r="100" hidden="true">
@@ -15188,25 +15188,25 @@
         <v>81</v>
       </c>
       <c r="AL100" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM100" t="s" s="2">
         <v>640</v>
       </c>
-      <c r="AM100" t="s" s="2">
+      <c r="AN100" t="s" s="2">
         <v>551</v>
       </c>
-      <c r="AN100" t="s" s="2">
+      <c r="AO100" t="s" s="2">
         <v>641</v>
       </c>
-      <c r="AO100" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="AP100" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AQ100" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AR100" t="s" s="2">
         <v>642</v>
-      </c>
-      <c r="AR100" t="s" s="2">
-        <v>81</v>
       </c>
     </row>
     <row r="101" hidden="true">
@@ -15317,10 +15317,10 @@
         <v>81</v>
       </c>
       <c r="AM101" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN101" t="s" s="2">
         <v>647</v>
-      </c>
-      <c r="AN101" t="s" s="2">
-        <v>81</v>
       </c>
       <c r="AO101" t="s" s="2">
         <v>81</v>
@@ -15441,10 +15441,10 @@
         <v>81</v>
       </c>
       <c r="AM102" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN102" t="s" s="2">
         <v>181</v>
-      </c>
-      <c r="AN102" t="s" s="2">
-        <v>81</v>
       </c>
       <c r="AO102" t="s" s="2">
         <v>81</v>
@@ -15567,10 +15567,10 @@
         <v>81</v>
       </c>
       <c r="AM103" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN103" t="s" s="2">
         <v>181</v>
-      </c>
-      <c r="AN103" t="s" s="2">
-        <v>81</v>
       </c>
       <c r="AO103" t="s" s="2">
         <v>81</v>
@@ -15695,10 +15695,10 @@
         <v>81</v>
       </c>
       <c r="AM104" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN104" t="s" s="2">
         <v>137</v>
-      </c>
-      <c r="AN104" t="s" s="2">
-        <v>81</v>
       </c>
       <c r="AO104" t="s" s="2">
         <v>81</v>
@@ -15822,19 +15822,19 @@
         <v>657</v>
       </c>
       <c r="AN105" t="s" s="2">
-        <v>81</v>
+        <v>658</v>
       </c>
       <c r="AO105" t="s" s="2">
-        <v>658</v>
+        <v>81</v>
       </c>
       <c r="AP105" t="s" s="2">
-        <v>81</v>
+        <v>659</v>
       </c>
       <c r="AQ105" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AR105" t="s" s="2">
-        <v>659</v>
+        <v>81</v>
       </c>
     </row>
     <row r="106" hidden="true">
@@ -15942,14 +15942,14 @@
         <v>81</v>
       </c>
       <c r="AL106" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM106" t="s" s="2">
         <v>666</v>
       </c>
-      <c r="AM106" t="s" s="2">
+      <c r="AN106" t="s" s="2">
         <v>667</v>
       </c>
-      <c r="AN106" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="AO106" t="s" s="2">
         <v>81</v>
       </c>
@@ -15957,10 +15957,10 @@
         <v>81</v>
       </c>
       <c r="AQ106" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AR106" t="s" s="2">
         <v>668</v>
-      </c>
-      <c r="AR106" t="s" s="2">
-        <v>81</v>
       </c>
     </row>
     <row r="107" hidden="true">
@@ -16066,25 +16066,25 @@
         <v>81</v>
       </c>
       <c r="AL107" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM107" t="s" s="2">
         <v>672</v>
       </c>
-      <c r="AM107" t="s" s="2">
+      <c r="AN107" t="s" s="2">
         <v>673</v>
       </c>
-      <c r="AN107" t="s" s="2">
+      <c r="AO107" t="s" s="2">
         <v>674</v>
       </c>
-      <c r="AO107" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="AP107" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AQ107" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AR107" t="s" s="2">
         <v>675</v>
-      </c>
-      <c r="AR107" t="s" s="2">
-        <v>81</v>
       </c>
     </row>
     <row r="108" hidden="true">
@@ -16190,25 +16190,25 @@
         <v>81</v>
       </c>
       <c r="AL108" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM108" t="s" s="2">
         <v>681</v>
       </c>
-      <c r="AM108" t="s" s="2">
+      <c r="AN108" t="s" s="2">
         <v>682</v>
       </c>
-      <c r="AN108" t="s" s="2">
+      <c r="AO108" t="s" s="2">
         <v>683</v>
       </c>
-      <c r="AO108" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="AP108" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AQ108" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AR108" t="s" s="2">
         <v>684</v>
-      </c>
-      <c r="AR108" t="s" s="2">
-        <v>81</v>
       </c>
     </row>
     <row r="109" hidden="true">
@@ -16318,25 +16318,25 @@
         <v>81</v>
       </c>
       <c r="AL109" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM109" t="s" s="2">
         <v>681</v>
       </c>
-      <c r="AM109" t="s" s="2">
+      <c r="AN109" t="s" s="2">
         <v>682</v>
       </c>
-      <c r="AN109" t="s" s="2">
+      <c r="AO109" t="s" s="2">
         <v>681</v>
       </c>
-      <c r="AO109" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="AP109" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AQ109" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AR109" t="s" s="2">
         <v>692</v>
-      </c>
-      <c r="AR109" t="s" s="2">
-        <v>81</v>
       </c>
     </row>
     <row r="110" hidden="true">
@@ -16442,7 +16442,7 @@
         <v>81</v>
       </c>
       <c r="AL110" t="s" s="2">
-        <v>416</v>
+        <v>81</v>
       </c>
       <c r="AM110" t="s" s="2">
         <v>417</v>
@@ -16451,16 +16451,16 @@
         <v>418</v>
       </c>
       <c r="AO110" t="s" s="2">
-        <v>81</v>
+        <v>419</v>
       </c>
       <c r="AP110" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AQ110" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AR110" t="s" s="2">
         <v>697</v>
-      </c>
-      <c r="AR110" t="s" s="2">
-        <v>81</v>
       </c>
     </row>
     <row r="111" hidden="true">
@@ -16565,10 +16565,10 @@
         <v>106</v>
       </c>
       <c r="AK111" t="s" s="2">
-        <v>81</v>
+        <v>703</v>
       </c>
       <c r="AL111" t="s" s="2">
-        <v>703</v>
+        <v>81</v>
       </c>
       <c r="AM111" t="s" s="2">
         <v>704</v>
@@ -16577,13 +16577,13 @@
         <v>705</v>
       </c>
       <c r="AO111" t="s" s="2">
-        <v>81</v>
+        <v>706</v>
       </c>
       <c r="AP111" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AQ111" t="s" s="2">
-        <v>706</v>
+        <v>81</v>
       </c>
       <c r="AR111" t="s" s="2">
         <v>707</v>

--- a/docs/StructureDefinition-VA.MHV.PHR.imaging.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.imaging.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.3.7</t>
+    <t>0.3.8</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-10T12:47:52-05:00</t>
+    <t>2024-07-12T09:49:05-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
